--- a/jsonToExcel/TZ/TZ-2-output.xlsx
+++ b/jsonToExcel/TZ/TZ-2-output.xlsx
@@ -397,5240 +397,7652 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H201"/>
+  <dimension ref="A1:L201"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
+        <v>店铺ID</v>
+      </c>
+      <c r="B1" t="str">
+        <v>SPU系统</v>
+      </c>
+      <c r="C1" t="str">
         <v>SKC系统</v>
       </c>
-      <c r="B1" t="str">
+      <c r="D1" t="str">
         <v>SKU系统</v>
       </c>
-      <c r="C1" t="str">
+      <c r="E1" t="str">
         <v>条码编码</v>
       </c>
-      <c r="D1" t="str">
+      <c r="F1" t="str">
         <v>SKC货号</v>
       </c>
-      <c r="E1" t="str">
+      <c r="G1" t="str">
         <v>SKU货号</v>
       </c>
-      <c r="F1" t="str">
+      <c r="H1" t="str">
         <v>中文颜色</v>
       </c>
-      <c r="G1" t="str">
+      <c r="I1" t="str">
         <v>尺码</v>
       </c>
-      <c r="H1" t="str">
+      <c r="J1" t="str">
         <v>英文颜色</v>
+      </c>
+      <c r="K1" t="str">
+        <v>缩略图</v>
+      </c>
+      <c r="L1" t="str">
+        <v>类目标签</v>
       </c>
     </row>
     <row r="2">
       <c r="A2">
+        <v>634418219683784</v>
+      </c>
+      <c r="B2">
+        <v>425250730</v>
+      </c>
+      <c r="C2">
         <v>2530421700</v>
       </c>
-      <c r="B2">
+      <c r="D2">
         <v>3967188630</v>
       </c>
-      <c r="C2">
+      <c r="E2">
         <v>51731625755</v>
       </c>
-      <c r="D2" t="str">
+      <c r="F2" t="str">
         <v>6206</v>
       </c>
-      <c r="E2" t="str">
+      <c r="G2" t="str">
         <v/>
       </c>
-      <c r="F2" t="str">
+      <c r="H2" t="str">
         <v>深蓝</v>
       </c>
-      <c r="G2" t="str">
+      <c r="I2" t="str">
         <v>36</v>
       </c>
-      <c r="H2" t="str">
+      <c r="J2" t="str">
         <v>Dark Blue</v>
+      </c>
+      <c r="K2" t="str">
+        <v>https://img.kwcdn.com/product/fancy/7df39390-8b67-48f8-bfde-6881e8b471c3.jpg</v>
+      </c>
+      <c r="L2" t="str">
+        <v>溯溪鞋</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
+        <v>634418219683784</v>
+      </c>
+      <c r="B3">
+        <v>425250730</v>
+      </c>
+      <c r="C3">
         <v>2530421700</v>
       </c>
-      <c r="B3">
+      <c r="D3">
         <v>6717390042</v>
       </c>
-      <c r="C3">
+      <c r="E3">
         <v>21842971371</v>
       </c>
-      <c r="D3" t="str">
+      <c r="F3" t="str">
         <v>6206</v>
       </c>
-      <c r="E3" t="str">
+      <c r="G3" t="str">
         <v/>
       </c>
-      <c r="F3" t="str">
+      <c r="H3" t="str">
         <v>深蓝</v>
       </c>
-      <c r="G3" t="str">
+      <c r="I3" t="str">
         <v>33</v>
       </c>
-      <c r="H3" t="str">
+      <c r="J3" t="str">
         <v>Dark Blue</v>
+      </c>
+      <c r="K3" t="str">
+        <v>https://img.kwcdn.com/product/fancy/7df39390-8b67-48f8-bfde-6881e8b471c3.jpg</v>
+      </c>
+      <c r="L3" t="str">
+        <v>溯溪鞋</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
+        <v>634418219683784</v>
+      </c>
+      <c r="B4">
+        <v>425250730</v>
+      </c>
+      <c r="C4">
         <v>2530421700</v>
       </c>
-      <c r="B4">
+      <c r="D4">
         <v>2878080511</v>
       </c>
-      <c r="C4">
+      <c r="E4">
         <v>75718882980</v>
       </c>
-      <c r="D4" t="str">
+      <c r="F4" t="str">
         <v>6206</v>
       </c>
-      <c r="E4" t="str">
+      <c r="G4" t="str">
         <v/>
       </c>
-      <c r="F4" t="str">
+      <c r="H4" t="str">
         <v>深蓝</v>
       </c>
-      <c r="G4" t="str">
+      <c r="I4" t="str">
         <v>31</v>
       </c>
-      <c r="H4" t="str">
+      <c r="J4" t="str">
         <v>Dark Blue</v>
+      </c>
+      <c r="K4" t="str">
+        <v>https://img.kwcdn.com/product/fancy/7df39390-8b67-48f8-bfde-6881e8b471c3.jpg</v>
+      </c>
+      <c r="L4" t="str">
+        <v>溯溪鞋</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
+        <v>634418219683784</v>
+      </c>
+      <c r="B5">
+        <v>425250730</v>
+      </c>
+      <c r="C5">
         <v>2530421700</v>
       </c>
-      <c r="B5">
+      <c r="D5">
         <v>5063090603</v>
       </c>
-      <c r="C5">
+      <c r="E5">
         <v>16635429472</v>
       </c>
-      <c r="D5" t="str">
+      <c r="F5" t="str">
         <v>6206</v>
       </c>
-      <c r="E5" t="str">
+      <c r="G5" t="str">
         <v/>
       </c>
-      <c r="F5" t="str">
+      <c r="H5" t="str">
         <v>黑桔</v>
       </c>
-      <c r="G5" t="str">
+      <c r="I5" t="str">
         <v>33</v>
       </c>
-      <c r="H5" t="str">
+      <c r="J5" t="str">
         <v>Black Orange</v>
+      </c>
+      <c r="K5" t="str">
+        <v>https://img.kwcdn.com/product/fancy/72a437e5-dc81-4152-b3e4-66ab6b7e6591.jpg</v>
+      </c>
+      <c r="L5" t="str">
+        <v>溯溪鞋</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
+        <v>634418219683784</v>
+      </c>
+      <c r="B6">
+        <v>425250730</v>
+      </c>
+      <c r="C6">
         <v>2530421700</v>
       </c>
-      <c r="B6">
+      <c r="D6">
         <v>7214690296</v>
       </c>
-      <c r="C6">
+      <c r="E6">
         <v>15958718557</v>
       </c>
-      <c r="D6" t="str">
+      <c r="F6" t="str">
         <v>6206</v>
       </c>
-      <c r="E6" t="str">
+      <c r="G6" t="str">
         <v/>
       </c>
-      <c r="F6" t="str">
+      <c r="H6" t="str">
         <v>深蓝</v>
       </c>
-      <c r="G6" t="str">
+      <c r="I6" t="str">
         <v>37</v>
       </c>
-      <c r="H6" t="str">
+      <c r="J6" t="str">
         <v>Dark Blue</v>
+      </c>
+      <c r="K6" t="str">
+        <v>https://img.kwcdn.com/product/fancy/7df39390-8b67-48f8-bfde-6881e8b471c3.jpg</v>
+      </c>
+      <c r="L6" t="str">
+        <v>溯溪鞋</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
+        <v>634418219683784</v>
+      </c>
+      <c r="B7">
+        <v>425250730</v>
+      </c>
+      <c r="C7">
         <v>2530421700</v>
       </c>
-      <c r="B7">
+      <c r="D7">
         <v>5160236380</v>
       </c>
-      <c r="C7">
+      <c r="E7">
         <v>83097403522</v>
       </c>
-      <c r="D7" t="str">
+      <c r="F7" t="str">
         <v>6206</v>
       </c>
-      <c r="E7" t="str">
+      <c r="G7" t="str">
         <v/>
       </c>
-      <c r="F7" t="str">
+      <c r="H7" t="str">
         <v>深蓝</v>
       </c>
-      <c r="G7" t="str">
+      <c r="I7" t="str">
         <v>38</v>
       </c>
-      <c r="H7" t="str">
+      <c r="J7" t="str">
         <v>Dark Blue</v>
+      </c>
+      <c r="K7" t="str">
+        <v>https://img.kwcdn.com/product/fancy/7df39390-8b67-48f8-bfde-6881e8b471c3.jpg</v>
+      </c>
+      <c r="L7" t="str">
+        <v>溯溪鞋</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
+        <v>634418219683784</v>
+      </c>
+      <c r="B8">
+        <v>425250730</v>
+      </c>
+      <c r="C8">
         <v>2530421700</v>
       </c>
-      <c r="B8">
+      <c r="D8">
         <v>6416284729</v>
       </c>
-      <c r="C8">
+      <c r="E8">
         <v>34261286148</v>
       </c>
-      <c r="D8" t="str">
+      <c r="F8" t="str">
         <v>6206</v>
       </c>
-      <c r="E8" t="str">
+      <c r="G8" t="str">
         <v/>
       </c>
-      <c r="F8" t="str">
+      <c r="H8" t="str">
         <v>黑桔</v>
       </c>
-      <c r="G8" t="str">
+      <c r="I8" t="str">
         <v>36</v>
       </c>
-      <c r="H8" t="str">
+      <c r="J8" t="str">
         <v>Black Orange</v>
+      </c>
+      <c r="K8" t="str">
+        <v>https://img.kwcdn.com/product/fancy/72a437e5-dc81-4152-b3e4-66ab6b7e6591.jpg</v>
+      </c>
+      <c r="L8" t="str">
+        <v>溯溪鞋</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
+        <v>634418219683784</v>
+      </c>
+      <c r="B9">
+        <v>425250730</v>
+      </c>
+      <c r="C9">
         <v>2530421700</v>
       </c>
-      <c r="B9">
+      <c r="D9">
         <v>9712489978</v>
       </c>
-      <c r="C9">
+      <c r="E9">
         <v>59465177156</v>
       </c>
-      <c r="D9" t="str">
+      <c r="F9" t="str">
         <v>6206</v>
       </c>
-      <c r="E9" t="str">
+      <c r="G9" t="str">
         <v/>
       </c>
-      <c r="F9" t="str">
+      <c r="H9" t="str">
         <v>黑桔</v>
       </c>
-      <c r="G9" t="str">
+      <c r="I9" t="str">
         <v>30</v>
       </c>
-      <c r="H9" t="str">
+      <c r="J9" t="str">
         <v>Black Orange</v>
+      </c>
+      <c r="K9" t="str">
+        <v>https://img.kwcdn.com/product/fancy/72a437e5-dc81-4152-b3e4-66ab6b7e6591.jpg</v>
+      </c>
+      <c r="L9" t="str">
+        <v>溯溪鞋</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
+        <v>634418219683784</v>
+      </c>
+      <c r="B10">
+        <v>425250730</v>
+      </c>
+      <c r="C10">
         <v>2530421700</v>
       </c>
-      <c r="B10">
+      <c r="D10">
         <v>4268795261</v>
       </c>
-      <c r="C10">
+      <c r="E10">
         <v>31623079748</v>
       </c>
-      <c r="D10" t="str">
+      <c r="F10" t="str">
         <v>6206</v>
       </c>
-      <c r="E10" t="str">
+      <c r="G10" t="str">
         <v/>
       </c>
-      <c r="F10" t="str">
+      <c r="H10" t="str">
         <v>深蓝</v>
       </c>
-      <c r="G10" t="str">
+      <c r="I10" t="str">
         <v>35</v>
       </c>
-      <c r="H10" t="str">
+      <c r="J10" t="str">
         <v>Dark Blue</v>
+      </c>
+      <c r="K10" t="str">
+        <v>https://img.kwcdn.com/product/fancy/7df39390-8b67-48f8-bfde-6881e8b471c3.jpg</v>
+      </c>
+      <c r="L10" t="str">
+        <v>溯溪鞋</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
+        <v>634418219683784</v>
+      </c>
+      <c r="B11">
+        <v>425250730</v>
+      </c>
+      <c r="C11">
         <v>2530421700</v>
       </c>
-      <c r="B11">
+      <c r="D11">
         <v>8737917828</v>
       </c>
-      <c r="C11">
+      <c r="E11">
         <v>10878193432</v>
       </c>
-      <c r="D11" t="str">
+      <c r="F11" t="str">
         <v>6206</v>
       </c>
-      <c r="E11" t="str">
+      <c r="G11" t="str">
         <v/>
       </c>
-      <c r="F11" t="str">
+      <c r="H11" t="str">
         <v>黑桔</v>
       </c>
-      <c r="G11" t="str">
+      <c r="I11" t="str">
         <v>26</v>
       </c>
-      <c r="H11" t="str">
+      <c r="J11" t="str">
         <v>Black Orange</v>
+      </c>
+      <c r="K11" t="str">
+        <v>https://img.kwcdn.com/product/fancy/72a437e5-dc81-4152-b3e4-66ab6b7e6591.jpg</v>
+      </c>
+      <c r="L11" t="str">
+        <v>溯溪鞋</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
+        <v>634418219683784</v>
+      </c>
+      <c r="B12">
+        <v>425250730</v>
+      </c>
+      <c r="C12">
         <v>2530421700</v>
       </c>
-      <c r="B12">
+      <c r="D12">
         <v>2279320621</v>
       </c>
-      <c r="C12">
+      <c r="E12">
         <v>61682940654</v>
       </c>
-      <c r="D12" t="str">
+      <c r="F12" t="str">
         <v>6206</v>
       </c>
-      <c r="E12" t="str">
+      <c r="G12" t="str">
         <v/>
       </c>
-      <c r="F12" t="str">
+      <c r="H12" t="str">
         <v>深蓝</v>
       </c>
-      <c r="G12" t="str">
+      <c r="I12" t="str">
         <v>26</v>
       </c>
-      <c r="H12" t="str">
+      <c r="J12" t="str">
         <v>Dark Blue</v>
+      </c>
+      <c r="K12" t="str">
+        <v>https://img.kwcdn.com/product/fancy/7df39390-8b67-48f8-bfde-6881e8b471c3.jpg</v>
+      </c>
+      <c r="L12" t="str">
+        <v>溯溪鞋</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
+        <v>634418219683784</v>
+      </c>
+      <c r="B13">
+        <v>425250730</v>
+      </c>
+      <c r="C13">
         <v>2530421700</v>
       </c>
-      <c r="B13">
+      <c r="D13">
         <v>2121764969</v>
       </c>
-      <c r="C13">
+      <c r="E13">
         <v>25912401099</v>
       </c>
-      <c r="D13" t="str">
+      <c r="F13" t="str">
         <v>6206</v>
       </c>
-      <c r="E13" t="str">
+      <c r="G13" t="str">
         <v/>
       </c>
-      <c r="F13" t="str">
+      <c r="H13" t="str">
         <v>黑桔</v>
       </c>
-      <c r="G13" t="str">
+      <c r="I13" t="str">
         <v>35</v>
       </c>
-      <c r="H13" t="str">
+      <c r="J13" t="str">
         <v>Black Orange</v>
+      </c>
+      <c r="K13" t="str">
+        <v>https://img.kwcdn.com/product/fancy/72a437e5-dc81-4152-b3e4-66ab6b7e6591.jpg</v>
+      </c>
+      <c r="L13" t="str">
+        <v>溯溪鞋</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
+        <v>634418219683784</v>
+      </c>
+      <c r="B14">
+        <v>425250730</v>
+      </c>
+      <c r="C14">
         <v>2530421700</v>
       </c>
-      <c r="B14">
+      <c r="D14">
         <v>2612932829</v>
       </c>
-      <c r="C14">
+      <c r="E14">
         <v>70990462799</v>
       </c>
-      <c r="D14" t="str">
+      <c r="F14" t="str">
         <v>6206</v>
       </c>
-      <c r="E14" t="str">
+      <c r="G14" t="str">
         <v/>
       </c>
-      <c r="F14" t="str">
+      <c r="H14" t="str">
         <v>黑桔</v>
       </c>
-      <c r="G14" t="str">
+      <c r="I14" t="str">
         <v>28</v>
       </c>
-      <c r="H14" t="str">
+      <c r="J14" t="str">
         <v>Black Orange</v>
+      </c>
+      <c r="K14" t="str">
+        <v>https://img.kwcdn.com/product/fancy/72a437e5-dc81-4152-b3e4-66ab6b7e6591.jpg</v>
+      </c>
+      <c r="L14" t="str">
+        <v>溯溪鞋</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
+        <v>634418219683784</v>
+      </c>
+      <c r="B15">
+        <v>425250730</v>
+      </c>
+      <c r="C15">
         <v>2530421700</v>
       </c>
-      <c r="B15">
+      <c r="D15">
         <v>3535756699</v>
       </c>
-      <c r="C15">
+      <c r="E15">
         <v>81527229953</v>
       </c>
-      <c r="D15" t="str">
+      <c r="F15" t="str">
         <v>6206</v>
       </c>
-      <c r="E15" t="str">
+      <c r="G15" t="str">
         <v/>
       </c>
-      <c r="F15" t="str">
+      <c r="H15" t="str">
         <v>深蓝</v>
       </c>
-      <c r="G15" t="str">
+      <c r="I15" t="str">
         <v>28</v>
       </c>
-      <c r="H15" t="str">
+      <c r="J15" t="str">
         <v>Dark Blue</v>
+      </c>
+      <c r="K15" t="str">
+        <v>https://img.kwcdn.com/product/fancy/7df39390-8b67-48f8-bfde-6881e8b471c3.jpg</v>
+      </c>
+      <c r="L15" t="str">
+        <v>溯溪鞋</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
+        <v>634418219683784</v>
+      </c>
+      <c r="B16">
+        <v>425250730</v>
+      </c>
+      <c r="C16">
         <v>2530421700</v>
       </c>
-      <c r="B16">
+      <c r="D16">
         <v>7107876829</v>
       </c>
-      <c r="C16">
+      <c r="E16">
         <v>84580938992</v>
       </c>
-      <c r="D16" t="str">
+      <c r="F16" t="str">
         <v>6206</v>
       </c>
-      <c r="E16" t="str">
+      <c r="G16" t="str">
         <v/>
       </c>
-      <c r="F16" t="str">
+      <c r="H16" t="str">
         <v>黑桔</v>
       </c>
-      <c r="G16" t="str">
+      <c r="I16" t="str">
         <v>29</v>
       </c>
-      <c r="H16" t="str">
+      <c r="J16" t="str">
         <v>Black Orange</v>
+      </c>
+      <c r="K16" t="str">
+        <v>https://img.kwcdn.com/product/fancy/72a437e5-dc81-4152-b3e4-66ab6b7e6591.jpg</v>
+      </c>
+      <c r="L16" t="str">
+        <v>溯溪鞋</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
+        <v>634418219683784</v>
+      </c>
+      <c r="B17">
+        <v>425250730</v>
+      </c>
+      <c r="C17">
         <v>2530421700</v>
       </c>
-      <c r="B17">
+      <c r="D17">
         <v>6031580180</v>
       </c>
-      <c r="C17">
+      <c r="E17">
         <v>29838873550</v>
       </c>
-      <c r="D17" t="str">
+      <c r="F17" t="str">
         <v>6206</v>
       </c>
-      <c r="E17" t="str">
+      <c r="G17" t="str">
         <v/>
       </c>
-      <c r="F17" t="str">
+      <c r="H17" t="str">
         <v>黑桔</v>
       </c>
-      <c r="G17" t="str">
+      <c r="I17" t="str">
         <v>34</v>
       </c>
-      <c r="H17" t="str">
+      <c r="J17" t="str">
         <v>Black Orange</v>
+      </c>
+      <c r="K17" t="str">
+        <v>https://img.kwcdn.com/product/fancy/72a437e5-dc81-4152-b3e4-66ab6b7e6591.jpg</v>
+      </c>
+      <c r="L17" t="str">
+        <v>溯溪鞋</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
+        <v>634418219683784</v>
+      </c>
+      <c r="B18">
+        <v>425250730</v>
+      </c>
+      <c r="C18">
         <v>2530421700</v>
       </c>
-      <c r="B18">
+      <c r="D18">
         <v>2953254501</v>
       </c>
-      <c r="C18">
+      <c r="E18">
         <v>65948851564</v>
       </c>
-      <c r="D18" t="str">
+      <c r="F18" t="str">
         <v>6206</v>
       </c>
-      <c r="E18" t="str">
+      <c r="G18" t="str">
         <v/>
       </c>
-      <c r="F18" t="str">
+      <c r="H18" t="str">
         <v>深蓝</v>
       </c>
-      <c r="G18" t="str">
+      <c r="I18" t="str">
         <v>34</v>
       </c>
-      <c r="H18" t="str">
+      <c r="J18" t="str">
         <v>Dark Blue</v>
+      </c>
+      <c r="K18" t="str">
+        <v>https://img.kwcdn.com/product/fancy/7df39390-8b67-48f8-bfde-6881e8b471c3.jpg</v>
+      </c>
+      <c r="L18" t="str">
+        <v>溯溪鞋</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
+        <v>634418219683784</v>
+      </c>
+      <c r="B19">
+        <v>211621413</v>
+      </c>
+      <c r="C19">
         <v>4277845179</v>
       </c>
-      <c r="B19">
+      <c r="D19">
         <v>5211907552</v>
       </c>
-      <c r="C19">
+      <c r="E19">
         <v>58668082028</v>
       </c>
-      <c r="D19" t="str">
+      <c r="F19" t="str">
         <v>6207</v>
       </c>
-      <c r="E19" t="str">
+      <c r="G19" t="str">
         <v>6207-TZ-Black-30</v>
       </c>
-      <c r="F19" t="str">
+      <c r="H19" t="str">
         <v>黑色</v>
       </c>
-      <c r="G19" t="str">
+      <c r="I19" t="str">
         <v>30</v>
       </c>
-      <c r="H19" t="str">
+      <c r="J19" t="str">
         <v>Black</v>
+      </c>
+      <c r="K19" t="str">
+        <v>https://img.kwcdn.com/product/fancy/c8e1935c-cdaa-4454-94ba-6e2000c9e41a.jpg</v>
+      </c>
+      <c r="L19" t="str">
+        <v>男童溯溪鞋、涉水鞋</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
+        <v>634418219683784</v>
+      </c>
+      <c r="B20">
+        <v>211621413</v>
+      </c>
+      <c r="C20">
         <v>4277845179</v>
       </c>
-      <c r="B20">
+      <c r="D20">
         <v>8298131813</v>
       </c>
-      <c r="C20">
+      <c r="E20">
         <v>73635522395</v>
       </c>
-      <c r="D20" t="str">
+      <c r="F20" t="str">
         <v>6207</v>
       </c>
-      <c r="E20" t="str">
+      <c r="G20" t="str">
         <v>6207-TZ-Blue-33</v>
       </c>
-      <c r="F20" t="str">
+      <c r="H20" t="str">
         <v>深蓝</v>
       </c>
-      <c r="G20" t="str">
+      <c r="I20" t="str">
         <v>33</v>
       </c>
-      <c r="H20" t="str">
+      <c r="J20" t="str">
         <v>Dark Blue</v>
+      </c>
+      <c r="K20" t="str">
+        <v>https://img.kwcdn.com/product/fancy/2e0482aa-7dd9-4ae4-9261-eaaab19890b9.jpg</v>
+      </c>
+      <c r="L20" t="str">
+        <v>男童溯溪鞋、涉水鞋</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
+        <v>634418219683784</v>
+      </c>
+      <c r="B21">
+        <v>211621413</v>
+      </c>
+      <c r="C21">
         <v>4277845179</v>
       </c>
-      <c r="B21">
+      <c r="D21">
         <v>9630098528</v>
       </c>
-      <c r="C21">
+      <c r="E21">
         <v>24472541582</v>
       </c>
-      <c r="D21" t="str">
+      <c r="F21" t="str">
         <v>6207</v>
       </c>
-      <c r="E21" t="str">
+      <c r="G21" t="str">
         <v>6207-TZ-Blue-38</v>
       </c>
-      <c r="F21" t="str">
+      <c r="H21" t="str">
         <v>深蓝</v>
       </c>
-      <c r="G21" t="str">
+      <c r="I21" t="str">
         <v>38</v>
       </c>
-      <c r="H21" t="str">
+      <c r="J21" t="str">
         <v>Dark Blue</v>
+      </c>
+      <c r="K21" t="str">
+        <v>https://img.kwcdn.com/product/fancy/2e0482aa-7dd9-4ae4-9261-eaaab19890b9.jpg</v>
+      </c>
+      <c r="L21" t="str">
+        <v>男童溯溪鞋、涉水鞋</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
+        <v>634418219683784</v>
+      </c>
+      <c r="B22">
+        <v>211621413</v>
+      </c>
+      <c r="C22">
         <v>4277845179</v>
       </c>
-      <c r="B22">
+      <c r="D22">
         <v>7701110556</v>
       </c>
-      <c r="C22">
+      <c r="E22">
         <v>87505390765</v>
       </c>
-      <c r="D22" t="str">
+      <c r="F22" t="str">
         <v>6207</v>
       </c>
-      <c r="E22" t="str">
+      <c r="G22" t="str">
         <v>6207-TZ-Black-38</v>
       </c>
-      <c r="F22" t="str">
+      <c r="H22" t="str">
         <v>黑色</v>
       </c>
-      <c r="G22" t="str">
+      <c r="I22" t="str">
         <v>38</v>
       </c>
-      <c r="H22" t="str">
+      <c r="J22" t="str">
         <v>Black</v>
+      </c>
+      <c r="K22" t="str">
+        <v>https://img.kwcdn.com/product/fancy/c8e1935c-cdaa-4454-94ba-6e2000c9e41a.jpg</v>
+      </c>
+      <c r="L22" t="str">
+        <v>男童溯溪鞋、涉水鞋</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
+        <v>634418219683784</v>
+      </c>
+      <c r="B23">
+        <v>211621413</v>
+      </c>
+      <c r="C23">
         <v>4277845179</v>
       </c>
-      <c r="B23">
+      <c r="D23">
         <v>8603804468</v>
       </c>
-      <c r="C23">
+      <c r="E23">
         <v>88538423809</v>
       </c>
-      <c r="D23" t="str">
+      <c r="F23" t="str">
         <v>6207</v>
       </c>
-      <c r="E23" t="str">
+      <c r="G23" t="str">
         <v>6207-TZ-Blue-30</v>
       </c>
-      <c r="F23" t="str">
+      <c r="H23" t="str">
         <v>深蓝</v>
       </c>
-      <c r="G23" t="str">
+      <c r="I23" t="str">
         <v>30</v>
       </c>
-      <c r="H23" t="str">
+      <c r="J23" t="str">
         <v>Dark Blue</v>
+      </c>
+      <c r="K23" t="str">
+        <v>https://img.kwcdn.com/product/fancy/2e0482aa-7dd9-4ae4-9261-eaaab19890b9.jpg</v>
+      </c>
+      <c r="L23" t="str">
+        <v>男童溯溪鞋、涉水鞋</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
+        <v>634418219683784</v>
+      </c>
+      <c r="B24">
+        <v>211621413</v>
+      </c>
+      <c r="C24">
         <v>4277845179</v>
       </c>
-      <c r="B24">
+      <c r="D24">
         <v>1547261590</v>
       </c>
-      <c r="C24">
+      <c r="E24">
         <v>57130035048</v>
       </c>
-      <c r="D24" t="str">
+      <c r="F24" t="str">
         <v>6207</v>
       </c>
-      <c r="E24" t="str">
+      <c r="G24" t="str">
         <v>6207-TZ-Blue-31</v>
       </c>
-      <c r="F24" t="str">
+      <c r="H24" t="str">
         <v>深蓝</v>
       </c>
-      <c r="G24" t="str">
+      <c r="I24" t="str">
         <v>31</v>
       </c>
-      <c r="H24" t="str">
+      <c r="J24" t="str">
         <v>Dark Blue</v>
+      </c>
+      <c r="K24" t="str">
+        <v>https://img.kwcdn.com/product/fancy/2e0482aa-7dd9-4ae4-9261-eaaab19890b9.jpg</v>
+      </c>
+      <c r="L24" t="str">
+        <v>男童溯溪鞋、涉水鞋</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
+        <v>634418219683784</v>
+      </c>
+      <c r="B25">
+        <v>211621413</v>
+      </c>
+      <c r="C25">
         <v>4277845179</v>
       </c>
-      <c r="B25">
+      <c r="D25">
         <v>6233437686</v>
       </c>
-      <c r="C25">
+      <c r="E25">
         <v>73308282326</v>
       </c>
-      <c r="D25" t="str">
+      <c r="F25" t="str">
         <v>6207</v>
       </c>
-      <c r="E25" t="str">
+      <c r="G25" t="str">
         <v>6207-TZ-Blue-32</v>
       </c>
-      <c r="F25" t="str">
+      <c r="H25" t="str">
         <v>深蓝</v>
       </c>
-      <c r="G25" t="str">
+      <c r="I25" t="str">
         <v>32</v>
       </c>
-      <c r="H25" t="str">
+      <c r="J25" t="str">
         <v>Dark Blue</v>
+      </c>
+      <c r="K25" t="str">
+        <v>https://img.kwcdn.com/product/fancy/2e0482aa-7dd9-4ae4-9261-eaaab19890b9.jpg</v>
+      </c>
+      <c r="L25" t="str">
+        <v>男童溯溪鞋、涉水鞋</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
+        <v>634418219683784</v>
+      </c>
+      <c r="B26">
+        <v>211621413</v>
+      </c>
+      <c r="C26">
         <v>4277845179</v>
       </c>
-      <c r="B26">
+      <c r="D26">
         <v>1555817308</v>
       </c>
-      <c r="C26">
+      <c r="E26">
         <v>15030016107</v>
       </c>
-      <c r="D26" t="str">
+      <c r="F26" t="str">
         <v>6207</v>
       </c>
-      <c r="E26" t="str">
+      <c r="G26" t="str">
         <v>6207-TZ-Blue-28</v>
       </c>
-      <c r="F26" t="str">
+      <c r="H26" t="str">
         <v>深蓝</v>
       </c>
-      <c r="G26" t="str">
+      <c r="I26" t="str">
         <v>28</v>
       </c>
-      <c r="H26" t="str">
+      <c r="J26" t="str">
         <v>Dark Blue</v>
+      </c>
+      <c r="K26" t="str">
+        <v>https://img.kwcdn.com/product/fancy/2e0482aa-7dd9-4ae4-9261-eaaab19890b9.jpg</v>
+      </c>
+      <c r="L26" t="str">
+        <v>男童溯溪鞋、涉水鞋</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
+        <v>634418219683784</v>
+      </c>
+      <c r="B27">
+        <v>211621413</v>
+      </c>
+      <c r="C27">
         <v>4277845179</v>
       </c>
-      <c r="B27">
+      <c r="D27">
         <v>6200673383</v>
       </c>
-      <c r="C27">
+      <c r="E27">
         <v>79524128110</v>
       </c>
-      <c r="D27" t="str">
+      <c r="F27" t="str">
         <v>6207</v>
       </c>
-      <c r="E27" t="str">
+      <c r="G27" t="str">
         <v>6207-TZ-Black-31</v>
       </c>
-      <c r="F27" t="str">
+      <c r="H27" t="str">
         <v>黑色</v>
       </c>
-      <c r="G27" t="str">
+      <c r="I27" t="str">
         <v>31</v>
       </c>
-      <c r="H27" t="str">
+      <c r="J27" t="str">
         <v>Black</v>
+      </c>
+      <c r="K27" t="str">
+        <v>https://img.kwcdn.com/product/fancy/c8e1935c-cdaa-4454-94ba-6e2000c9e41a.jpg</v>
+      </c>
+      <c r="L27" t="str">
+        <v>男童溯溪鞋、涉水鞋</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
+        <v>634418219683784</v>
+      </c>
+      <c r="B28">
+        <v>211621413</v>
+      </c>
+      <c r="C28">
         <v>4277845179</v>
       </c>
-      <c r="B28">
+      <c r="D28">
         <v>7772803567</v>
       </c>
-      <c r="C28">
+      <c r="E28">
         <v>65730172699</v>
       </c>
-      <c r="D28" t="str">
+      <c r="F28" t="str">
         <v>6207</v>
       </c>
-      <c r="E28" t="str">
+      <c r="G28" t="str">
         <v>6207-TZ-Black-35</v>
       </c>
-      <c r="F28" t="str">
+      <c r="H28" t="str">
         <v>黑色</v>
       </c>
-      <c r="G28" t="str">
+      <c r="I28" t="str">
         <v>35</v>
       </c>
-      <c r="H28" t="str">
+      <c r="J28" t="str">
         <v>Black</v>
+      </c>
+      <c r="K28" t="str">
+        <v>https://img.kwcdn.com/product/fancy/c8e1935c-cdaa-4454-94ba-6e2000c9e41a.jpg</v>
+      </c>
+      <c r="L28" t="str">
+        <v>男童溯溪鞋、涉水鞋</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
+        <v>634418219683784</v>
+      </c>
+      <c r="B29">
+        <v>211621413</v>
+      </c>
+      <c r="C29">
         <v>4277845179</v>
       </c>
-      <c r="B29">
+      <c r="D29">
         <v>8683718862</v>
       </c>
-      <c r="C29">
+      <c r="E29">
         <v>77924859569</v>
       </c>
-      <c r="D29" t="str">
+      <c r="F29" t="str">
         <v>6207</v>
       </c>
-      <c r="E29" t="str">
+      <c r="G29" t="str">
         <v>6207-TZ-Black-36</v>
       </c>
-      <c r="F29" t="str">
+      <c r="H29" t="str">
         <v>黑色</v>
       </c>
-      <c r="G29" t="str">
+      <c r="I29" t="str">
         <v>36</v>
       </c>
-      <c r="H29" t="str">
+      <c r="J29" t="str">
         <v>Black</v>
+      </c>
+      <c r="K29" t="str">
+        <v>https://img.kwcdn.com/product/fancy/c8e1935c-cdaa-4454-94ba-6e2000c9e41a.jpg</v>
+      </c>
+      <c r="L29" t="str">
+        <v>男童溯溪鞋、涉水鞋</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
+        <v>634418219683784</v>
+      </c>
+      <c r="B30">
+        <v>211621413</v>
+      </c>
+      <c r="C30">
         <v>4277845179</v>
       </c>
-      <c r="B30">
+      <c r="D30">
         <v>2756438891</v>
       </c>
-      <c r="C30">
+      <c r="E30">
         <v>30455593403</v>
       </c>
-      <c r="D30" t="str">
+      <c r="F30" t="str">
         <v>6207</v>
       </c>
-      <c r="E30" t="str">
+      <c r="G30" t="str">
         <v>6207-TZ-Black-29</v>
       </c>
-      <c r="F30" t="str">
+      <c r="H30" t="str">
         <v>黑色</v>
       </c>
-      <c r="G30" t="str">
+      <c r="I30" t="str">
         <v>29</v>
       </c>
-      <c r="H30" t="str">
+      <c r="J30" t="str">
         <v>Black</v>
+      </c>
+      <c r="K30" t="str">
+        <v>https://img.kwcdn.com/product/fancy/c8e1935c-cdaa-4454-94ba-6e2000c9e41a.jpg</v>
+      </c>
+      <c r="L30" t="str">
+        <v>男童溯溪鞋、涉水鞋</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
+        <v>634418219683784</v>
+      </c>
+      <c r="B31">
+        <v>211621413</v>
+      </c>
+      <c r="C31">
         <v>4277845179</v>
       </c>
-      <c r="B31">
+      <c r="D31">
         <v>5268316783</v>
       </c>
-      <c r="C31">
+      <c r="E31">
         <v>51285579273</v>
       </c>
-      <c r="D31" t="str">
+      <c r="F31" t="str">
         <v>6207</v>
       </c>
-      <c r="E31" t="str">
+      <c r="G31" t="str">
         <v>6207-TZ-Black-28</v>
       </c>
-      <c r="F31" t="str">
+      <c r="H31" t="str">
         <v>黑色</v>
       </c>
-      <c r="G31" t="str">
+      <c r="I31" t="str">
         <v>28</v>
       </c>
-      <c r="H31" t="str">
+      <c r="J31" t="str">
         <v>Black</v>
+      </c>
+      <c r="K31" t="str">
+        <v>https://img.kwcdn.com/product/fancy/c8e1935c-cdaa-4454-94ba-6e2000c9e41a.jpg</v>
+      </c>
+      <c r="L31" t="str">
+        <v>男童溯溪鞋、涉水鞋</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
+        <v>634418219683784</v>
+      </c>
+      <c r="B32">
+        <v>211621413</v>
+      </c>
+      <c r="C32">
         <v>4277845179</v>
       </c>
-      <c r="B32">
+      <c r="D32">
         <v>5620985658</v>
       </c>
-      <c r="C32">
+      <c r="E32">
         <v>83193542603</v>
       </c>
-      <c r="D32" t="str">
+      <c r="F32" t="str">
         <v>6207</v>
       </c>
-      <c r="E32" t="str">
+      <c r="G32" t="str">
         <v>6207-TZ-Black-33</v>
       </c>
-      <c r="F32" t="str">
+      <c r="H32" t="str">
         <v>黑色</v>
       </c>
-      <c r="G32" t="str">
+      <c r="I32" t="str">
         <v>33</v>
       </c>
-      <c r="H32" t="str">
+      <c r="J32" t="str">
         <v>Black</v>
+      </c>
+      <c r="K32" t="str">
+        <v>https://img.kwcdn.com/product/fancy/c8e1935c-cdaa-4454-94ba-6e2000c9e41a.jpg</v>
+      </c>
+      <c r="L32" t="str">
+        <v>男童溯溪鞋、涉水鞋</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
+        <v>634418219683784</v>
+      </c>
+      <c r="B33">
+        <v>211621413</v>
+      </c>
+      <c r="C33">
         <v>4277845179</v>
       </c>
-      <c r="B33">
+      <c r="D33">
         <v>9104452776</v>
       </c>
-      <c r="C33">
+      <c r="E33">
         <v>39439817224</v>
       </c>
-      <c r="D33" t="str">
+      <c r="F33" t="str">
         <v>6207</v>
       </c>
-      <c r="E33" t="str">
+      <c r="G33" t="str">
         <v>6207-TZ-Black-32</v>
       </c>
-      <c r="F33" t="str">
+      <c r="H33" t="str">
         <v>黑色</v>
       </c>
-      <c r="G33" t="str">
+      <c r="I33" t="str">
         <v>32</v>
       </c>
-      <c r="H33" t="str">
+      <c r="J33" t="str">
         <v>Black</v>
+      </c>
+      <c r="K33" t="str">
+        <v>https://img.kwcdn.com/product/fancy/c8e1935c-cdaa-4454-94ba-6e2000c9e41a.jpg</v>
+      </c>
+      <c r="L33" t="str">
+        <v>男童溯溪鞋、涉水鞋</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
+        <v>634418219683784</v>
+      </c>
+      <c r="B34">
+        <v>211621413</v>
+      </c>
+      <c r="C34">
         <v>4277845179</v>
       </c>
-      <c r="B34">
+      <c r="D34">
         <v>4102420735</v>
       </c>
-      <c r="C34">
+      <c r="E34">
         <v>18452858330</v>
       </c>
-      <c r="D34" t="str">
+      <c r="F34" t="str">
         <v>6207</v>
       </c>
-      <c r="E34" t="str">
+      <c r="G34" t="str">
         <v>6207-TZ-Black-37</v>
       </c>
-      <c r="F34" t="str">
+      <c r="H34" t="str">
         <v>黑色</v>
       </c>
-      <c r="G34" t="str">
+      <c r="I34" t="str">
         <v>37</v>
       </c>
-      <c r="H34" t="str">
+      <c r="J34" t="str">
         <v>Black</v>
+      </c>
+      <c r="K34" t="str">
+        <v>https://img.kwcdn.com/product/fancy/c8e1935c-cdaa-4454-94ba-6e2000c9e41a.jpg</v>
+      </c>
+      <c r="L34" t="str">
+        <v>男童溯溪鞋、涉水鞋</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
+        <v>634418219683784</v>
+      </c>
+      <c r="B35">
+        <v>211621413</v>
+      </c>
+      <c r="C35">
         <v>4277845179</v>
       </c>
-      <c r="B35">
+      <c r="D35">
         <v>3539315665</v>
       </c>
-      <c r="C35">
+      <c r="E35">
         <v>93105457756</v>
       </c>
-      <c r="D35" t="str">
+      <c r="F35" t="str">
         <v>6207</v>
       </c>
-      <c r="E35" t="str">
+      <c r="G35" t="str">
         <v>6207-TZ-Blue-29</v>
       </c>
-      <c r="F35" t="str">
+      <c r="H35" t="str">
         <v>深蓝</v>
       </c>
-      <c r="G35" t="str">
+      <c r="I35" t="str">
         <v>29</v>
       </c>
-      <c r="H35" t="str">
+      <c r="J35" t="str">
         <v>Dark Blue</v>
+      </c>
+      <c r="K35" t="str">
+        <v>https://img.kwcdn.com/product/fancy/2e0482aa-7dd9-4ae4-9261-eaaab19890b9.jpg</v>
+      </c>
+      <c r="L35" t="str">
+        <v>男童溯溪鞋、涉水鞋</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
+        <v>634418219683784</v>
+      </c>
+      <c r="B36">
+        <v>211621413</v>
+      </c>
+      <c r="C36">
         <v>4277845179</v>
       </c>
-      <c r="B36">
+      <c r="D36">
         <v>1341946092</v>
       </c>
-      <c r="C36">
+      <c r="E36">
         <v>68517515781</v>
       </c>
-      <c r="D36" t="str">
+      <c r="F36" t="str">
         <v>6207</v>
       </c>
-      <c r="E36" t="str">
+      <c r="G36" t="str">
         <v>6207-TZ-Blue-35</v>
       </c>
-      <c r="F36" t="str">
+      <c r="H36" t="str">
         <v>深蓝</v>
       </c>
-      <c r="G36" t="str">
+      <c r="I36" t="str">
         <v>35</v>
       </c>
-      <c r="H36" t="str">
+      <c r="J36" t="str">
         <v>Dark Blue</v>
+      </c>
+      <c r="K36" t="str">
+        <v>https://img.kwcdn.com/product/fancy/2e0482aa-7dd9-4ae4-9261-eaaab19890b9.jpg</v>
+      </c>
+      <c r="L36" t="str">
+        <v>男童溯溪鞋、涉水鞋</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
+        <v>634418219683784</v>
+      </c>
+      <c r="B37">
+        <v>211621413</v>
+      </c>
+      <c r="C37">
         <v>4277845179</v>
       </c>
-      <c r="B37">
+      <c r="D37">
         <v>4835933217</v>
       </c>
-      <c r="C37">
+      <c r="E37">
         <v>14251920006</v>
       </c>
-      <c r="D37" t="str">
+      <c r="F37" t="str">
         <v>6207</v>
       </c>
-      <c r="E37" t="str">
+      <c r="G37" t="str">
         <v>6207-TZ-Blue-37</v>
       </c>
-      <c r="F37" t="str">
+      <c r="H37" t="str">
         <v>深蓝</v>
       </c>
-      <c r="G37" t="str">
+      <c r="I37" t="str">
         <v>37</v>
       </c>
-      <c r="H37" t="str">
+      <c r="J37" t="str">
         <v>Dark Blue</v>
+      </c>
+      <c r="K37" t="str">
+        <v>https://img.kwcdn.com/product/fancy/2e0482aa-7dd9-4ae4-9261-eaaab19890b9.jpg</v>
+      </c>
+      <c r="L37" t="str">
+        <v>男童溯溪鞋、涉水鞋</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
+        <v>634418219683784</v>
+      </c>
+      <c r="B38">
+        <v>211621413</v>
+      </c>
+      <c r="C38">
         <v>4277845179</v>
       </c>
-      <c r="B38">
+      <c r="D38">
         <v>3211417707</v>
       </c>
-      <c r="C38">
+      <c r="E38">
         <v>78495130963</v>
       </c>
-      <c r="D38" t="str">
+      <c r="F38" t="str">
         <v>6207</v>
       </c>
-      <c r="E38" t="str">
+      <c r="G38" t="str">
         <v>6207-TZ-Blue-36</v>
       </c>
-      <c r="F38" t="str">
+      <c r="H38" t="str">
         <v>深蓝</v>
       </c>
-      <c r="G38" t="str">
+      <c r="I38" t="str">
         <v>36</v>
       </c>
-      <c r="H38" t="str">
+      <c r="J38" t="str">
         <v>Dark Blue</v>
+      </c>
+      <c r="K38" t="str">
+        <v>https://img.kwcdn.com/product/fancy/2e0482aa-7dd9-4ae4-9261-eaaab19890b9.jpg</v>
+      </c>
+      <c r="L38" t="str">
+        <v>男童溯溪鞋、涉水鞋</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
+        <v>634418219683784</v>
+      </c>
+      <c r="B39">
+        <v>211621413</v>
+      </c>
+      <c r="C39">
         <v>4277845179</v>
       </c>
-      <c r="B39">
+      <c r="D39">
         <v>7336370312</v>
       </c>
-      <c r="C39">
+      <c r="E39">
         <v>55383829215</v>
       </c>
-      <c r="D39" t="str">
+      <c r="F39" t="str">
         <v>6207</v>
       </c>
-      <c r="E39" t="str">
+      <c r="G39" t="str">
         <v>6207-TZ-Blue-34</v>
       </c>
-      <c r="F39" t="str">
+      <c r="H39" t="str">
         <v>深蓝</v>
       </c>
-      <c r="G39" t="str">
+      <c r="I39" t="str">
         <v>34</v>
       </c>
-      <c r="H39" t="str">
+      <c r="J39" t="str">
         <v>Dark Blue</v>
+      </c>
+      <c r="K39" t="str">
+        <v>https://img.kwcdn.com/product/fancy/2e0482aa-7dd9-4ae4-9261-eaaab19890b9.jpg</v>
+      </c>
+      <c r="L39" t="str">
+        <v>男童溯溪鞋、涉水鞋</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
+        <v>634418219683784</v>
+      </c>
+      <c r="B40">
+        <v>211621413</v>
+      </c>
+      <c r="C40">
         <v>4277845179</v>
       </c>
-      <c r="B40">
+      <c r="D40">
         <v>5772640100</v>
       </c>
-      <c r="C40">
+      <c r="E40">
         <v>75338257826</v>
       </c>
-      <c r="D40" t="str">
+      <c r="F40" t="str">
         <v>6207</v>
       </c>
-      <c r="E40" t="str">
+      <c r="G40" t="str">
         <v>6207-TZ-Black-34</v>
       </c>
-      <c r="F40" t="str">
+      <c r="H40" t="str">
         <v>黑色</v>
       </c>
-      <c r="G40" t="str">
+      <c r="I40" t="str">
         <v>34</v>
       </c>
-      <c r="H40" t="str">
+      <c r="J40" t="str">
         <v>Black</v>
+      </c>
+      <c r="K40" t="str">
+        <v>https://img.kwcdn.com/product/fancy/c8e1935c-cdaa-4454-94ba-6e2000c9e41a.jpg</v>
+      </c>
+      <c r="L40" t="str">
+        <v>男童溯溪鞋、涉水鞋</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
+        <v>634418219683784</v>
+      </c>
+      <c r="B41">
+        <v>6136600129</v>
+      </c>
+      <c r="C41">
         <v>97218914942</v>
       </c>
-      <c r="B41">
+      <c r="D41">
         <v>87303028849</v>
       </c>
-      <c r="C41">
+      <c r="E41">
         <v>74923073045</v>
       </c>
-      <c r="D41" t="str">
+      <c r="F41" t="str">
         <v/>
       </c>
-      <c r="E41" t="str">
+      <c r="G41" t="str">
         <v/>
       </c>
-      <c r="F41" t="str">
+      <c r="H41" t="str">
         <v>灰色</v>
       </c>
-      <c r="G41" t="str">
+      <c r="I41" t="str">
         <v>37</v>
       </c>
-      <c r="H41" t="str">
+      <c r="J41" t="str">
         <v>Grey</v>
+      </c>
+      <c r="K41" t="str">
+        <v>https://img.kwcdn.com/product/fancy/3291f6c6-957d-41e2-9fb6-6c408fefcf67.jpg</v>
+      </c>
+      <c r="L41" t="str">
+        <v>运动凉鞋</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
+        <v>634418219683784</v>
+      </c>
+      <c r="B42">
+        <v>6136600129</v>
+      </c>
+      <c r="C42">
         <v>97218914942</v>
       </c>
-      <c r="B42">
+      <c r="D42">
         <v>11551040913</v>
       </c>
-      <c r="C42">
+      <c r="E42">
         <v>66091030976</v>
       </c>
-      <c r="D42" t="str">
+      <c r="F42" t="str">
         <v/>
       </c>
-      <c r="E42" t="str">
+      <c r="G42" t="str">
         <v/>
       </c>
-      <c r="F42" t="str">
+      <c r="H42" t="str">
         <v>灰色</v>
       </c>
-      <c r="G42" t="str">
+      <c r="I42" t="str">
         <v>31</v>
       </c>
-      <c r="H42" t="str">
+      <c r="J42" t="str">
         <v>Grey</v>
+      </c>
+      <c r="K42" t="str">
+        <v>https://img.kwcdn.com/product/fancy/3291f6c6-957d-41e2-9fb6-6c408fefcf67.jpg</v>
+      </c>
+      <c r="L42" t="str">
+        <v>运动凉鞋</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
+        <v>634418219683784</v>
+      </c>
+      <c r="B43">
+        <v>6136600129</v>
+      </c>
+      <c r="C43">
         <v>97218914942</v>
       </c>
-      <c r="B43">
+      <c r="D43">
         <v>19745292161</v>
       </c>
-      <c r="C43">
+      <c r="E43">
         <v>17606644532</v>
       </c>
-      <c r="D43" t="str">
+      <c r="F43" t="str">
         <v/>
       </c>
-      <c r="E43" t="str">
+      <c r="G43" t="str">
         <v/>
       </c>
-      <c r="F43" t="str">
+      <c r="H43" t="str">
         <v>灰色</v>
       </c>
-      <c r="G43" t="str">
+      <c r="I43" t="str">
         <v>38</v>
       </c>
-      <c r="H43" t="str">
+      <c r="J43" t="str">
         <v>Grey</v>
+      </c>
+      <c r="K43" t="str">
+        <v>https://img.kwcdn.com/product/fancy/3291f6c6-957d-41e2-9fb6-6c408fefcf67.jpg</v>
+      </c>
+      <c r="L43" t="str">
+        <v>运动凉鞋</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
+        <v>634418219683784</v>
+      </c>
+      <c r="B44">
+        <v>6136600129</v>
+      </c>
+      <c r="C44">
         <v>97218914942</v>
       </c>
-      <c r="B44">
+      <c r="D44">
         <v>74574370570</v>
       </c>
-      <c r="C44">
+      <c r="E44">
         <v>21189258195</v>
       </c>
-      <c r="D44" t="str">
+      <c r="F44" t="str">
         <v/>
       </c>
-      <c r="E44" t="str">
+      <c r="G44" t="str">
         <v/>
       </c>
-      <c r="F44" t="str">
+      <c r="H44" t="str">
         <v>灰色</v>
       </c>
-      <c r="G44" t="str">
+      <c r="I44" t="str">
         <v>30</v>
       </c>
-      <c r="H44" t="str">
+      <c r="J44" t="str">
         <v>Grey</v>
+      </c>
+      <c r="K44" t="str">
+        <v>https://img.kwcdn.com/product/fancy/3291f6c6-957d-41e2-9fb6-6c408fefcf67.jpg</v>
+      </c>
+      <c r="L44" t="str">
+        <v>运动凉鞋</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
+        <v>634418219683784</v>
+      </c>
+      <c r="B45">
+        <v>6136600129</v>
+      </c>
+      <c r="C45">
         <v>97218914942</v>
       </c>
-      <c r="B45">
+      <c r="D45">
         <v>29669765050</v>
       </c>
-      <c r="C45">
+      <c r="E45">
         <v>56454692143</v>
       </c>
-      <c r="D45" t="str">
+      <c r="F45" t="str">
         <v/>
       </c>
-      <c r="E45" t="str">
+      <c r="G45" t="str">
         <v/>
       </c>
-      <c r="F45" t="str">
+      <c r="H45" t="str">
         <v>灰色</v>
       </c>
-      <c r="G45" t="str">
+      <c r="I45" t="str">
         <v>34</v>
       </c>
-      <c r="H45" t="str">
+      <c r="J45" t="str">
         <v>Grey</v>
+      </c>
+      <c r="K45" t="str">
+        <v>https://img.kwcdn.com/product/fancy/3291f6c6-957d-41e2-9fb6-6c408fefcf67.jpg</v>
+      </c>
+      <c r="L45" t="str">
+        <v>运动凉鞋</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
+        <v>634418219683784</v>
+      </c>
+      <c r="B46">
+        <v>6136600129</v>
+      </c>
+      <c r="C46">
         <v>97218914942</v>
       </c>
-      <c r="B46">
+      <c r="D46">
         <v>94715909380</v>
       </c>
-      <c r="C46">
+      <c r="E46">
         <v>90991106056</v>
       </c>
-      <c r="D46" t="str">
+      <c r="F46" t="str">
         <v/>
       </c>
-      <c r="E46" t="str">
+      <c r="G46" t="str">
         <v/>
       </c>
-      <c r="F46" t="str">
+      <c r="H46" t="str">
         <v>灰色</v>
       </c>
-      <c r="G46" t="str">
+      <c r="I46" t="str">
         <v>29</v>
       </c>
-      <c r="H46" t="str">
+      <c r="J46" t="str">
         <v>Grey</v>
+      </c>
+      <c r="K46" t="str">
+        <v>https://img.kwcdn.com/product/fancy/3291f6c6-957d-41e2-9fb6-6c408fefcf67.jpg</v>
+      </c>
+      <c r="L46" t="str">
+        <v>运动凉鞋</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
+        <v>634418219683784</v>
+      </c>
+      <c r="B47">
+        <v>6136600129</v>
+      </c>
+      <c r="C47">
         <v>97218914942</v>
       </c>
-      <c r="B47">
+      <c r="D47">
         <v>39470945574</v>
       </c>
-      <c r="C47">
+      <c r="E47">
         <v>84762816578</v>
       </c>
-      <c r="D47" t="str">
+      <c r="F47" t="str">
         <v/>
       </c>
-      <c r="E47" t="str">
+      <c r="G47" t="str">
         <v/>
       </c>
-      <c r="F47" t="str">
+      <c r="H47" t="str">
         <v>灰色</v>
       </c>
-      <c r="G47" t="str">
+      <c r="I47" t="str">
         <v>33</v>
       </c>
-      <c r="H47" t="str">
+      <c r="J47" t="str">
         <v>Grey</v>
+      </c>
+      <c r="K47" t="str">
+        <v>https://img.kwcdn.com/product/fancy/3291f6c6-957d-41e2-9fb6-6c408fefcf67.jpg</v>
+      </c>
+      <c r="L47" t="str">
+        <v>运动凉鞋</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
+        <v>634418219683784</v>
+      </c>
+      <c r="B48">
+        <v>6136600129</v>
+      </c>
+      <c r="C48">
         <v>97218914942</v>
       </c>
-      <c r="B48">
+      <c r="D48">
         <v>65449969232</v>
       </c>
-      <c r="C48">
+      <c r="E48">
         <v>16772678835</v>
       </c>
-      <c r="D48" t="str">
+      <c r="F48" t="str">
         <v/>
       </c>
-      <c r="E48" t="str">
+      <c r="G48" t="str">
         <v/>
       </c>
-      <c r="F48" t="str">
+      <c r="H48" t="str">
         <v>灰色</v>
       </c>
-      <c r="G48" t="str">
+      <c r="I48" t="str">
         <v>28</v>
       </c>
-      <c r="H48" t="str">
+      <c r="J48" t="str">
         <v>Grey</v>
+      </c>
+      <c r="K48" t="str">
+        <v>https://img.kwcdn.com/product/fancy/3291f6c6-957d-41e2-9fb6-6c408fefcf67.jpg</v>
+      </c>
+      <c r="L48" t="str">
+        <v>运动凉鞋</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
+        <v>634418219683784</v>
+      </c>
+      <c r="B49">
+        <v>6136600129</v>
+      </c>
+      <c r="C49">
         <v>97218914942</v>
       </c>
-      <c r="B49">
+      <c r="D49">
         <v>74253380529</v>
       </c>
-      <c r="C49">
+      <c r="E49">
         <v>74632471908</v>
       </c>
-      <c r="D49" t="str">
+      <c r="F49" t="str">
         <v/>
       </c>
-      <c r="E49" t="str">
+      <c r="G49" t="str">
         <v/>
       </c>
-      <c r="F49" t="str">
+      <c r="H49" t="str">
         <v>灰色</v>
       </c>
-      <c r="G49" t="str">
+      <c r="I49" t="str">
         <v>32</v>
       </c>
-      <c r="H49" t="str">
+      <c r="J49" t="str">
         <v>Grey</v>
+      </c>
+      <c r="K49" t="str">
+        <v>https://img.kwcdn.com/product/fancy/3291f6c6-957d-41e2-9fb6-6c408fefcf67.jpg</v>
+      </c>
+      <c r="L49" t="str">
+        <v>运动凉鞋</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
+        <v>634418219683784</v>
+      </c>
+      <c r="B50">
+        <v>6136600129</v>
+      </c>
+      <c r="C50">
         <v>97218914942</v>
       </c>
-      <c r="B50">
+      <c r="D50">
         <v>90282194413</v>
       </c>
-      <c r="C50">
+      <c r="E50">
         <v>91888854449</v>
       </c>
-      <c r="D50" t="str">
+      <c r="F50" t="str">
         <v/>
       </c>
-      <c r="E50" t="str">
+      <c r="G50" t="str">
         <v/>
       </c>
-      <c r="F50" t="str">
+      <c r="H50" t="str">
         <v>灰色</v>
       </c>
-      <c r="G50" t="str">
+      <c r="I50" t="str">
         <v>27</v>
       </c>
-      <c r="H50" t="str">
+      <c r="J50" t="str">
         <v>Grey</v>
+      </c>
+      <c r="K50" t="str">
+        <v>https://img.kwcdn.com/product/fancy/3291f6c6-957d-41e2-9fb6-6c408fefcf67.jpg</v>
+      </c>
+      <c r="L50" t="str">
+        <v>运动凉鞋</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
+        <v>634418219683784</v>
+      </c>
+      <c r="B51">
+        <v>6136600129</v>
+      </c>
+      <c r="C51">
         <v>97218914942</v>
       </c>
-      <c r="B51">
+      <c r="D51">
         <v>94149955805</v>
       </c>
-      <c r="C51">
+      <c r="E51">
         <v>73242083633</v>
       </c>
-      <c r="D51" t="str">
+      <c r="F51" t="str">
         <v/>
       </c>
-      <c r="E51" t="str">
+      <c r="G51" t="str">
         <v/>
       </c>
-      <c r="F51" t="str">
+      <c r="H51" t="str">
         <v>灰色</v>
       </c>
-      <c r="G51" t="str">
+      <c r="I51" t="str">
         <v>36</v>
       </c>
-      <c r="H51" t="str">
+      <c r="J51" t="str">
         <v>Grey</v>
+      </c>
+      <c r="K51" t="str">
+        <v>https://img.kwcdn.com/product/fancy/3291f6c6-957d-41e2-9fb6-6c408fefcf67.jpg</v>
+      </c>
+      <c r="L51" t="str">
+        <v>运动凉鞋</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
+        <v>634418219683784</v>
+      </c>
+      <c r="B52">
+        <v>6136600129</v>
+      </c>
+      <c r="C52">
         <v>97218914942</v>
       </c>
-      <c r="B52">
+      <c r="D52">
         <v>90756132206</v>
       </c>
-      <c r="C52">
+      <c r="E52">
         <v>90322114210</v>
       </c>
-      <c r="D52" t="str">
+      <c r="F52" t="str">
         <v/>
       </c>
-      <c r="E52" t="str">
+      <c r="G52" t="str">
         <v/>
       </c>
-      <c r="F52" t="str">
+      <c r="H52" t="str">
         <v>灰色</v>
       </c>
-      <c r="G52" t="str">
+      <c r="I52" t="str">
         <v>35</v>
       </c>
-      <c r="H52" t="str">
+      <c r="J52" t="str">
         <v>Grey</v>
+      </c>
+      <c r="K52" t="str">
+        <v>https://img.kwcdn.com/product/fancy/3291f6c6-957d-41e2-9fb6-6c408fefcf67.jpg</v>
+      </c>
+      <c r="L52" t="str">
+        <v>运动凉鞋</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
+        <v>634418219683784</v>
+      </c>
+      <c r="B53">
+        <v>2010908620</v>
+      </c>
+      <c r="C53">
         <v>70737310251</v>
       </c>
-      <c r="B53">
+      <c r="D53">
         <v>28036437507</v>
       </c>
-      <c r="C53">
+      <c r="E53">
         <v>72996080062</v>
       </c>
-      <c r="D53" t="str">
+      <c r="F53" t="str">
         <v>6205</v>
       </c>
-      <c r="E53" t="str">
+      <c r="G53" t="str">
         <v>6205-TZ-DarkBlue-31</v>
       </c>
-      <c r="F53" t="str">
+      <c r="H53" t="str">
         <v>深蓝</v>
       </c>
-      <c r="G53" t="str">
+      <c r="I53" t="str">
         <v>31</v>
       </c>
-      <c r="H53" t="str">
+      <c r="J53" t="str">
         <v>Dark Blue</v>
+      </c>
+      <c r="K53" t="str">
+        <v>https://img.kwcdn.com/product/fancy/df50b4f7-995b-4e3e-8e15-c2c1bae38a1e.jpg</v>
+      </c>
+      <c r="L53" t="str">
+        <v>男童运动凉鞋</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
+        <v>634418219683784</v>
+      </c>
+      <c r="B54">
+        <v>2010908620</v>
+      </c>
+      <c r="C54">
         <v>70737310251</v>
       </c>
-      <c r="B54">
+      <c r="D54">
         <v>80146103551</v>
       </c>
-      <c r="C54">
+      <c r="E54">
         <v>22489306229</v>
       </c>
-      <c r="D54" t="str">
+      <c r="F54" t="str">
         <v>6205</v>
       </c>
-      <c r="E54" t="str">
+      <c r="G54" t="str">
         <v>6205-TZ-DarkBlue-37</v>
       </c>
-      <c r="F54" t="str">
+      <c r="H54" t="str">
         <v>深蓝</v>
       </c>
-      <c r="G54" t="str">
+      <c r="I54" t="str">
         <v>37</v>
       </c>
-      <c r="H54" t="str">
+      <c r="J54" t="str">
         <v>Dark Blue</v>
+      </c>
+      <c r="K54" t="str">
+        <v>https://img.kwcdn.com/product/fancy/df50b4f7-995b-4e3e-8e15-c2c1bae38a1e.jpg</v>
+      </c>
+      <c r="L54" t="str">
+        <v>男童运动凉鞋</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
+        <v>634418219683784</v>
+      </c>
+      <c r="B55">
+        <v>2010908620</v>
+      </c>
+      <c r="C55">
         <v>70737310251</v>
       </c>
-      <c r="B55">
+      <c r="D55">
         <v>99926787786</v>
       </c>
-      <c r="C55">
+      <c r="E55">
         <v>47524982074</v>
       </c>
-      <c r="D55" t="str">
+      <c r="F55" t="str">
         <v>6205</v>
       </c>
-      <c r="E55" t="str">
+      <c r="G55" t="str">
         <v>6205-TZ-BlackGreen-33</v>
       </c>
-      <c r="F55" t="str">
+      <c r="H55" t="str">
         <v>黑绿</v>
       </c>
-      <c r="G55" t="str">
+      <c r="I55" t="str">
         <v>33</v>
       </c>
-      <c r="H55" t="str">
+      <c r="J55" t="str">
         <v>Dark Green color</v>
+      </c>
+      <c r="K55" t="str">
+        <v>https://img.kwcdn.com/product/fancy/de185c2f-b441-488c-a220-965ccb322f32.jpg</v>
+      </c>
+      <c r="L55" t="str">
+        <v>男童运动凉鞋</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
+        <v>634418219683784</v>
+      </c>
+      <c r="B56">
+        <v>2010908620</v>
+      </c>
+      <c r="C56">
         <v>70737310251</v>
       </c>
-      <c r="B56">
+      <c r="D56">
         <v>79680588014</v>
       </c>
-      <c r="C56">
+      <c r="E56">
         <v>50896935683</v>
       </c>
-      <c r="D56" t="str">
+      <c r="F56" t="str">
         <v>6205</v>
       </c>
-      <c r="E56" t="str">
+      <c r="G56" t="str">
         <v>6205-TZ-BlackGreen-36</v>
       </c>
-      <c r="F56" t="str">
+      <c r="H56" t="str">
         <v>黑绿</v>
       </c>
-      <c r="G56" t="str">
+      <c r="I56" t="str">
         <v>36</v>
       </c>
-      <c r="H56" t="str">
+      <c r="J56" t="str">
         <v>Dark Green color</v>
+      </c>
+      <c r="K56" t="str">
+        <v>https://img.kwcdn.com/product/fancy/de185c2f-b441-488c-a220-965ccb322f32.jpg</v>
+      </c>
+      <c r="L56" t="str">
+        <v>男童运动凉鞋</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
+        <v>634418219683784</v>
+      </c>
+      <c r="B57">
+        <v>2010908620</v>
+      </c>
+      <c r="C57">
         <v>70737310251</v>
       </c>
-      <c r="B57">
+      <c r="D57">
         <v>55537096002</v>
       </c>
-      <c r="C57">
+      <c r="E57">
         <v>81259460893</v>
       </c>
-      <c r="D57" t="str">
+      <c r="F57" t="str">
         <v>6205</v>
       </c>
-      <c r="E57" t="str">
+      <c r="G57" t="str">
         <v>6205-TZ-DarkBlue-35</v>
       </c>
-      <c r="F57" t="str">
+      <c r="H57" t="str">
         <v>深蓝</v>
       </c>
-      <c r="G57" t="str">
+      <c r="I57" t="str">
         <v>35</v>
       </c>
-      <c r="H57" t="str">
+      <c r="J57" t="str">
         <v>Dark Blue</v>
+      </c>
+      <c r="K57" t="str">
+        <v>https://img.kwcdn.com/product/fancy/df50b4f7-995b-4e3e-8e15-c2c1bae38a1e.jpg</v>
+      </c>
+      <c r="L57" t="str">
+        <v>男童运动凉鞋</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
+        <v>634418219683784</v>
+      </c>
+      <c r="B58">
+        <v>2010908620</v>
+      </c>
+      <c r="C58">
         <v>70737310251</v>
       </c>
-      <c r="B58">
+      <c r="D58">
         <v>90121084117</v>
       </c>
-      <c r="C58">
+      <c r="E58">
         <v>88462604133</v>
       </c>
-      <c r="D58" t="str">
+      <c r="F58" t="str">
         <v>6205</v>
       </c>
-      <c r="E58" t="str">
+      <c r="G58" t="str">
         <v>6205-TZ-DarkBlue-38</v>
       </c>
-      <c r="F58" t="str">
+      <c r="H58" t="str">
         <v>深蓝</v>
       </c>
-      <c r="G58" t="str">
+      <c r="I58" t="str">
         <v>38</v>
       </c>
-      <c r="H58" t="str">
+      <c r="J58" t="str">
         <v>Dark Blue</v>
+      </c>
+      <c r="K58" t="str">
+        <v>https://img.kwcdn.com/product/fancy/df50b4f7-995b-4e3e-8e15-c2c1bae38a1e.jpg</v>
+      </c>
+      <c r="L58" t="str">
+        <v>男童运动凉鞋</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
+        <v>634418219683784</v>
+      </c>
+      <c r="B59">
+        <v>2010908620</v>
+      </c>
+      <c r="C59">
         <v>70737310251</v>
       </c>
-      <c r="B59">
+      <c r="D59">
         <v>78408989124</v>
       </c>
-      <c r="C59">
+      <c r="E59">
         <v>14400093780</v>
       </c>
-      <c r="D59" t="str">
+      <c r="F59" t="str">
         <v>6205</v>
       </c>
-      <c r="E59" t="str">
+      <c r="G59" t="str">
         <v>6205-TZ-DarkBlue-29</v>
       </c>
-      <c r="F59" t="str">
+      <c r="H59" t="str">
         <v>深蓝</v>
       </c>
-      <c r="G59" t="str">
+      <c r="I59" t="str">
         <v>29</v>
       </c>
-      <c r="H59" t="str">
+      <c r="J59" t="str">
         <v>Dark Blue</v>
+      </c>
+      <c r="K59" t="str">
+        <v>https://img.kwcdn.com/product/fancy/df50b4f7-995b-4e3e-8e15-c2c1bae38a1e.jpg</v>
+      </c>
+      <c r="L59" t="str">
+        <v>男童运动凉鞋</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
+        <v>634418219683784</v>
+      </c>
+      <c r="B60">
+        <v>2010908620</v>
+      </c>
+      <c r="C60">
         <v>70737310251</v>
       </c>
-      <c r="B60">
+      <c r="D60">
         <v>93666861166</v>
       </c>
-      <c r="C60">
+      <c r="E60">
         <v>67750309350</v>
       </c>
-      <c r="D60" t="str">
+      <c r="F60" t="str">
         <v>6205</v>
       </c>
-      <c r="E60" t="str">
+      <c r="G60" t="str">
         <v>6205-TZ-DarkBlue-30</v>
       </c>
-      <c r="F60" t="str">
+      <c r="H60" t="str">
         <v>深蓝</v>
       </c>
-      <c r="G60" t="str">
+      <c r="I60" t="str">
         <v>30</v>
       </c>
-      <c r="H60" t="str">
+      <c r="J60" t="str">
         <v>Dark Blue</v>
+      </c>
+      <c r="K60" t="str">
+        <v>https://img.kwcdn.com/product/fancy/df50b4f7-995b-4e3e-8e15-c2c1bae38a1e.jpg</v>
+      </c>
+      <c r="L60" t="str">
+        <v>男童运动凉鞋</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
+        <v>634418219683784</v>
+      </c>
+      <c r="B61">
+        <v>2010908620</v>
+      </c>
+      <c r="C61">
         <v>70737310251</v>
       </c>
-      <c r="B61">
+      <c r="D61">
         <v>70262025952</v>
       </c>
-      <c r="C61">
+      <c r="E61">
         <v>91055904767</v>
       </c>
-      <c r="D61" t="str">
+      <c r="F61" t="str">
         <v>6205</v>
       </c>
-      <c r="E61" t="str">
+      <c r="G61" t="str">
         <v>6205-TZ-DarkBlue-36</v>
       </c>
-      <c r="F61" t="str">
+      <c r="H61" t="str">
         <v>深蓝</v>
       </c>
-      <c r="G61" t="str">
+      <c r="I61" t="str">
         <v>36</v>
       </c>
-      <c r="H61" t="str">
+      <c r="J61" t="str">
         <v>Dark Blue</v>
+      </c>
+      <c r="K61" t="str">
+        <v>https://img.kwcdn.com/product/fancy/df50b4f7-995b-4e3e-8e15-c2c1bae38a1e.jpg</v>
+      </c>
+      <c r="L61" t="str">
+        <v>男童运动凉鞋</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
+        <v>634418219683784</v>
+      </c>
+      <c r="B62">
+        <v>2010908620</v>
+      </c>
+      <c r="C62">
         <v>70737310251</v>
       </c>
-      <c r="B62">
+      <c r="D62">
         <v>47208585902</v>
       </c>
-      <c r="C62">
+      <c r="E62">
         <v>22194983757</v>
       </c>
-      <c r="D62" t="str">
+      <c r="F62" t="str">
         <v>6205</v>
       </c>
-      <c r="E62" t="str">
+      <c r="G62" t="str">
         <v>6205-TZ-BlackGreen-30</v>
       </c>
-      <c r="F62" t="str">
+      <c r="H62" t="str">
         <v>黑绿</v>
       </c>
-      <c r="G62" t="str">
+      <c r="I62" t="str">
         <v>30</v>
       </c>
-      <c r="H62" t="str">
+      <c r="J62" t="str">
         <v>Dark Green color</v>
+      </c>
+      <c r="K62" t="str">
+        <v>https://img.kwcdn.com/product/fancy/de185c2f-b441-488c-a220-965ccb322f32.jpg</v>
+      </c>
+      <c r="L62" t="str">
+        <v>男童运动凉鞋</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
+        <v>634418219683784</v>
+      </c>
+      <c r="B63">
+        <v>2010908620</v>
+      </c>
+      <c r="C63">
         <v>70737310251</v>
       </c>
-      <c r="B63">
+      <c r="D63">
         <v>46156571743</v>
       </c>
-      <c r="C63">
+      <c r="E63">
         <v>65620946552</v>
       </c>
-      <c r="D63" t="str">
+      <c r="F63" t="str">
         <v>6205</v>
       </c>
-      <c r="E63" t="str">
+      <c r="G63" t="str">
         <v>6205-TZ-BlackGreen-34</v>
       </c>
-      <c r="F63" t="str">
+      <c r="H63" t="str">
         <v>黑绿</v>
       </c>
-      <c r="G63" t="str">
+      <c r="I63" t="str">
         <v>34</v>
       </c>
-      <c r="H63" t="str">
+      <c r="J63" t="str">
         <v>Dark Green color</v>
+      </c>
+      <c r="K63" t="str">
+        <v>https://img.kwcdn.com/product/fancy/de185c2f-b441-488c-a220-965ccb322f32.jpg</v>
+      </c>
+      <c r="L63" t="str">
+        <v>男童运动凉鞋</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
+        <v>634418219683784</v>
+      </c>
+      <c r="B64">
+        <v>2010908620</v>
+      </c>
+      <c r="C64">
         <v>70737310251</v>
       </c>
-      <c r="B64">
+      <c r="D64">
         <v>91801809402</v>
       </c>
-      <c r="C64">
+      <c r="E64">
         <v>61936367019</v>
       </c>
-      <c r="D64" t="str">
+      <c r="F64" t="str">
         <v>6205</v>
       </c>
-      <c r="E64" t="str">
+      <c r="G64" t="str">
         <v>6205-TZ-DarkBlue-34</v>
       </c>
-      <c r="F64" t="str">
+      <c r="H64" t="str">
         <v>深蓝</v>
       </c>
-      <c r="G64" t="str">
+      <c r="I64" t="str">
         <v>34</v>
       </c>
-      <c r="H64" t="str">
+      <c r="J64" t="str">
         <v>Dark Blue</v>
+      </c>
+      <c r="K64" t="str">
+        <v>https://img.kwcdn.com/product/fancy/df50b4f7-995b-4e3e-8e15-c2c1bae38a1e.jpg</v>
+      </c>
+      <c r="L64" t="str">
+        <v>男童运动凉鞋</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
+        <v>634418219683784</v>
+      </c>
+      <c r="B65">
+        <v>2010908620</v>
+      </c>
+      <c r="C65">
         <v>70737310251</v>
       </c>
-      <c r="B65">
+      <c r="D65">
         <v>92340631747</v>
       </c>
-      <c r="C65">
+      <c r="E65">
         <v>79187395211</v>
       </c>
-      <c r="D65" t="str">
+      <c r="F65" t="str">
         <v>6205</v>
       </c>
-      <c r="E65" t="str">
+      <c r="G65" t="str">
         <v>6205-TZ-BlackGreen-38</v>
       </c>
-      <c r="F65" t="str">
+      <c r="H65" t="str">
         <v>黑绿</v>
       </c>
-      <c r="G65" t="str">
+      <c r="I65" t="str">
         <v>38</v>
       </c>
-      <c r="H65" t="str">
+      <c r="J65" t="str">
         <v>Dark Green color</v>
+      </c>
+      <c r="K65" t="str">
+        <v>https://img.kwcdn.com/product/fancy/de185c2f-b441-488c-a220-965ccb322f32.jpg</v>
+      </c>
+      <c r="L65" t="str">
+        <v>男童运动凉鞋</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
+        <v>634418219683784</v>
+      </c>
+      <c r="B66">
+        <v>2010908620</v>
+      </c>
+      <c r="C66">
         <v>70737310251</v>
       </c>
-      <c r="B66">
+      <c r="D66">
         <v>82904960873</v>
       </c>
-      <c r="C66">
+      <c r="E66">
         <v>98740927883</v>
       </c>
-      <c r="D66" t="str">
+      <c r="F66" t="str">
         <v>6205</v>
       </c>
-      <c r="E66" t="str">
+      <c r="G66" t="str">
         <v>6205-TZ-DarkBlue-28</v>
       </c>
-      <c r="F66" t="str">
+      <c r="H66" t="str">
         <v>深蓝</v>
       </c>
-      <c r="G66" t="str">
+      <c r="I66" t="str">
         <v>28</v>
       </c>
-      <c r="H66" t="str">
+      <c r="J66" t="str">
         <v>Dark Blue</v>
+      </c>
+      <c r="K66" t="str">
+        <v>https://img.kwcdn.com/product/fancy/df50b4f7-995b-4e3e-8e15-c2c1bae38a1e.jpg</v>
+      </c>
+      <c r="L66" t="str">
+        <v>男童运动凉鞋</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
+        <v>634418219683784</v>
+      </c>
+      <c r="B67">
+        <v>2010908620</v>
+      </c>
+      <c r="C67">
         <v>70737310251</v>
       </c>
-      <c r="B67">
+      <c r="D67">
         <v>63948179319</v>
       </c>
-      <c r="C67">
+      <c r="E67">
         <v>76356424844</v>
       </c>
-      <c r="D67" t="str">
+      <c r="F67" t="str">
         <v>6205</v>
       </c>
-      <c r="E67" t="str">
+      <c r="G67" t="str">
         <v>6205-TZ-BlackGreen-28</v>
       </c>
-      <c r="F67" t="str">
+      <c r="H67" t="str">
         <v>黑绿</v>
       </c>
-      <c r="G67" t="str">
+      <c r="I67" t="str">
         <v>28</v>
       </c>
-      <c r="H67" t="str">
+      <c r="J67" t="str">
         <v>Dark Green color</v>
+      </c>
+      <c r="K67" t="str">
+        <v>https://img.kwcdn.com/product/fancy/de185c2f-b441-488c-a220-965ccb322f32.jpg</v>
+      </c>
+      <c r="L67" t="str">
+        <v>男童运动凉鞋</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
+        <v>634418219683784</v>
+      </c>
+      <c r="B68">
+        <v>2010908620</v>
+      </c>
+      <c r="C68">
         <v>70737310251</v>
       </c>
-      <c r="B68">
+      <c r="D68">
         <v>72538503294</v>
       </c>
-      <c r="C68">
+      <c r="E68">
         <v>68308941298</v>
       </c>
-      <c r="D68" t="str">
+      <c r="F68" t="str">
         <v>6205</v>
       </c>
-      <c r="E68" t="str">
+      <c r="G68" t="str">
         <v>6205-TZ-BlackGreen-29</v>
       </c>
-      <c r="F68" t="str">
+      <c r="H68" t="str">
         <v>黑绿</v>
       </c>
-      <c r="G68" t="str">
+      <c r="I68" t="str">
         <v>29</v>
       </c>
-      <c r="H68" t="str">
+      <c r="J68" t="str">
         <v>Dark Green color</v>
+      </c>
+      <c r="K68" t="str">
+        <v>https://img.kwcdn.com/product/fancy/de185c2f-b441-488c-a220-965ccb322f32.jpg</v>
+      </c>
+      <c r="L68" t="str">
+        <v>男童运动凉鞋</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
+        <v>634418219683784</v>
+      </c>
+      <c r="B69">
+        <v>2010908620</v>
+      </c>
+      <c r="C69">
         <v>70737310251</v>
       </c>
-      <c r="B69">
+      <c r="D69">
         <v>81165333074</v>
       </c>
-      <c r="C69">
+      <c r="E69">
         <v>15979936552</v>
       </c>
-      <c r="D69" t="str">
+      <c r="F69" t="str">
         <v>6205</v>
       </c>
-      <c r="E69" t="str">
+      <c r="G69" t="str">
         <v>6205-TZ-BlackGreen-37</v>
       </c>
-      <c r="F69" t="str">
+      <c r="H69" t="str">
         <v>黑绿</v>
       </c>
-      <c r="G69" t="str">
+      <c r="I69" t="str">
         <v>37</v>
       </c>
-      <c r="H69" t="str">
+      <c r="J69" t="str">
         <v>Dark Green color</v>
+      </c>
+      <c r="K69" t="str">
+        <v>https://img.kwcdn.com/product/fancy/de185c2f-b441-488c-a220-965ccb322f32.jpg</v>
+      </c>
+      <c r="L69" t="str">
+        <v>男童运动凉鞋</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
+        <v>634418219683784</v>
+      </c>
+      <c r="B70">
+        <v>2010908620</v>
+      </c>
+      <c r="C70">
         <v>70737310251</v>
       </c>
-      <c r="B70">
+      <c r="D70">
         <v>16988026204</v>
       </c>
-      <c r="C70">
+      <c r="E70">
         <v>67221571092</v>
       </c>
-      <c r="D70" t="str">
+      <c r="F70" t="str">
         <v>6205</v>
       </c>
-      <c r="E70" t="str">
+      <c r="G70" t="str">
         <v>6205-TZ-DarkBlue-33</v>
       </c>
-      <c r="F70" t="str">
+      <c r="H70" t="str">
         <v>深蓝</v>
       </c>
-      <c r="G70" t="str">
+      <c r="I70" t="str">
         <v>33</v>
       </c>
-      <c r="H70" t="str">
+      <c r="J70" t="str">
         <v>Dark Blue</v>
+      </c>
+      <c r="K70" t="str">
+        <v>https://img.kwcdn.com/product/fancy/df50b4f7-995b-4e3e-8e15-c2c1bae38a1e.jpg</v>
+      </c>
+      <c r="L70" t="str">
+        <v>男童运动凉鞋</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
+        <v>634418219683784</v>
+      </c>
+      <c r="B71">
+        <v>2010908620</v>
+      </c>
+      <c r="C71">
         <v>70737310251</v>
       </c>
-      <c r="B71">
+      <c r="D71">
         <v>54604279008</v>
       </c>
-      <c r="C71">
+      <c r="E71">
         <v>69661550687</v>
       </c>
-      <c r="D71" t="str">
+      <c r="F71" t="str">
         <v>6205</v>
       </c>
-      <c r="E71" t="str">
+      <c r="G71" t="str">
         <v>6205-TZ-BlackGreen-35</v>
       </c>
-      <c r="F71" t="str">
+      <c r="H71" t="str">
         <v>黑绿</v>
       </c>
-      <c r="G71" t="str">
+      <c r="I71" t="str">
         <v>35</v>
       </c>
-      <c r="H71" t="str">
+      <c r="J71" t="str">
         <v>Dark Green color</v>
+      </c>
+      <c r="K71" t="str">
+        <v>https://img.kwcdn.com/product/fancy/de185c2f-b441-488c-a220-965ccb322f32.jpg</v>
+      </c>
+      <c r="L71" t="str">
+        <v>男童运动凉鞋</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
+        <v>634418219683784</v>
+      </c>
+      <c r="B72">
+        <v>2010908620</v>
+      </c>
+      <c r="C72">
         <v>70737310251</v>
       </c>
-      <c r="B72">
+      <c r="D72">
         <v>37304356256</v>
       </c>
-      <c r="C72">
+      <c r="E72">
         <v>13429019319</v>
       </c>
-      <c r="D72" t="str">
+      <c r="F72" t="str">
         <v>6205</v>
       </c>
-      <c r="E72" t="str">
+      <c r="G72" t="str">
         <v>6205-TZ-DarkBlue-32</v>
       </c>
-      <c r="F72" t="str">
+      <c r="H72" t="str">
         <v>深蓝</v>
       </c>
-      <c r="G72" t="str">
+      <c r="I72" t="str">
         <v>32</v>
       </c>
-      <c r="H72" t="str">
+      <c r="J72" t="str">
         <v>Dark Blue</v>
+      </c>
+      <c r="K72" t="str">
+        <v>https://img.kwcdn.com/product/fancy/df50b4f7-995b-4e3e-8e15-c2c1bae38a1e.jpg</v>
+      </c>
+      <c r="L72" t="str">
+        <v>男童运动凉鞋</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
+        <v>634418219683784</v>
+      </c>
+      <c r="B73">
+        <v>2010908620</v>
+      </c>
+      <c r="C73">
         <v>70737310251</v>
       </c>
-      <c r="B73">
+      <c r="D73">
         <v>70247261059</v>
       </c>
-      <c r="C73">
+      <c r="E73">
         <v>69249003707</v>
       </c>
-      <c r="D73" t="str">
+      <c r="F73" t="str">
         <v>6205</v>
       </c>
-      <c r="E73" t="str">
+      <c r="G73" t="str">
         <v>6205-TZ-BlackGreen-31</v>
       </c>
-      <c r="F73" t="str">
+      <c r="H73" t="str">
         <v>黑绿</v>
       </c>
-      <c r="G73" t="str">
+      <c r="I73" t="str">
         <v>31</v>
       </c>
-      <c r="H73" t="str">
+      <c r="J73" t="str">
         <v>Dark Green color</v>
+      </c>
+      <c r="K73" t="str">
+        <v>https://img.kwcdn.com/product/fancy/de185c2f-b441-488c-a220-965ccb322f32.jpg</v>
+      </c>
+      <c r="L73" t="str">
+        <v>男童运动凉鞋</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
+        <v>634418219683784</v>
+      </c>
+      <c r="B74">
+        <v>2010908620</v>
+      </c>
+      <c r="C74">
         <v>70737310251</v>
       </c>
-      <c r="B74">
+      <c r="D74">
         <v>12793350244</v>
       </c>
-      <c r="C74">
+      <c r="E74">
         <v>98000023067</v>
       </c>
-      <c r="D74" t="str">
+      <c r="F74" t="str">
         <v>6205</v>
       </c>
-      <c r="E74" t="str">
+      <c r="G74" t="str">
         <v>6205-TZ-BlackGreen-32</v>
       </c>
-      <c r="F74" t="str">
+      <c r="H74" t="str">
         <v>黑绿</v>
       </c>
-      <c r="G74" t="str">
+      <c r="I74" t="str">
         <v>32</v>
       </c>
-      <c r="H74" t="str">
+      <c r="J74" t="str">
         <v>Dark Green color</v>
+      </c>
+      <c r="K74" t="str">
+        <v>https://img.kwcdn.com/product/fancy/de185c2f-b441-488c-a220-965ccb322f32.jpg</v>
+      </c>
+      <c r="L74" t="str">
+        <v>男童运动凉鞋</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
+        <v>634418219683784</v>
+      </c>
+      <c r="B75">
+        <v>2838014208</v>
+      </c>
+      <c r="C75">
         <v>94878576679</v>
       </c>
-      <c r="B75">
+      <c r="D75">
         <v>57277851319</v>
       </c>
-      <c r="C75">
+      <c r="E75">
         <v>70227384735</v>
       </c>
-      <c r="D75" t="str">
+      <c r="F75" t="str">
         <v>6201</v>
       </c>
-      <c r="E75" t="str">
+      <c r="G75" t="str">
         <v>6201-TZ-Pink-28</v>
       </c>
-      <c r="F75" t="str">
+      <c r="H75" t="str">
         <v>粉红色</v>
       </c>
-      <c r="G75" t="str">
+      <c r="I75" t="str">
         <v>28</v>
       </c>
-      <c r="H75" t="str">
-        <v>Pink Color</v>
+      <c r="J75" t="str">
+        <v>Pink</v>
+      </c>
+      <c r="K75" t="str">
+        <v>https://img.kwcdn.com/product/fancy/072e6c6a-d2f3-4fd3-ac59-8420f4c5aa71.jpg</v>
+      </c>
+      <c r="L75" t="str">
+        <v>女童运动凉鞋</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
+        <v>634418219683784</v>
+      </c>
+      <c r="B76">
+        <v>2838014208</v>
+      </c>
+      <c r="C76">
         <v>94878576679</v>
       </c>
-      <c r="B76">
+      <c r="D76">
         <v>77115557960</v>
       </c>
-      <c r="C76">
+      <c r="E76">
         <v>96415160026</v>
       </c>
-      <c r="D76" t="str">
+      <c r="F76" t="str">
         <v>6201</v>
       </c>
-      <c r="E76" t="str">
+      <c r="G76" t="str">
         <v>6201-TZ-Pink-38</v>
       </c>
-      <c r="F76" t="str">
+      <c r="H76" t="str">
         <v>粉红色</v>
       </c>
-      <c r="G76" t="str">
+      <c r="I76" t="str">
         <v>38</v>
       </c>
-      <c r="H76" t="str">
-        <v>Pink Color</v>
+      <c r="J76" t="str">
+        <v>Pink</v>
+      </c>
+      <c r="K76" t="str">
+        <v>https://img.kwcdn.com/product/fancy/072e6c6a-d2f3-4fd3-ac59-8420f4c5aa71.jpg</v>
+      </c>
+      <c r="L76" t="str">
+        <v>女童运动凉鞋</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
+        <v>634418219683784</v>
+      </c>
+      <c r="B77">
+        <v>2838014208</v>
+      </c>
+      <c r="C77">
         <v>94878576679</v>
       </c>
-      <c r="B77">
+      <c r="D77">
         <v>28615152980</v>
       </c>
-      <c r="C77">
+      <c r="E77">
         <v>77814099430</v>
       </c>
-      <c r="D77" t="str">
+      <c r="F77" t="str">
         <v>6201</v>
       </c>
-      <c r="E77" t="str">
+      <c r="G77" t="str">
         <v>6201-TZ-Pink-32</v>
       </c>
-      <c r="F77" t="str">
+      <c r="H77" t="str">
         <v>粉红色</v>
       </c>
-      <c r="G77" t="str">
+      <c r="I77" t="str">
         <v>32</v>
       </c>
-      <c r="H77" t="str">
-        <v>Pink Color</v>
+      <c r="J77" t="str">
+        <v>Pink</v>
+      </c>
+      <c r="K77" t="str">
+        <v>https://img.kwcdn.com/product/fancy/072e6c6a-d2f3-4fd3-ac59-8420f4c5aa71.jpg</v>
+      </c>
+      <c r="L77" t="str">
+        <v>女童运动凉鞋</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
+        <v>634418219683784</v>
+      </c>
+      <c r="B78">
+        <v>2838014208</v>
+      </c>
+      <c r="C78">
         <v>94878576679</v>
       </c>
-      <c r="B78">
+      <c r="D78">
         <v>34066504180</v>
       </c>
-      <c r="C78">
+      <c r="E78">
         <v>42687620036</v>
       </c>
-      <c r="D78" t="str">
+      <c r="F78" t="str">
         <v>6201</v>
       </c>
-      <c r="E78" t="str">
+      <c r="G78" t="str">
         <v>6201-TZ-Pink-30</v>
       </c>
-      <c r="F78" t="str">
+      <c r="H78" t="str">
         <v>粉红色</v>
       </c>
-      <c r="G78" t="str">
+      <c r="I78" t="str">
         <v>30</v>
       </c>
-      <c r="H78" t="str">
-        <v>Pink Color</v>
+      <c r="J78" t="str">
+        <v>Pink</v>
+      </c>
+      <c r="K78" t="str">
+        <v>https://img.kwcdn.com/product/fancy/072e6c6a-d2f3-4fd3-ac59-8420f4c5aa71.jpg</v>
+      </c>
+      <c r="L78" t="str">
+        <v>女童运动凉鞋</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
+        <v>634418219683784</v>
+      </c>
+      <c r="B79">
+        <v>2838014208</v>
+      </c>
+      <c r="C79">
         <v>94878576679</v>
       </c>
-      <c r="B79">
+      <c r="D79">
         <v>35107356278</v>
       </c>
-      <c r="C79">
+      <c r="E79">
         <v>63261557183</v>
       </c>
-      <c r="D79" t="str">
+      <c r="F79" t="str">
         <v>6201</v>
       </c>
-      <c r="E79" t="str">
+      <c r="G79" t="str">
         <v>6201-TZ-Pink-31</v>
       </c>
-      <c r="F79" t="str">
+      <c r="H79" t="str">
         <v>粉红色</v>
       </c>
-      <c r="G79" t="str">
+      <c r="I79" t="str">
         <v>31</v>
       </c>
-      <c r="H79" t="str">
-        <v>Pink Color</v>
+      <c r="J79" t="str">
+        <v>Pink</v>
+      </c>
+      <c r="K79" t="str">
+        <v>https://img.kwcdn.com/product/fancy/072e6c6a-d2f3-4fd3-ac59-8420f4c5aa71.jpg</v>
+      </c>
+      <c r="L79" t="str">
+        <v>女童运动凉鞋</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
+        <v>634418219683784</v>
+      </c>
+      <c r="B80">
+        <v>2838014208</v>
+      </c>
+      <c r="C80">
         <v>94878576679</v>
       </c>
-      <c r="B80">
+      <c r="D80">
         <v>25264308527</v>
       </c>
-      <c r="C80">
+      <c r="E80">
         <v>62576311679</v>
       </c>
-      <c r="D80" t="str">
+      <c r="F80" t="str">
         <v>6201</v>
       </c>
-      <c r="E80" t="str">
+      <c r="G80" t="str">
         <v>6201-TZ-Pink-26</v>
       </c>
-      <c r="F80" t="str">
+      <c r="H80" t="str">
         <v>粉红色</v>
       </c>
-      <c r="G80" t="str">
+      <c r="I80" t="str">
         <v>26</v>
       </c>
-      <c r="H80" t="str">
-        <v>Pink Color</v>
+      <c r="J80" t="str">
+        <v>Pink</v>
+      </c>
+      <c r="K80" t="str">
+        <v>https://img.kwcdn.com/product/fancy/072e6c6a-d2f3-4fd3-ac59-8420f4c5aa71.jpg</v>
+      </c>
+      <c r="L80" t="str">
+        <v>女童运动凉鞋</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
+        <v>634418219683784</v>
+      </c>
+      <c r="B81">
+        <v>2838014208</v>
+      </c>
+      <c r="C81">
         <v>94878576679</v>
       </c>
-      <c r="B81">
+      <c r="D81">
         <v>25515608358</v>
       </c>
-      <c r="C81">
+      <c r="E81">
         <v>90950120122</v>
       </c>
-      <c r="D81" t="str">
+      <c r="F81" t="str">
         <v>6201</v>
       </c>
-      <c r="E81" t="str">
+      <c r="G81" t="str">
         <v>6201-TZ-Pink-37</v>
       </c>
-      <c r="F81" t="str">
+      <c r="H81" t="str">
         <v>粉红色</v>
       </c>
-      <c r="G81" t="str">
+      <c r="I81" t="str">
         <v>37</v>
       </c>
-      <c r="H81" t="str">
-        <v>Pink Color</v>
+      <c r="J81" t="str">
+        <v>Pink</v>
+      </c>
+      <c r="K81" t="str">
+        <v>https://img.kwcdn.com/product/fancy/072e6c6a-d2f3-4fd3-ac59-8420f4c5aa71.jpg</v>
+      </c>
+      <c r="L81" t="str">
+        <v>女童运动凉鞋</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
+        <v>634418219683784</v>
+      </c>
+      <c r="B82">
+        <v>2838014208</v>
+      </c>
+      <c r="C82">
         <v>94878576679</v>
       </c>
-      <c r="B82">
+      <c r="D82">
         <v>65109625635</v>
       </c>
-      <c r="C82">
+      <c r="E82">
         <v>62920042889</v>
       </c>
-      <c r="D82" t="str">
+      <c r="F82" t="str">
         <v>6201</v>
       </c>
-      <c r="E82" t="str">
+      <c r="G82" t="str">
         <v>6201-TZ-Pink-36</v>
       </c>
-      <c r="F82" t="str">
+      <c r="H82" t="str">
         <v>粉红色</v>
       </c>
-      <c r="G82" t="str">
+      <c r="I82" t="str">
         <v>36</v>
       </c>
-      <c r="H82" t="str">
-        <v>Pink Color</v>
+      <c r="J82" t="str">
+        <v>Pink</v>
+      </c>
+      <c r="K82" t="str">
+        <v>https://img.kwcdn.com/product/fancy/072e6c6a-d2f3-4fd3-ac59-8420f4c5aa71.jpg</v>
+      </c>
+      <c r="L82" t="str">
+        <v>女童运动凉鞋</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
+        <v>634418219683784</v>
+      </c>
+      <c r="B83">
+        <v>2838014208</v>
+      </c>
+      <c r="C83">
         <v>94878576679</v>
       </c>
-      <c r="B83">
+      <c r="D83">
         <v>15383009936</v>
       </c>
-      <c r="C83">
+      <c r="E83">
         <v>61252881458</v>
       </c>
-      <c r="D83" t="str">
+      <c r="F83" t="str">
         <v>6201</v>
       </c>
-      <c r="E83" t="str">
+      <c r="G83" t="str">
         <v>6201-TZ-Pink-27</v>
       </c>
-      <c r="F83" t="str">
+      <c r="H83" t="str">
         <v>粉红色</v>
       </c>
-      <c r="G83" t="str">
+      <c r="I83" t="str">
         <v>27</v>
       </c>
-      <c r="H83" t="str">
-        <v>Pink Color</v>
+      <c r="J83" t="str">
+        <v>Pink</v>
+      </c>
+      <c r="K83" t="str">
+        <v>https://img.kwcdn.com/product/fancy/072e6c6a-d2f3-4fd3-ac59-8420f4c5aa71.jpg</v>
+      </c>
+      <c r="L83" t="str">
+        <v>女童运动凉鞋</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
+        <v>634418219683784</v>
+      </c>
+      <c r="B84">
+        <v>2838014208</v>
+      </c>
+      <c r="C84">
         <v>94878576679</v>
       </c>
-      <c r="B84">
+      <c r="D84">
         <v>99332881216</v>
       </c>
-      <c r="C84">
+      <c r="E84">
         <v>66625230772</v>
       </c>
-      <c r="D84" t="str">
+      <c r="F84" t="str">
         <v>6201</v>
       </c>
-      <c r="E84" t="str">
+      <c r="G84" t="str">
         <v>6201-TZ-Pink-35</v>
       </c>
-      <c r="F84" t="str">
+      <c r="H84" t="str">
         <v>粉红色</v>
       </c>
-      <c r="G84" t="str">
+      <c r="I84" t="str">
         <v>35</v>
       </c>
-      <c r="H84" t="str">
-        <v>Pink Color</v>
+      <c r="J84" t="str">
+        <v>Pink</v>
+      </c>
+      <c r="K84" t="str">
+        <v>https://img.kwcdn.com/product/fancy/072e6c6a-d2f3-4fd3-ac59-8420f4c5aa71.jpg</v>
+      </c>
+      <c r="L84" t="str">
+        <v>女童运动凉鞋</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
+        <v>634418219683784</v>
+      </c>
+      <c r="B85">
+        <v>2838014208</v>
+      </c>
+      <c r="C85">
         <v>94878576679</v>
       </c>
-      <c r="B85">
+      <c r="D85">
         <v>94939042539</v>
       </c>
-      <c r="C85">
+      <c r="E85">
         <v>85249185464</v>
       </c>
-      <c r="D85" t="str">
+      <c r="F85" t="str">
         <v>6201</v>
       </c>
-      <c r="E85" t="str">
+      <c r="G85" t="str">
         <v>6201-TZ-Pink-33</v>
       </c>
-      <c r="F85" t="str">
+      <c r="H85" t="str">
         <v>粉红色</v>
       </c>
-      <c r="G85" t="str">
+      <c r="I85" t="str">
         <v>33</v>
       </c>
-      <c r="H85" t="str">
-        <v>Pink Color</v>
+      <c r="J85" t="str">
+        <v>Pink</v>
+      </c>
+      <c r="K85" t="str">
+        <v>https://img.kwcdn.com/product/fancy/072e6c6a-d2f3-4fd3-ac59-8420f4c5aa71.jpg</v>
+      </c>
+      <c r="L85" t="str">
+        <v>女童运动凉鞋</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
+        <v>634418219683784</v>
+      </c>
+      <c r="B86">
+        <v>2838014208</v>
+      </c>
+      <c r="C86">
         <v>94878576679</v>
       </c>
-      <c r="B86">
+      <c r="D86">
         <v>63787085880</v>
       </c>
-      <c r="C86">
+      <c r="E86">
         <v>97705061388</v>
       </c>
-      <c r="D86" t="str">
+      <c r="F86" t="str">
         <v>6201</v>
       </c>
-      <c r="E86" t="str">
+      <c r="G86" t="str">
         <v>6201-TZ-Pink-34</v>
       </c>
-      <c r="F86" t="str">
+      <c r="H86" t="str">
         <v>粉红色</v>
       </c>
-      <c r="G86" t="str">
+      <c r="I86" t="str">
         <v>34</v>
       </c>
-      <c r="H86" t="str">
-        <v>Pink Color</v>
+      <c r="J86" t="str">
+        <v>Pink</v>
+      </c>
+      <c r="K86" t="str">
+        <v>https://img.kwcdn.com/product/fancy/072e6c6a-d2f3-4fd3-ac59-8420f4c5aa71.jpg</v>
+      </c>
+      <c r="L86" t="str">
+        <v>女童运动凉鞋</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
+        <v>634418219683784</v>
+      </c>
+      <c r="B87">
+        <v>2838014208</v>
+      </c>
+      <c r="C87">
         <v>94878576679</v>
       </c>
-      <c r="B87">
+      <c r="D87">
         <v>53064769292</v>
       </c>
-      <c r="C87">
+      <c r="E87">
         <v>53404183291</v>
       </c>
-      <c r="D87" t="str">
+      <c r="F87" t="str">
         <v>6201</v>
       </c>
-      <c r="E87" t="str">
+      <c r="G87" t="str">
         <v>6201-TZ-Pink-29</v>
       </c>
-      <c r="F87" t="str">
+      <c r="H87" t="str">
         <v>粉红色</v>
       </c>
-      <c r="G87" t="str">
+      <c r="I87" t="str">
         <v>29</v>
       </c>
-      <c r="H87" t="str">
-        <v>Pink Color</v>
+      <c r="J87" t="str">
+        <v>Pink</v>
+      </c>
+      <c r="K87" t="str">
+        <v>https://img.kwcdn.com/product/fancy/072e6c6a-d2f3-4fd3-ac59-8420f4c5aa71.jpg</v>
+      </c>
+      <c r="L87" t="str">
+        <v>女童运动凉鞋</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
+        <v>634418219683784</v>
+      </c>
+      <c r="B88">
+        <v>760229954</v>
+      </c>
+      <c r="C88">
         <v>9410565210</v>
       </c>
-      <c r="B88">
+      <c r="D88">
         <v>8890462893</v>
       </c>
-      <c r="C88">
+      <c r="E88">
         <v>18783049606</v>
       </c>
-      <c r="D88" t="str">
+      <c r="F88" t="str">
         <v>6201</v>
       </c>
-      <c r="E88" t="str">
+      <c r="G88" t="str">
         <v>6201-TZ-BlackOrange-33</v>
       </c>
-      <c r="F88" t="str">
+      <c r="H88" t="str">
         <v>黑橘</v>
       </c>
-      <c r="G88" t="str">
+      <c r="I88" t="str">
         <v>33</v>
       </c>
-      <c r="H88" t="str">
+      <c r="J88" t="str">
         <v>Black Orange</v>
+      </c>
+      <c r="K88" t="str">
+        <v>https://img.kwcdn.com/product/fancy/50f31e60-908b-4fcc-98f4-1a8b07b87430.jpg</v>
+      </c>
+      <c r="L88" t="str">
+        <v>男童时装凉鞋、凉拖</v>
       </c>
     </row>
     <row r="89">
       <c r="A89">
+        <v>634418219683784</v>
+      </c>
+      <c r="B89">
+        <v>760229954</v>
+      </c>
+      <c r="C89">
         <v>9410565210</v>
       </c>
-      <c r="B89">
+      <c r="D89">
         <v>4811658293</v>
       </c>
-      <c r="C89">
+      <c r="E89">
         <v>80506253423</v>
       </c>
-      <c r="D89" t="str">
+      <c r="F89" t="str">
         <v>6201</v>
       </c>
-      <c r="E89" t="str">
+      <c r="G89" t="str">
         <v>6201-TZ-BlackOrange-36</v>
       </c>
-      <c r="F89" t="str">
+      <c r="H89" t="str">
         <v>黑橘</v>
       </c>
-      <c r="G89" t="str">
+      <c r="I89" t="str">
         <v>36</v>
       </c>
-      <c r="H89" t="str">
+      <c r="J89" t="str">
         <v>Black Orange</v>
+      </c>
+      <c r="K89" t="str">
+        <v>https://img.kwcdn.com/product/fancy/50f31e60-908b-4fcc-98f4-1a8b07b87430.jpg</v>
+      </c>
+      <c r="L89" t="str">
+        <v>男童时装凉鞋、凉拖</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
+        <v>634418219683784</v>
+      </c>
+      <c r="B90">
+        <v>760229954</v>
+      </c>
+      <c r="C90">
         <v>9410565210</v>
       </c>
-      <c r="B90">
+      <c r="D90">
         <v>4133767540</v>
       </c>
-      <c r="C90">
+      <c r="E90">
         <v>48651022999</v>
       </c>
-      <c r="D90" t="str">
+      <c r="F90" t="str">
         <v>6201</v>
       </c>
-      <c r="E90" t="str">
+      <c r="G90" t="str">
         <v>6201-TZ-BlackOrange-30</v>
       </c>
-      <c r="F90" t="str">
+      <c r="H90" t="str">
         <v>黑橘</v>
       </c>
-      <c r="G90" t="str">
+      <c r="I90" t="str">
         <v>30</v>
       </c>
-      <c r="H90" t="str">
+      <c r="J90" t="str">
         <v>Black Orange</v>
+      </c>
+      <c r="K90" t="str">
+        <v>https://img.kwcdn.com/product/fancy/50f31e60-908b-4fcc-98f4-1a8b07b87430.jpg</v>
+      </c>
+      <c r="L90" t="str">
+        <v>男童时装凉鞋、凉拖</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
+        <v>634418219683784</v>
+      </c>
+      <c r="B91">
+        <v>760229954</v>
+      </c>
+      <c r="C91">
         <v>9410565210</v>
       </c>
-      <c r="B91">
+      <c r="D91">
         <v>23413143926</v>
       </c>
-      <c r="C91">
+      <c r="E91">
         <v>71496181774</v>
       </c>
-      <c r="D91" t="str">
+      <c r="F91" t="str">
         <v>6201</v>
       </c>
-      <c r="E91" t="str">
+      <c r="G91" t="str">
         <v/>
       </c>
-      <c r="F91" t="str">
+      <c r="H91" t="str">
         <v>黑橘</v>
       </c>
-      <c r="G91" t="str">
+      <c r="I91" t="str">
         <v>25</v>
       </c>
-      <c r="H91" t="str">
+      <c r="J91" t="str">
         <v>Black Orange</v>
+      </c>
+      <c r="K91" t="str">
+        <v>https://img.kwcdn.com/product/fancy/50f31e60-908b-4fcc-98f4-1a8b07b87430.jpg</v>
+      </c>
+      <c r="L91" t="str">
+        <v>男童时装凉鞋、凉拖</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
+        <v>634418219683784</v>
+      </c>
+      <c r="B92">
+        <v>760229954</v>
+      </c>
+      <c r="C92">
         <v>9410565210</v>
       </c>
-      <c r="B92">
+      <c r="D92">
         <v>6295443254</v>
       </c>
-      <c r="C92">
+      <c r="E92">
         <v>34021811548</v>
       </c>
-      <c r="D92" t="str">
+      <c r="F92" t="str">
         <v>6201</v>
       </c>
-      <c r="E92" t="str">
+      <c r="G92" t="str">
         <v>6201-TZ-BlackOrange-28</v>
       </c>
-      <c r="F92" t="str">
+      <c r="H92" t="str">
         <v>黑橘</v>
       </c>
-      <c r="G92" t="str">
+      <c r="I92" t="str">
         <v>28</v>
       </c>
-      <c r="H92" t="str">
+      <c r="J92" t="str">
         <v>Black Orange</v>
+      </c>
+      <c r="K92" t="str">
+        <v>https://img.kwcdn.com/product/fancy/50f31e60-908b-4fcc-98f4-1a8b07b87430.jpg</v>
+      </c>
+      <c r="L92" t="str">
+        <v>男童时装凉鞋、凉拖</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
+        <v>634418219683784</v>
+      </c>
+      <c r="B93">
+        <v>760229954</v>
+      </c>
+      <c r="C93">
         <v>9410565210</v>
       </c>
-      <c r="B93">
+      <c r="D93">
         <v>8541390183</v>
       </c>
-      <c r="C93">
+      <c r="E93">
         <v>72705379417</v>
       </c>
-      <c r="D93" t="str">
+      <c r="F93" t="str">
         <v>6201</v>
       </c>
-      <c r="E93" t="str">
+      <c r="G93" t="str">
         <v>6201-TZ-BlackOrange-35</v>
       </c>
-      <c r="F93" t="str">
+      <c r="H93" t="str">
         <v>黑橘</v>
       </c>
-      <c r="G93" t="str">
+      <c r="I93" t="str">
         <v>35</v>
       </c>
-      <c r="H93" t="str">
+      <c r="J93" t="str">
         <v>Black Orange</v>
+      </c>
+      <c r="K93" t="str">
+        <v>https://img.kwcdn.com/product/fancy/50f31e60-908b-4fcc-98f4-1a8b07b87430.jpg</v>
+      </c>
+      <c r="L93" t="str">
+        <v>男童时装凉鞋、凉拖</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
+        <v>634418219683784</v>
+      </c>
+      <c r="B94">
+        <v>760229954</v>
+      </c>
+      <c r="C94">
         <v>9410565210</v>
       </c>
-      <c r="B94">
+      <c r="D94">
         <v>1787342252</v>
       </c>
-      <c r="C94">
+      <c r="E94">
         <v>30324189297</v>
       </c>
-      <c r="D94" t="str">
+      <c r="F94" t="str">
         <v>6201</v>
       </c>
-      <c r="E94" t="str">
+      <c r="G94" t="str">
         <v>6201-TZ-BlackOrange-26</v>
       </c>
-      <c r="F94" t="str">
+      <c r="H94" t="str">
         <v>黑橘</v>
       </c>
-      <c r="G94" t="str">
+      <c r="I94" t="str">
         <v>26</v>
       </c>
-      <c r="H94" t="str">
+      <c r="J94" t="str">
         <v>Black Orange</v>
+      </c>
+      <c r="K94" t="str">
+        <v>https://img.kwcdn.com/product/fancy/50f31e60-908b-4fcc-98f4-1a8b07b87430.jpg</v>
+      </c>
+      <c r="L94" t="str">
+        <v>男童时装凉鞋、凉拖</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
+        <v>634418219683784</v>
+      </c>
+      <c r="B95">
+        <v>760229954</v>
+      </c>
+      <c r="C95">
         <v>9410565210</v>
       </c>
-      <c r="B95">
+      <c r="D95">
         <v>3642360250</v>
       </c>
-      <c r="C95">
+      <c r="E95">
         <v>58823277959</v>
       </c>
-      <c r="D95" t="str">
+      <c r="F95" t="str">
         <v>6201</v>
       </c>
-      <c r="E95" t="str">
+      <c r="G95" t="str">
         <v>6201-TZ-BlackOrange-38</v>
       </c>
-      <c r="F95" t="str">
+      <c r="H95" t="str">
         <v>黑橘</v>
       </c>
-      <c r="G95" t="str">
+      <c r="I95" t="str">
         <v>38</v>
       </c>
-      <c r="H95" t="str">
+      <c r="J95" t="str">
         <v>Black Orange</v>
+      </c>
+      <c r="K95" t="str">
+        <v>https://img.kwcdn.com/product/fancy/50f31e60-908b-4fcc-98f4-1a8b07b87430.jpg</v>
+      </c>
+      <c r="L95" t="str">
+        <v>男童时装凉鞋、凉拖</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
+        <v>634418219683784</v>
+      </c>
+      <c r="B96">
+        <v>760229954</v>
+      </c>
+      <c r="C96">
         <v>9410565210</v>
       </c>
-      <c r="B96">
+      <c r="D96">
         <v>8887433148</v>
       </c>
-      <c r="C96">
+      <c r="E96">
         <v>23010074420</v>
       </c>
-      <c r="D96" t="str">
+      <c r="F96" t="str">
         <v>6201</v>
       </c>
-      <c r="E96" t="str">
+      <c r="G96" t="str">
         <v>6201-TZ-BlackOrange-31</v>
       </c>
-      <c r="F96" t="str">
+      <c r="H96" t="str">
         <v>黑橘</v>
       </c>
-      <c r="G96" t="str">
+      <c r="I96" t="str">
         <v>31</v>
       </c>
-      <c r="H96" t="str">
+      <c r="J96" t="str">
         <v>Black Orange</v>
+      </c>
+      <c r="K96" t="str">
+        <v>https://img.kwcdn.com/product/fancy/50f31e60-908b-4fcc-98f4-1a8b07b87430.jpg</v>
+      </c>
+      <c r="L96" t="str">
+        <v>男童时装凉鞋、凉拖</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
+        <v>634418219683784</v>
+      </c>
+      <c r="B97">
+        <v>760229954</v>
+      </c>
+      <c r="C97">
         <v>9410565210</v>
       </c>
-      <c r="B97">
+      <c r="D97">
         <v>8820667652</v>
       </c>
-      <c r="C97">
+      <c r="E97">
         <v>38578877726</v>
       </c>
-      <c r="D97" t="str">
+      <c r="F97" t="str">
         <v>6201</v>
       </c>
-      <c r="E97" t="str">
+      <c r="G97" t="str">
         <v>6201-TZ-BlackOrange-32</v>
       </c>
-      <c r="F97" t="str">
+      <c r="H97" t="str">
         <v>黑橘</v>
       </c>
-      <c r="G97" t="str">
+      <c r="I97" t="str">
         <v>32</v>
       </c>
-      <c r="H97" t="str">
+      <c r="J97" t="str">
         <v>Black Orange</v>
+      </c>
+      <c r="K97" t="str">
+        <v>https://img.kwcdn.com/product/fancy/50f31e60-908b-4fcc-98f4-1a8b07b87430.jpg</v>
+      </c>
+      <c r="L97" t="str">
+        <v>男童时装凉鞋、凉拖</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
+        <v>634418219683784</v>
+      </c>
+      <c r="B98">
+        <v>760229954</v>
+      </c>
+      <c r="C98">
         <v>9410565210</v>
       </c>
-      <c r="B98">
+      <c r="D98">
         <v>3409352011</v>
       </c>
-      <c r="C98">
+      <c r="E98">
         <v>88891933872</v>
       </c>
-      <c r="D98" t="str">
+      <c r="F98" t="str">
         <v>6201</v>
       </c>
-      <c r="E98" t="str">
+      <c r="G98" t="str">
         <v>6201-TZ-BlackOrange-27</v>
       </c>
-      <c r="F98" t="str">
+      <c r="H98" t="str">
         <v>黑橘</v>
       </c>
-      <c r="G98" t="str">
+      <c r="I98" t="str">
         <v>27</v>
       </c>
-      <c r="H98" t="str">
+      <c r="J98" t="str">
         <v>Black Orange</v>
+      </c>
+      <c r="K98" t="str">
+        <v>https://img.kwcdn.com/product/fancy/50f31e60-908b-4fcc-98f4-1a8b07b87430.jpg</v>
+      </c>
+      <c r="L98" t="str">
+        <v>男童时装凉鞋、凉拖</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
+        <v>634418219683784</v>
+      </c>
+      <c r="B99">
+        <v>760229954</v>
+      </c>
+      <c r="C99">
         <v>9410565210</v>
       </c>
-      <c r="B99">
+      <c r="D99">
         <v>7725913041</v>
       </c>
-      <c r="C99">
+      <c r="E99">
         <v>80342049343</v>
       </c>
-      <c r="D99" t="str">
+      <c r="F99" t="str">
         <v>6201</v>
       </c>
-      <c r="E99" t="str">
+      <c r="G99" t="str">
         <v>6201-TZ-BlackOrange-34</v>
       </c>
-      <c r="F99" t="str">
+      <c r="H99" t="str">
         <v>黑橘</v>
       </c>
-      <c r="G99" t="str">
+      <c r="I99" t="str">
         <v>34</v>
       </c>
-      <c r="H99" t="str">
+      <c r="J99" t="str">
         <v>Black Orange</v>
+      </c>
+      <c r="K99" t="str">
+        <v>https://img.kwcdn.com/product/fancy/50f31e60-908b-4fcc-98f4-1a8b07b87430.jpg</v>
+      </c>
+      <c r="L99" t="str">
+        <v>男童时装凉鞋、凉拖</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
+        <v>634418219683784</v>
+      </c>
+      <c r="B100">
+        <v>760229954</v>
+      </c>
+      <c r="C100">
         <v>9410565210</v>
       </c>
-      <c r="B100">
+      <c r="D100">
         <v>9569723714</v>
       </c>
-      <c r="C100">
+      <c r="E100">
         <v>68837466364</v>
       </c>
-      <c r="D100" t="str">
+      <c r="F100" t="str">
         <v>6201</v>
       </c>
-      <c r="E100" t="str">
+      <c r="G100" t="str">
         <v>6201-TZ-BlackOrange-29</v>
       </c>
-      <c r="F100" t="str">
+      <c r="H100" t="str">
         <v>黑橘</v>
       </c>
-      <c r="G100" t="str">
+      <c r="I100" t="str">
         <v>29</v>
       </c>
-      <c r="H100" t="str">
+      <c r="J100" t="str">
         <v>Black Orange</v>
+      </c>
+      <c r="K100" t="str">
+        <v>https://img.kwcdn.com/product/fancy/50f31e60-908b-4fcc-98f4-1a8b07b87430.jpg</v>
+      </c>
+      <c r="L100" t="str">
+        <v>男童时装凉鞋、凉拖</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
+        <v>634418219683784</v>
+      </c>
+      <c r="B101">
+        <v>760229954</v>
+      </c>
+      <c r="C101">
         <v>9410565210</v>
       </c>
-      <c r="B101">
+      <c r="D101">
         <v>10354381079</v>
       </c>
-      <c r="C101">
+      <c r="E101">
         <v>46458330499</v>
       </c>
-      <c r="D101" t="str">
+      <c r="F101" t="str">
         <v>6201</v>
       </c>
-      <c r="E101" t="str">
+      <c r="G101" t="str">
         <v/>
       </c>
-      <c r="F101" t="str">
+      <c r="H101" t="str">
         <v>黑橘</v>
       </c>
-      <c r="G101" t="str">
+      <c r="I101" t="str">
         <v>24</v>
       </c>
-      <c r="H101" t="str">
+      <c r="J101" t="str">
         <v>Black Orange</v>
+      </c>
+      <c r="K101" t="str">
+        <v>https://img.kwcdn.com/product/fancy/50f31e60-908b-4fcc-98f4-1a8b07b87430.jpg</v>
+      </c>
+      <c r="L101" t="str">
+        <v>男童时装凉鞋、凉拖</v>
       </c>
     </row>
     <row r="102">
       <c r="A102">
+        <v>634418219683784</v>
+      </c>
+      <c r="B102">
+        <v>760229954</v>
+      </c>
+      <c r="C102">
         <v>9410565210</v>
       </c>
-      <c r="B102">
+      <c r="D102">
         <v>7333548198</v>
       </c>
-      <c r="C102">
+      <c r="E102">
         <v>62382865149</v>
       </c>
-      <c r="D102" t="str">
+      <c r="F102" t="str">
         <v>6201</v>
       </c>
-      <c r="E102" t="str">
+      <c r="G102" t="str">
         <v>6201-TZ-BlackOrange-37</v>
       </c>
-      <c r="F102" t="str">
+      <c r="H102" t="str">
         <v>黑橘</v>
       </c>
-      <c r="G102" t="str">
+      <c r="I102" t="str">
         <v>37</v>
       </c>
-      <c r="H102" t="str">
+      <c r="J102" t="str">
         <v>Black Orange</v>
+      </c>
+      <c r="K102" t="str">
+        <v>https://img.kwcdn.com/product/fancy/50f31e60-908b-4fcc-98f4-1a8b07b87430.jpg</v>
+      </c>
+      <c r="L102" t="str">
+        <v>男童时装凉鞋、凉拖</v>
       </c>
     </row>
     <row r="103">
       <c r="A103">
+        <v>634418219683784</v>
+      </c>
+      <c r="B103">
+        <v>979656709</v>
+      </c>
+      <c r="C103">
         <v>7427477855</v>
       </c>
-      <c r="B103">
+      <c r="D103">
         <v>3285280704</v>
       </c>
-      <c r="C103">
+      <c r="E103">
         <v>80385982008</v>
       </c>
-      <c r="D103" t="str">
+      <c r="F103" t="str">
         <v>8559</v>
       </c>
-      <c r="E103" t="str">
+      <c r="G103" t="str">
         <v>8559-TZ-White-31</v>
       </c>
-      <c r="F103" t="str">
+      <c r="H103" t="str">
         <v>白色</v>
       </c>
-      <c r="G103" t="str">
+      <c r="I103" t="str">
         <v>31</v>
       </c>
-      <c r="H103" t="str">
+      <c r="J103" t="str">
         <v>White</v>
+      </c>
+      <c r="K103" t="str">
+        <v>https://img.kwcdn.com/product/fancy/1c127c48-340b-4704-8b57-9510bfa08b95.jpg</v>
+      </c>
+      <c r="L103" t="str">
+        <v>男童休闲运动鞋</v>
       </c>
     </row>
     <row r="104">
       <c r="A104">
+        <v>634418219683784</v>
+      </c>
+      <c r="B104">
+        <v>979656709</v>
+      </c>
+      <c r="C104">
         <v>7427477855</v>
       </c>
-      <c r="B104">
+      <c r="D104">
         <v>2735022215</v>
       </c>
-      <c r="C104">
+      <c r="E104">
         <v>65815016852</v>
       </c>
-      <c r="D104" t="str">
+      <c r="F104" t="str">
         <v>8559</v>
       </c>
-      <c r="E104" t="str">
+      <c r="G104" t="str">
         <v>8559-TZ-White-35</v>
       </c>
-      <c r="F104" t="str">
+      <c r="H104" t="str">
         <v>白色</v>
       </c>
-      <c r="G104" t="str">
+      <c r="I104" t="str">
         <v>35</v>
       </c>
-      <c r="H104" t="str">
+      <c r="J104" t="str">
         <v>White</v>
+      </c>
+      <c r="K104" t="str">
+        <v>https://img.kwcdn.com/product/fancy/1c127c48-340b-4704-8b57-9510bfa08b95.jpg</v>
+      </c>
+      <c r="L104" t="str">
+        <v>男童休闲运动鞋</v>
       </c>
     </row>
     <row r="105">
       <c r="A105">
+        <v>634418219683784</v>
+      </c>
+      <c r="B105">
+        <v>979656709</v>
+      </c>
+      <c r="C105">
         <v>7427477855</v>
       </c>
-      <c r="B105">
+      <c r="D105">
         <v>7072286223</v>
       </c>
-      <c r="C105">
+      <c r="E105">
         <v>93505542590</v>
       </c>
-      <c r="D105" t="str">
+      <c r="F105" t="str">
         <v>8559</v>
       </c>
-      <c r="E105" t="str">
+      <c r="G105" t="str">
         <v>8559-TZ-Black-28</v>
       </c>
-      <c r="F105" t="str">
+      <c r="H105" t="str">
         <v>黑色</v>
       </c>
-      <c r="G105" t="str">
+      <c r="I105" t="str">
         <v>28</v>
       </c>
-      <c r="H105" t="str">
+      <c r="J105" t="str">
         <v>Black</v>
+      </c>
+      <c r="K105" t="str">
+        <v>https://img.kwcdn.com/product/fancy/1ba0ee1f-2599-4ff3-9caa-c45f9c16dbe2.jpg</v>
+      </c>
+      <c r="L105" t="str">
+        <v>男童休闲运动鞋</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
+        <v>634418219683784</v>
+      </c>
+      <c r="B106">
+        <v>979656709</v>
+      </c>
+      <c r="C106">
         <v>7427477855</v>
       </c>
-      <c r="B106">
+      <c r="D106">
         <v>2627720790</v>
       </c>
-      <c r="C106">
+      <c r="E106">
         <v>58341643275</v>
       </c>
-      <c r="D106" t="str">
+      <c r="F106" t="str">
         <v>8559</v>
       </c>
-      <c r="E106" t="str">
+      <c r="G106" t="str">
         <v>8559-TZ-Black-33</v>
       </c>
-      <c r="F106" t="str">
+      <c r="H106" t="str">
         <v>黑色</v>
       </c>
-      <c r="G106" t="str">
+      <c r="I106" t="str">
         <v>33</v>
       </c>
-      <c r="H106" t="str">
+      <c r="J106" t="str">
         <v>Black</v>
+      </c>
+      <c r="K106" t="str">
+        <v>https://img.kwcdn.com/product/fancy/1ba0ee1f-2599-4ff3-9caa-c45f9c16dbe2.jpg</v>
+      </c>
+      <c r="L106" t="str">
+        <v>男童休闲运动鞋</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
+        <v>634418219683784</v>
+      </c>
+      <c r="B107">
+        <v>979656709</v>
+      </c>
+      <c r="C107">
         <v>7427477855</v>
       </c>
-      <c r="B107">
+      <c r="D107">
         <v>3811461056</v>
       </c>
-      <c r="C107">
+      <c r="E107">
         <v>66273883324</v>
       </c>
-      <c r="D107" t="str">
+      <c r="F107" t="str">
         <v>8559</v>
       </c>
-      <c r="E107" t="str">
+      <c r="G107" t="str">
         <v>8559-TZ-Black-29</v>
       </c>
-      <c r="F107" t="str">
+      <c r="H107" t="str">
         <v>黑色</v>
       </c>
-      <c r="G107" t="str">
+      <c r="I107" t="str">
         <v>29</v>
       </c>
-      <c r="H107" t="str">
+      <c r="J107" t="str">
         <v>Black</v>
+      </c>
+      <c r="K107" t="str">
+        <v>https://img.kwcdn.com/product/fancy/1ba0ee1f-2599-4ff3-9caa-c45f9c16dbe2.jpg</v>
+      </c>
+      <c r="L107" t="str">
+        <v>男童休闲运动鞋</v>
       </c>
     </row>
     <row r="108">
       <c r="A108">
+        <v>634418219683784</v>
+      </c>
+      <c r="B108">
+        <v>979656709</v>
+      </c>
+      <c r="C108">
         <v>7427477855</v>
       </c>
-      <c r="B108">
+      <c r="D108">
         <v>7718912297</v>
       </c>
-      <c r="C108">
+      <c r="E108">
         <v>56240615847</v>
       </c>
-      <c r="D108" t="str">
+      <c r="F108" t="str">
         <v>8559</v>
       </c>
-      <c r="E108" t="str">
+      <c r="G108" t="str">
         <v>8559-TZ-Black-30</v>
       </c>
-      <c r="F108" t="str">
+      <c r="H108" t="str">
         <v>黑色</v>
       </c>
-      <c r="G108" t="str">
+      <c r="I108" t="str">
         <v>30</v>
       </c>
-      <c r="H108" t="str">
+      <c r="J108" t="str">
         <v>Black</v>
+      </c>
+      <c r="K108" t="str">
+        <v>https://img.kwcdn.com/product/fancy/1ba0ee1f-2599-4ff3-9caa-c45f9c16dbe2.jpg</v>
+      </c>
+      <c r="L108" t="str">
+        <v>男童休闲运动鞋</v>
       </c>
     </row>
     <row r="109">
       <c r="A109">
+        <v>634418219683784</v>
+      </c>
+      <c r="B109">
+        <v>979656709</v>
+      </c>
+      <c r="C109">
         <v>7427477855</v>
       </c>
-      <c r="B109">
+      <c r="D109">
         <v>7343101268</v>
       </c>
-      <c r="C109">
+      <c r="E109">
         <v>78806386074</v>
       </c>
-      <c r="D109" t="str">
+      <c r="F109" t="str">
         <v>8559</v>
       </c>
-      <c r="E109" t="str">
+      <c r="G109" t="str">
         <v>8559-TZ-Black-38</v>
       </c>
-      <c r="F109" t="str">
+      <c r="H109" t="str">
         <v>黑色</v>
       </c>
-      <c r="G109" t="str">
+      <c r="I109" t="str">
         <v>38</v>
       </c>
-      <c r="H109" t="str">
+      <c r="J109" t="str">
         <v>Black</v>
+      </c>
+      <c r="K109" t="str">
+        <v>https://img.kwcdn.com/product/fancy/1ba0ee1f-2599-4ff3-9caa-c45f9c16dbe2.jpg</v>
+      </c>
+      <c r="L109" t="str">
+        <v>男童休闲运动鞋</v>
       </c>
     </row>
     <row r="110">
       <c r="A110">
+        <v>634418219683784</v>
+      </c>
+      <c r="B110">
+        <v>979656709</v>
+      </c>
+      <c r="C110">
         <v>7427477855</v>
       </c>
-      <c r="B110">
+      <c r="D110">
         <v>9835874522</v>
       </c>
-      <c r="C110">
+      <c r="E110">
         <v>22339735679</v>
       </c>
-      <c r="D110" t="str">
+      <c r="F110" t="str">
         <v>8559</v>
       </c>
-      <c r="E110" t="str">
+      <c r="G110" t="str">
         <v>8559-TZ-White-28</v>
       </c>
-      <c r="F110" t="str">
+      <c r="H110" t="str">
         <v>白色</v>
       </c>
-      <c r="G110" t="str">
+      <c r="I110" t="str">
         <v>28</v>
       </c>
-      <c r="H110" t="str">
+      <c r="J110" t="str">
         <v>White</v>
+      </c>
+      <c r="K110" t="str">
+        <v>https://img.kwcdn.com/product/fancy/1c127c48-340b-4704-8b57-9510bfa08b95.jpg</v>
+      </c>
+      <c r="L110" t="str">
+        <v>男童休闲运动鞋</v>
       </c>
     </row>
     <row r="111">
       <c r="A111">
+        <v>634418219683784</v>
+      </c>
+      <c r="B111">
+        <v>979656709</v>
+      </c>
+      <c r="C111">
         <v>7427477855</v>
       </c>
-      <c r="B111">
+      <c r="D111">
         <v>5939610580</v>
       </c>
-      <c r="C111">
+      <c r="E111">
         <v>43078373379</v>
       </c>
-      <c r="D111" t="str">
+      <c r="F111" t="str">
         <v>8559</v>
       </c>
-      <c r="E111" t="str">
+      <c r="G111" t="str">
         <v>8559-TZ-Black-32</v>
       </c>
-      <c r="F111" t="str">
+      <c r="H111" t="str">
         <v>黑色</v>
       </c>
-      <c r="G111" t="str">
+      <c r="I111" t="str">
         <v>32</v>
       </c>
-      <c r="H111" t="str">
+      <c r="J111" t="str">
         <v>Black</v>
+      </c>
+      <c r="K111" t="str">
+        <v>https://img.kwcdn.com/product/fancy/1ba0ee1f-2599-4ff3-9caa-c45f9c16dbe2.jpg</v>
+      </c>
+      <c r="L111" t="str">
+        <v>男童休闲运动鞋</v>
       </c>
     </row>
     <row r="112">
       <c r="A112">
+        <v>634418219683784</v>
+      </c>
+      <c r="B112">
+        <v>979656709</v>
+      </c>
+      <c r="C112">
         <v>7427477855</v>
       </c>
-      <c r="B112">
+      <c r="D112">
         <v>4989524550</v>
       </c>
-      <c r="C112">
+      <c r="E112">
         <v>46151198480</v>
       </c>
-      <c r="D112" t="str">
+      <c r="F112" t="str">
         <v>8559</v>
       </c>
-      <c r="E112" t="str">
+      <c r="G112" t="str">
         <v>8559-TZ-Black-34</v>
       </c>
-      <c r="F112" t="str">
+      <c r="H112" t="str">
         <v>黑色</v>
       </c>
-      <c r="G112" t="str">
+      <c r="I112" t="str">
         <v>34</v>
       </c>
-      <c r="H112" t="str">
+      <c r="J112" t="str">
         <v>Black</v>
+      </c>
+      <c r="K112" t="str">
+        <v>https://img.kwcdn.com/product/fancy/1ba0ee1f-2599-4ff3-9caa-c45f9c16dbe2.jpg</v>
+      </c>
+      <c r="L112" t="str">
+        <v>男童休闲运动鞋</v>
       </c>
     </row>
     <row r="113">
       <c r="A113">
+        <v>634418219683784</v>
+      </c>
+      <c r="B113">
+        <v>979656709</v>
+      </c>
+      <c r="C113">
         <v>7427477855</v>
       </c>
-      <c r="B113">
+      <c r="D113">
         <v>2393344986</v>
       </c>
-      <c r="C113">
+      <c r="E113">
         <v>90601611600</v>
       </c>
-      <c r="D113" t="str">
+      <c r="F113" t="str">
         <v>8559</v>
       </c>
-      <c r="E113" t="str">
+      <c r="G113" t="str">
         <v>8559-TZ-White-30</v>
       </c>
-      <c r="F113" t="str">
+      <c r="H113" t="str">
         <v>白色</v>
       </c>
-      <c r="G113" t="str">
+      <c r="I113" t="str">
         <v>30</v>
       </c>
-      <c r="H113" t="str">
+      <c r="J113" t="str">
         <v>White</v>
+      </c>
+      <c r="K113" t="str">
+        <v>https://img.kwcdn.com/product/fancy/1c127c48-340b-4704-8b57-9510bfa08b95.jpg</v>
+      </c>
+      <c r="L113" t="str">
+        <v>男童休闲运动鞋</v>
       </c>
     </row>
     <row r="114">
       <c r="A114">
+        <v>634418219683784</v>
+      </c>
+      <c r="B114">
+        <v>979656709</v>
+      </c>
+      <c r="C114">
         <v>7427477855</v>
       </c>
-      <c r="B114">
+      <c r="D114">
         <v>4682971696</v>
       </c>
-      <c r="C114">
+      <c r="E114">
         <v>98419194373</v>
       </c>
-      <c r="D114" t="str">
+      <c r="F114" t="str">
         <v>8559</v>
       </c>
-      <c r="E114" t="str">
+      <c r="G114" t="str">
         <v>8559-TZ-Black-35</v>
       </c>
-      <c r="F114" t="str">
+      <c r="H114" t="str">
         <v>黑色</v>
       </c>
-      <c r="G114" t="str">
+      <c r="I114" t="str">
         <v>35</v>
       </c>
-      <c r="H114" t="str">
+      <c r="J114" t="str">
         <v>Black</v>
+      </c>
+      <c r="K114" t="str">
+        <v>https://img.kwcdn.com/product/fancy/1ba0ee1f-2599-4ff3-9caa-c45f9c16dbe2.jpg</v>
+      </c>
+      <c r="L114" t="str">
+        <v>男童休闲运动鞋</v>
       </c>
     </row>
     <row r="115">
       <c r="A115">
+        <v>634418219683784</v>
+      </c>
+      <c r="B115">
+        <v>979656709</v>
+      </c>
+      <c r="C115">
         <v>7427477855</v>
       </c>
-      <c r="B115">
+      <c r="D115">
         <v>2098040704</v>
       </c>
-      <c r="C115">
+      <c r="E115">
         <v>53901006250</v>
       </c>
-      <c r="D115" t="str">
+      <c r="F115" t="str">
         <v>8559</v>
       </c>
-      <c r="E115" t="str">
+      <c r="G115" t="str">
         <v>8559-TZ-Black-36</v>
       </c>
-      <c r="F115" t="str">
+      <c r="H115" t="str">
         <v>黑色</v>
       </c>
-      <c r="G115" t="str">
+      <c r="I115" t="str">
         <v>36</v>
       </c>
-      <c r="H115" t="str">
+      <c r="J115" t="str">
         <v>Black</v>
+      </c>
+      <c r="K115" t="str">
+        <v>https://img.kwcdn.com/product/fancy/1ba0ee1f-2599-4ff3-9caa-c45f9c16dbe2.jpg</v>
+      </c>
+      <c r="L115" t="str">
+        <v>男童休闲运动鞋</v>
       </c>
     </row>
     <row r="116">
       <c r="A116">
+        <v>634418219683784</v>
+      </c>
+      <c r="B116">
+        <v>979656709</v>
+      </c>
+      <c r="C116">
         <v>7427477855</v>
       </c>
-      <c r="B116">
+      <c r="D116">
         <v>5734877727</v>
       </c>
-      <c r="C116">
+      <c r="E116">
         <v>59237556354</v>
       </c>
-      <c r="D116" t="str">
+      <c r="F116" t="str">
         <v>8559</v>
       </c>
-      <c r="E116" t="str">
+      <c r="G116" t="str">
         <v>8559-TZ-White-34</v>
       </c>
-      <c r="F116" t="str">
+      <c r="H116" t="str">
         <v>白色</v>
       </c>
-      <c r="G116" t="str">
+      <c r="I116" t="str">
         <v>34</v>
       </c>
-      <c r="H116" t="str">
+      <c r="J116" t="str">
         <v>White</v>
+      </c>
+      <c r="K116" t="str">
+        <v>https://img.kwcdn.com/product/fancy/1c127c48-340b-4704-8b57-9510bfa08b95.jpg</v>
+      </c>
+      <c r="L116" t="str">
+        <v>男童休闲运动鞋</v>
       </c>
     </row>
     <row r="117">
       <c r="A117">
+        <v>634418219683784</v>
+      </c>
+      <c r="B117">
+        <v>979656709</v>
+      </c>
+      <c r="C117">
         <v>7427477855</v>
       </c>
-      <c r="B117">
+      <c r="D117">
         <v>6755776883</v>
       </c>
-      <c r="C117">
+      <c r="E117">
         <v>87292895851</v>
       </c>
-      <c r="D117" t="str">
+      <c r="F117" t="str">
         <v>8559</v>
       </c>
-      <c r="E117" t="str">
+      <c r="G117" t="str">
         <v>8559-TZ-White-36</v>
       </c>
-      <c r="F117" t="str">
+      <c r="H117" t="str">
         <v>白色</v>
       </c>
-      <c r="G117" t="str">
+      <c r="I117" t="str">
         <v>36</v>
       </c>
-      <c r="H117" t="str">
+      <c r="J117" t="str">
         <v>White</v>
+      </c>
+      <c r="K117" t="str">
+        <v>https://img.kwcdn.com/product/fancy/1c127c48-340b-4704-8b57-9510bfa08b95.jpg</v>
+      </c>
+      <c r="L117" t="str">
+        <v>男童休闲运动鞋</v>
       </c>
     </row>
     <row r="118">
       <c r="A118">
+        <v>634418219683784</v>
+      </c>
+      <c r="B118">
+        <v>979656709</v>
+      </c>
+      <c r="C118">
         <v>7427477855</v>
       </c>
-      <c r="B118">
+      <c r="D118">
         <v>3198363842</v>
       </c>
-      <c r="C118">
+      <c r="E118">
         <v>38621305124</v>
       </c>
-      <c r="D118" t="str">
+      <c r="F118" t="str">
         <v>8559</v>
       </c>
-      <c r="E118" t="str">
+      <c r="G118" t="str">
         <v>8559-TZ-White-29</v>
       </c>
-      <c r="F118" t="str">
+      <c r="H118" t="str">
         <v>白色</v>
       </c>
-      <c r="G118" t="str">
+      <c r="I118" t="str">
         <v>29</v>
       </c>
-      <c r="H118" t="str">
+      <c r="J118" t="str">
         <v>White</v>
+      </c>
+      <c r="K118" t="str">
+        <v>https://img.kwcdn.com/product/fancy/1c127c48-340b-4704-8b57-9510bfa08b95.jpg</v>
+      </c>
+      <c r="L118" t="str">
+        <v>男童休闲运动鞋</v>
       </c>
     </row>
     <row r="119">
       <c r="A119">
+        <v>634418219683784</v>
+      </c>
+      <c r="B119">
+        <v>979656709</v>
+      </c>
+      <c r="C119">
         <v>7427477855</v>
       </c>
-      <c r="B119">
+      <c r="D119">
         <v>5301786308</v>
       </c>
-      <c r="C119">
+      <c r="E119">
         <v>97696457475</v>
       </c>
-      <c r="D119" t="str">
+      <c r="F119" t="str">
         <v>8559</v>
       </c>
-      <c r="E119" t="str">
+      <c r="G119" t="str">
         <v>8559-TZ-Black-31</v>
       </c>
-      <c r="F119" t="str">
+      <c r="H119" t="str">
         <v>黑色</v>
       </c>
-      <c r="G119" t="str">
+      <c r="I119" t="str">
         <v>31</v>
       </c>
-      <c r="H119" t="str">
+      <c r="J119" t="str">
         <v>Black</v>
+      </c>
+      <c r="K119" t="str">
+        <v>https://img.kwcdn.com/product/fancy/1ba0ee1f-2599-4ff3-9caa-c45f9c16dbe2.jpg</v>
+      </c>
+      <c r="L119" t="str">
+        <v>男童休闲运动鞋</v>
       </c>
     </row>
     <row r="120">
       <c r="A120">
+        <v>634418219683784</v>
+      </c>
+      <c r="B120">
+        <v>979656709</v>
+      </c>
+      <c r="C120">
         <v>7427477855</v>
       </c>
-      <c r="B120">
+      <c r="D120">
         <v>6538708357</v>
       </c>
-      <c r="C120">
+      <c r="E120">
         <v>74316305923</v>
       </c>
-      <c r="D120" t="str">
+      <c r="F120" t="str">
         <v>8559</v>
       </c>
-      <c r="E120" t="str">
+      <c r="G120" t="str">
         <v>8559-TZ-White-37</v>
       </c>
-      <c r="F120" t="str">
+      <c r="H120" t="str">
         <v>白色</v>
       </c>
-      <c r="G120" t="str">
+      <c r="I120" t="str">
         <v>37</v>
       </c>
-      <c r="H120" t="str">
+      <c r="J120" t="str">
         <v>White</v>
+      </c>
+      <c r="K120" t="str">
+        <v>https://img.kwcdn.com/product/fancy/1c127c48-340b-4704-8b57-9510bfa08b95.jpg</v>
+      </c>
+      <c r="L120" t="str">
+        <v>男童休闲运动鞋</v>
       </c>
     </row>
     <row r="121">
       <c r="A121">
+        <v>634418219683784</v>
+      </c>
+      <c r="B121">
+        <v>979656709</v>
+      </c>
+      <c r="C121">
         <v>7427477855</v>
       </c>
-      <c r="B121">
+      <c r="D121">
         <v>6123794754</v>
       </c>
-      <c r="C121">
+      <c r="E121">
         <v>25593339897</v>
       </c>
-      <c r="D121" t="str">
+      <c r="F121" t="str">
         <v>8559</v>
       </c>
-      <c r="E121" t="str">
+      <c r="G121" t="str">
         <v>8559-TZ-White-33</v>
       </c>
-      <c r="F121" t="str">
+      <c r="H121" t="str">
         <v>白色</v>
       </c>
-      <c r="G121" t="str">
+      <c r="I121" t="str">
         <v>33</v>
       </c>
-      <c r="H121" t="str">
+      <c r="J121" t="str">
         <v>White</v>
+      </c>
+      <c r="K121" t="str">
+        <v>https://img.kwcdn.com/product/fancy/1c127c48-340b-4704-8b57-9510bfa08b95.jpg</v>
+      </c>
+      <c r="L121" t="str">
+        <v>男童休闲运动鞋</v>
       </c>
     </row>
     <row r="122">
       <c r="A122">
+        <v>634418219683784</v>
+      </c>
+      <c r="B122">
+        <v>979656709</v>
+      </c>
+      <c r="C122">
         <v>7427477855</v>
       </c>
-      <c r="B122">
+      <c r="D122">
         <v>8456845512</v>
       </c>
-      <c r="C122">
+      <c r="E122">
         <v>21513339277</v>
       </c>
-      <c r="D122" t="str">
+      <c r="F122" t="str">
         <v>8559</v>
       </c>
-      <c r="E122" t="str">
+      <c r="G122" t="str">
         <v>8559-TZ-Black-37</v>
       </c>
-      <c r="F122" t="str">
+      <c r="H122" t="str">
         <v>黑色</v>
       </c>
-      <c r="G122" t="str">
+      <c r="I122" t="str">
         <v>37</v>
       </c>
-      <c r="H122" t="str">
+      <c r="J122" t="str">
         <v>Black</v>
+      </c>
+      <c r="K122" t="str">
+        <v>https://img.kwcdn.com/product/fancy/1ba0ee1f-2599-4ff3-9caa-c45f9c16dbe2.jpg</v>
+      </c>
+      <c r="L122" t="str">
+        <v>男童休闲运动鞋</v>
       </c>
     </row>
     <row r="123">
       <c r="A123">
+        <v>634418219683784</v>
+      </c>
+      <c r="B123">
+        <v>979656709</v>
+      </c>
+      <c r="C123">
         <v>7427477855</v>
       </c>
-      <c r="B123">
+      <c r="D123">
         <v>2779068584</v>
       </c>
-      <c r="C123">
+      <c r="E123">
         <v>56200400938</v>
       </c>
-      <c r="D123" t="str">
+      <c r="F123" t="str">
         <v>8559</v>
       </c>
-      <c r="E123" t="str">
+      <c r="G123" t="str">
         <v>8559-TZ-White-32</v>
       </c>
-      <c r="F123" t="str">
+      <c r="H123" t="str">
         <v>白色</v>
       </c>
-      <c r="G123" t="str">
+      <c r="I123" t="str">
         <v>32</v>
       </c>
-      <c r="H123" t="str">
+      <c r="J123" t="str">
         <v>White</v>
+      </c>
+      <c r="K123" t="str">
+        <v>https://img.kwcdn.com/product/fancy/1c127c48-340b-4704-8b57-9510bfa08b95.jpg</v>
+      </c>
+      <c r="L123" t="str">
+        <v>男童休闲运动鞋</v>
       </c>
     </row>
     <row r="124">
       <c r="A124">
+        <v>634418219683784</v>
+      </c>
+      <c r="B124">
+        <v>979656709</v>
+      </c>
+      <c r="C124">
         <v>7427477855</v>
       </c>
-      <c r="B124">
+      <c r="D124">
         <v>4226506206</v>
       </c>
-      <c r="C124">
+      <c r="E124">
         <v>77531752246</v>
       </c>
-      <c r="D124" t="str">
+      <c r="F124" t="str">
         <v>8559</v>
       </c>
-      <c r="E124" t="str">
+      <c r="G124" t="str">
         <v>8559-TZ-White-38</v>
       </c>
-      <c r="F124" t="str">
+      <c r="H124" t="str">
         <v>白色</v>
       </c>
-      <c r="G124" t="str">
+      <c r="I124" t="str">
         <v>38</v>
       </c>
-      <c r="H124" t="str">
+      <c r="J124" t="str">
         <v>White</v>
+      </c>
+      <c r="K124" t="str">
+        <v>https://img.kwcdn.com/product/fancy/1c127c48-340b-4704-8b57-9510bfa08b95.jpg</v>
+      </c>
+      <c r="L124" t="str">
+        <v>男童休闲运动鞋</v>
       </c>
     </row>
     <row r="125">
       <c r="A125">
+        <v>634418219683784</v>
+      </c>
+      <c r="B125">
+        <v>119860127</v>
+      </c>
+      <c r="C125">
         <v>4885374917</v>
       </c>
-      <c r="B125">
+      <c r="D125">
         <v>9033062774</v>
       </c>
-      <c r="C125">
+      <c r="E125">
         <v>21976394684</v>
       </c>
-      <c r="D125" t="str">
+      <c r="F125" t="str">
         <v>6209</v>
       </c>
-      <c r="E125" t="str">
+      <c r="G125" t="str">
         <v>6209-TZ-DarkBlue-28</v>
       </c>
-      <c r="F125" t="str">
+      <c r="H125" t="str">
         <v>深蓝</v>
       </c>
-      <c r="G125" t="str">
+      <c r="I125" t="str">
         <v>28</v>
       </c>
-      <c r="H125" t="str">
+      <c r="J125" t="str">
         <v>Dark Blue</v>
+      </c>
+      <c r="K125" t="str">
+        <v>https://img.kwcdn.com/product/fancy/431e63f9-440f-43fa-9bbe-5097edacecba.jpg</v>
+      </c>
+      <c r="L125" t="str">
+        <v>男童时装凉鞋、凉拖</v>
       </c>
     </row>
     <row r="126">
       <c r="A126">
+        <v>634418219683784</v>
+      </c>
+      <c r="B126">
+        <v>119860127</v>
+      </c>
+      <c r="C126">
         <v>4885374917</v>
       </c>
-      <c r="B126">
+      <c r="D126">
         <v>8586318542</v>
       </c>
-      <c r="C126">
+      <c r="E126">
         <v>89323959506</v>
       </c>
-      <c r="D126" t="str">
+      <c r="F126" t="str">
         <v>6209</v>
       </c>
-      <c r="E126" t="str">
+      <c r="G126" t="str">
         <v>6209-TZ-DarkBlue-29</v>
       </c>
-      <c r="F126" t="str">
+      <c r="H126" t="str">
         <v>深蓝</v>
       </c>
-      <c r="G126" t="str">
+      <c r="I126" t="str">
         <v>29</v>
       </c>
-      <c r="H126" t="str">
+      <c r="J126" t="str">
         <v>Dark Blue</v>
+      </c>
+      <c r="K126" t="str">
+        <v>https://img.kwcdn.com/product/fancy/431e63f9-440f-43fa-9bbe-5097edacecba.jpg</v>
+      </c>
+      <c r="L126" t="str">
+        <v>男童时装凉鞋、凉拖</v>
       </c>
     </row>
     <row r="127">
       <c r="A127">
+        <v>634418219683784</v>
+      </c>
+      <c r="B127">
+        <v>119860127</v>
+      </c>
+      <c r="C127">
         <v>4885374917</v>
       </c>
-      <c r="B127">
+      <c r="D127">
         <v>7252934934</v>
       </c>
-      <c r="C127">
+      <c r="E127">
         <v>46069083028</v>
       </c>
-      <c r="D127" t="str">
+      <c r="F127" t="str">
         <v>6209</v>
       </c>
-      <c r="E127" t="str">
+      <c r="G127" t="str">
         <v>6209-TZ-Grey-32</v>
       </c>
-      <c r="F127" t="str">
+      <c r="H127" t="str">
         <v>灰色</v>
       </c>
-      <c r="G127" t="str">
+      <c r="I127" t="str">
         <v>32</v>
       </c>
-      <c r="H127" t="str">
+      <c r="J127" t="str">
         <v>Grey</v>
+      </c>
+      <c r="K127" t="str">
+        <v>https://img.kwcdn.com/product/fancy/1efb96cc-fe53-4a05-8eca-a21f7ccae159.jpg</v>
+      </c>
+      <c r="L127" t="str">
+        <v>男童时装凉鞋、凉拖</v>
       </c>
     </row>
     <row r="128">
       <c r="A128">
+        <v>634418219683784</v>
+      </c>
+      <c r="B128">
+        <v>119860127</v>
+      </c>
+      <c r="C128">
         <v>4885374917</v>
       </c>
-      <c r="B128">
+      <c r="D128">
         <v>6893841219</v>
       </c>
-      <c r="C128">
+      <c r="E128">
         <v>37973362117</v>
       </c>
-      <c r="D128" t="str">
+      <c r="F128" t="str">
         <v>6209</v>
       </c>
-      <c r="E128" t="str">
+      <c r="G128" t="str">
         <v>6209-TZ-DarkBlue-32</v>
       </c>
-      <c r="F128" t="str">
+      <c r="H128" t="str">
         <v>深蓝</v>
       </c>
-      <c r="G128" t="str">
+      <c r="I128" t="str">
         <v>32</v>
       </c>
-      <c r="H128" t="str">
+      <c r="J128" t="str">
         <v>Dark Blue</v>
+      </c>
+      <c r="K128" t="str">
+        <v>https://img.kwcdn.com/product/fancy/431e63f9-440f-43fa-9bbe-5097edacecba.jpg</v>
+      </c>
+      <c r="L128" t="str">
+        <v>男童时装凉鞋、凉拖</v>
       </c>
     </row>
     <row r="129">
       <c r="A129">
+        <v>634418219683784</v>
+      </c>
+      <c r="B129">
+        <v>119860127</v>
+      </c>
+      <c r="C129">
         <v>4885374917</v>
       </c>
-      <c r="B129">
+      <c r="D129">
         <v>9084896121</v>
       </c>
-      <c r="C129">
+      <c r="E129">
         <v>68760181160</v>
       </c>
-      <c r="D129" t="str">
+      <c r="F129" t="str">
         <v>6209</v>
       </c>
-      <c r="E129" t="str">
+      <c r="G129" t="str">
         <v>6209-TZ-Grey-31</v>
       </c>
-      <c r="F129" t="str">
+      <c r="H129" t="str">
         <v>灰色</v>
       </c>
-      <c r="G129" t="str">
+      <c r="I129" t="str">
         <v>31</v>
       </c>
-      <c r="H129" t="str">
+      <c r="J129" t="str">
         <v>Grey</v>
+      </c>
+      <c r="K129" t="str">
+        <v>https://img.kwcdn.com/product/fancy/1efb96cc-fe53-4a05-8eca-a21f7ccae159.jpg</v>
+      </c>
+      <c r="L129" t="str">
+        <v>男童时装凉鞋、凉拖</v>
       </c>
     </row>
     <row r="130">
       <c r="A130">
+        <v>634418219683784</v>
+      </c>
+      <c r="B130">
+        <v>119860127</v>
+      </c>
+      <c r="C130">
         <v>4885374917</v>
       </c>
-      <c r="B130">
+      <c r="D130">
         <v>2157430743</v>
       </c>
-      <c r="C130">
+      <c r="E130">
         <v>14158771768</v>
       </c>
-      <c r="D130" t="str">
+      <c r="F130" t="str">
         <v>6209</v>
       </c>
-      <c r="E130" t="str">
+      <c r="G130" t="str">
         <v>6209-TZ-Grey-34</v>
       </c>
-      <c r="F130" t="str">
+      <c r="H130" t="str">
         <v>灰色</v>
       </c>
-      <c r="G130" t="str">
+      <c r="I130" t="str">
         <v>34</v>
       </c>
-      <c r="H130" t="str">
+      <c r="J130" t="str">
         <v>Grey</v>
+      </c>
+      <c r="K130" t="str">
+        <v>https://img.kwcdn.com/product/fancy/1efb96cc-fe53-4a05-8eca-a21f7ccae159.jpg</v>
+      </c>
+      <c r="L130" t="str">
+        <v>男童时装凉鞋、凉拖</v>
       </c>
     </row>
     <row r="131">
       <c r="A131">
+        <v>634418219683784</v>
+      </c>
+      <c r="B131">
+        <v>119860127</v>
+      </c>
+      <c r="C131">
         <v>4885374917</v>
       </c>
-      <c r="B131">
+      <c r="D131">
         <v>6753937997</v>
       </c>
-      <c r="C131">
+      <c r="E131">
         <v>79649608833</v>
       </c>
-      <c r="D131" t="str">
+      <c r="F131" t="str">
         <v>6209</v>
       </c>
-      <c r="E131" t="str">
+      <c r="G131" t="str">
         <v>6209-TZ-Grey-30</v>
       </c>
-      <c r="F131" t="str">
+      <c r="H131" t="str">
         <v>灰色</v>
       </c>
-      <c r="G131" t="str">
+      <c r="I131" t="str">
         <v>30</v>
       </c>
-      <c r="H131" t="str">
+      <c r="J131" t="str">
         <v>Grey</v>
+      </c>
+      <c r="K131" t="str">
+        <v>https://img.kwcdn.com/product/fancy/1efb96cc-fe53-4a05-8eca-a21f7ccae159.jpg</v>
+      </c>
+      <c r="L131" t="str">
+        <v>男童时装凉鞋、凉拖</v>
       </c>
     </row>
     <row r="132">
       <c r="A132">
+        <v>634418219683784</v>
+      </c>
+      <c r="B132">
+        <v>119860127</v>
+      </c>
+      <c r="C132">
         <v>4885374917</v>
       </c>
-      <c r="B132">
+      <c r="D132">
         <v>5823355996</v>
       </c>
-      <c r="C132">
+      <c r="E132">
         <v>66320031292</v>
       </c>
-      <c r="D132" t="str">
+      <c r="F132" t="str">
         <v>6209</v>
       </c>
-      <c r="E132" t="str">
+      <c r="G132" t="str">
         <v>6209-TZ-DarkBlue-31</v>
       </c>
-      <c r="F132" t="str">
+      <c r="H132" t="str">
         <v>深蓝</v>
       </c>
-      <c r="G132" t="str">
+      <c r="I132" t="str">
         <v>31</v>
       </c>
-      <c r="H132" t="str">
+      <c r="J132" t="str">
         <v>Dark Blue</v>
+      </c>
+      <c r="K132" t="str">
+        <v>https://img.kwcdn.com/product/fancy/431e63f9-440f-43fa-9bbe-5097edacecba.jpg</v>
+      </c>
+      <c r="L132" t="str">
+        <v>男童时装凉鞋、凉拖</v>
       </c>
     </row>
     <row r="133">
       <c r="A133">
+        <v>634418219683784</v>
+      </c>
+      <c r="B133">
+        <v>119860127</v>
+      </c>
+      <c r="C133">
         <v>4885374917</v>
       </c>
-      <c r="B133">
+      <c r="D133">
         <v>4345861394</v>
       </c>
-      <c r="C133">
+      <c r="E133">
         <v>50594149369</v>
       </c>
-      <c r="D133" t="str">
+      <c r="F133" t="str">
         <v>6209</v>
       </c>
-      <c r="E133" t="str">
+      <c r="G133" t="str">
         <v>6209-TZ-DarkBlue-38</v>
       </c>
-      <c r="F133" t="str">
+      <c r="H133" t="str">
         <v>深蓝</v>
       </c>
-      <c r="G133" t="str">
+      <c r="I133" t="str">
         <v>38</v>
       </c>
-      <c r="H133" t="str">
+      <c r="J133" t="str">
         <v>Dark Blue</v>
+      </c>
+      <c r="K133" t="str">
+        <v>https://img.kwcdn.com/product/fancy/431e63f9-440f-43fa-9bbe-5097edacecba.jpg</v>
+      </c>
+      <c r="L133" t="str">
+        <v>男童时装凉鞋、凉拖</v>
       </c>
     </row>
     <row r="134">
       <c r="A134">
+        <v>634418219683784</v>
+      </c>
+      <c r="B134">
+        <v>119860127</v>
+      </c>
+      <c r="C134">
         <v>4885374917</v>
       </c>
-      <c r="B134">
+      <c r="D134">
         <v>5832992244</v>
       </c>
-      <c r="C134">
+      <c r="E134">
         <v>59440366717</v>
       </c>
-      <c r="D134" t="str">
+      <c r="F134" t="str">
         <v>6209</v>
       </c>
-      <c r="E134" t="str">
+      <c r="G134" t="str">
         <v>6209-TZ-Grey-35</v>
       </c>
-      <c r="F134" t="str">
+      <c r="H134" t="str">
         <v>灰色</v>
       </c>
-      <c r="G134" t="str">
+      <c r="I134" t="str">
         <v>35</v>
       </c>
-      <c r="H134" t="str">
+      <c r="J134" t="str">
         <v>Grey</v>
+      </c>
+      <c r="K134" t="str">
+        <v>https://img.kwcdn.com/product/fancy/1efb96cc-fe53-4a05-8eca-a21f7ccae159.jpg</v>
+      </c>
+      <c r="L134" t="str">
+        <v>男童时装凉鞋、凉拖</v>
       </c>
     </row>
     <row r="135">
       <c r="A135">
+        <v>634418219683784</v>
+      </c>
+      <c r="B135">
+        <v>119860127</v>
+      </c>
+      <c r="C135">
         <v>4885374917</v>
       </c>
-      <c r="B135">
+      <c r="D135">
         <v>2427947411</v>
       </c>
-      <c r="C135">
+      <c r="E135">
         <v>14830754581</v>
       </c>
-      <c r="D135" t="str">
+      <c r="F135" t="str">
         <v>6209</v>
       </c>
-      <c r="E135" t="str">
+      <c r="G135" t="str">
         <v>6209-TZ-DarkBlue-35</v>
       </c>
-      <c r="F135" t="str">
+      <c r="H135" t="str">
         <v>深蓝</v>
       </c>
-      <c r="G135" t="str">
+      <c r="I135" t="str">
         <v>35</v>
       </c>
-      <c r="H135" t="str">
+      <c r="J135" t="str">
         <v>Dark Blue</v>
+      </c>
+      <c r="K135" t="str">
+        <v>https://img.kwcdn.com/product/fancy/431e63f9-440f-43fa-9bbe-5097edacecba.jpg</v>
+      </c>
+      <c r="L135" t="str">
+        <v>男童时装凉鞋、凉拖</v>
       </c>
     </row>
     <row r="136">
       <c r="A136">
+        <v>634418219683784</v>
+      </c>
+      <c r="B136">
+        <v>119860127</v>
+      </c>
+      <c r="C136">
         <v>4885374917</v>
       </c>
-      <c r="B136">
+      <c r="D136">
         <v>2844351221</v>
       </c>
-      <c r="C136">
+      <c r="E136">
         <v>30328073180</v>
       </c>
-      <c r="D136" t="str">
+      <c r="F136" t="str">
         <v>6209</v>
       </c>
-      <c r="E136" t="str">
+      <c r="G136" t="str">
         <v>6209-TZ-DarkBlue-37</v>
       </c>
-      <c r="F136" t="str">
+      <c r="H136" t="str">
         <v>深蓝</v>
       </c>
-      <c r="G136" t="str">
+      <c r="I136" t="str">
         <v>37</v>
       </c>
-      <c r="H136" t="str">
+      <c r="J136" t="str">
         <v>Dark Blue</v>
+      </c>
+      <c r="K136" t="str">
+        <v>https://img.kwcdn.com/product/fancy/431e63f9-440f-43fa-9bbe-5097edacecba.jpg</v>
+      </c>
+      <c r="L136" t="str">
+        <v>男童时装凉鞋、凉拖</v>
       </c>
     </row>
     <row r="137">
       <c r="A137">
+        <v>634418219683784</v>
+      </c>
+      <c r="B137">
+        <v>119860127</v>
+      </c>
+      <c r="C137">
         <v>4885374917</v>
       </c>
-      <c r="B137">
+      <c r="D137">
         <v>9647559756</v>
       </c>
-      <c r="C137">
+      <c r="E137">
         <v>14000736204</v>
       </c>
-      <c r="D137" t="str">
+      <c r="F137" t="str">
         <v>6209</v>
       </c>
-      <c r="E137" t="str">
+      <c r="G137" t="str">
         <v>6209-TZ-Grey-33</v>
       </c>
-      <c r="F137" t="str">
+      <c r="H137" t="str">
         <v>灰色</v>
       </c>
-      <c r="G137" t="str">
+      <c r="I137" t="str">
         <v>33</v>
       </c>
-      <c r="H137" t="str">
+      <c r="J137" t="str">
         <v>Grey</v>
+      </c>
+      <c r="K137" t="str">
+        <v>https://img.kwcdn.com/product/fancy/1efb96cc-fe53-4a05-8eca-a21f7ccae159.jpg</v>
+      </c>
+      <c r="L137" t="str">
+        <v>男童时装凉鞋、凉拖</v>
       </c>
     </row>
     <row r="138">
       <c r="A138">
+        <v>634418219683784</v>
+      </c>
+      <c r="B138">
+        <v>119860127</v>
+      </c>
+      <c r="C138">
         <v>4885374917</v>
       </c>
-      <c r="B138">
+      <c r="D138">
         <v>9711239442</v>
       </c>
-      <c r="C138">
+      <c r="E138">
         <v>35560733073</v>
       </c>
-      <c r="D138" t="str">
+      <c r="F138" t="str">
         <v>6209</v>
       </c>
-      <c r="E138" t="str">
+      <c r="G138" t="str">
         <v>6209-TZ-Grey-29</v>
       </c>
-      <c r="F138" t="str">
+      <c r="H138" t="str">
         <v>灰色</v>
       </c>
-      <c r="G138" t="str">
+      <c r="I138" t="str">
         <v>29</v>
       </c>
-      <c r="H138" t="str">
+      <c r="J138" t="str">
         <v>Grey</v>
+      </c>
+      <c r="K138" t="str">
+        <v>https://img.kwcdn.com/product/fancy/1efb96cc-fe53-4a05-8eca-a21f7ccae159.jpg</v>
+      </c>
+      <c r="L138" t="str">
+        <v>男童时装凉鞋、凉拖</v>
       </c>
     </row>
     <row r="139">
       <c r="A139">
+        <v>634418219683784</v>
+      </c>
+      <c r="B139">
+        <v>119860127</v>
+      </c>
+      <c r="C139">
         <v>4885374917</v>
       </c>
-      <c r="B139">
+      <c r="D139">
         <v>8496598854</v>
       </c>
-      <c r="C139">
+      <c r="E139">
         <v>34467972108</v>
       </c>
-      <c r="D139" t="str">
+      <c r="F139" t="str">
         <v>6209</v>
       </c>
-      <c r="E139" t="str">
+      <c r="G139" t="str">
         <v>6209-TZ-DarkBlue-34</v>
       </c>
-      <c r="F139" t="str">
+      <c r="H139" t="str">
         <v>深蓝</v>
       </c>
-      <c r="G139" t="str">
+      <c r="I139" t="str">
         <v>34</v>
       </c>
-      <c r="H139" t="str">
+      <c r="J139" t="str">
         <v>Dark Blue</v>
+      </c>
+      <c r="K139" t="str">
+        <v>https://img.kwcdn.com/product/fancy/431e63f9-440f-43fa-9bbe-5097edacecba.jpg</v>
+      </c>
+      <c r="L139" t="str">
+        <v>男童时装凉鞋、凉拖</v>
       </c>
     </row>
     <row r="140">
       <c r="A140">
+        <v>634418219683784</v>
+      </c>
+      <c r="B140">
+        <v>119860127</v>
+      </c>
+      <c r="C140">
         <v>4885374917</v>
       </c>
-      <c r="B140">
+      <c r="D140">
         <v>3566086685</v>
       </c>
-      <c r="C140">
+      <c r="E140">
         <v>64195540770</v>
       </c>
-      <c r="D140" t="str">
+      <c r="F140" t="str">
         <v>6209</v>
       </c>
-      <c r="E140" t="str">
+      <c r="G140" t="str">
         <v>6209-TZ-Grey-36</v>
       </c>
-      <c r="F140" t="str">
+      <c r="H140" t="str">
         <v>灰色</v>
       </c>
-      <c r="G140" t="str">
+      <c r="I140" t="str">
         <v>36</v>
       </c>
-      <c r="H140" t="str">
+      <c r="J140" t="str">
         <v>Grey</v>
+      </c>
+      <c r="K140" t="str">
+        <v>https://img.kwcdn.com/product/fancy/1efb96cc-fe53-4a05-8eca-a21f7ccae159.jpg</v>
+      </c>
+      <c r="L140" t="str">
+        <v>男童时装凉鞋、凉拖</v>
       </c>
     </row>
     <row r="141">
       <c r="A141">
+        <v>634418219683784</v>
+      </c>
+      <c r="B141">
+        <v>119860127</v>
+      </c>
+      <c r="C141">
         <v>4885374917</v>
       </c>
-      <c r="B141">
+      <c r="D141">
         <v>6737446941</v>
       </c>
-      <c r="C141">
+      <c r="E141">
         <v>45096244157</v>
       </c>
-      <c r="D141" t="str">
+      <c r="F141" t="str">
         <v>6209</v>
       </c>
-      <c r="E141" t="str">
+      <c r="G141" t="str">
         <v>6209-TZ-DarkBlue-33</v>
       </c>
-      <c r="F141" t="str">
+      <c r="H141" t="str">
         <v>深蓝</v>
       </c>
-      <c r="G141" t="str">
+      <c r="I141" t="str">
         <v>33</v>
       </c>
-      <c r="H141" t="str">
+      <c r="J141" t="str">
         <v>Dark Blue</v>
+      </c>
+      <c r="K141" t="str">
+        <v>https://img.kwcdn.com/product/fancy/431e63f9-440f-43fa-9bbe-5097edacecba.jpg</v>
+      </c>
+      <c r="L141" t="str">
+        <v>男童时装凉鞋、凉拖</v>
       </c>
     </row>
     <row r="142">
       <c r="A142">
+        <v>634418219683784</v>
+      </c>
+      <c r="B142">
+        <v>119860127</v>
+      </c>
+      <c r="C142">
         <v>4885374917</v>
       </c>
-      <c r="B142">
+      <c r="D142">
         <v>3966493028</v>
       </c>
-      <c r="C142">
+      <c r="E142">
         <v>21908999468</v>
       </c>
-      <c r="D142" t="str">
+      <c r="F142" t="str">
         <v>6209</v>
       </c>
-      <c r="E142" t="str">
+      <c r="G142" t="str">
         <v>6209-TZ-Grey-28</v>
       </c>
-      <c r="F142" t="str">
+      <c r="H142" t="str">
         <v>灰色</v>
       </c>
-      <c r="G142" t="str">
+      <c r="I142" t="str">
         <v>28</v>
       </c>
-      <c r="H142" t="str">
+      <c r="J142" t="str">
         <v>Grey</v>
+      </c>
+      <c r="K142" t="str">
+        <v>https://img.kwcdn.com/product/fancy/1efb96cc-fe53-4a05-8eca-a21f7ccae159.jpg</v>
+      </c>
+      <c r="L142" t="str">
+        <v>男童时装凉鞋、凉拖</v>
       </c>
     </row>
     <row r="143">
       <c r="A143">
+        <v>634418219683784</v>
+      </c>
+      <c r="B143">
+        <v>119860127</v>
+      </c>
+      <c r="C143">
         <v>4885374917</v>
       </c>
-      <c r="B143">
+      <c r="D143">
         <v>3869039286</v>
       </c>
-      <c r="C143">
+      <c r="E143">
         <v>31550220468</v>
       </c>
-      <c r="D143" t="str">
+      <c r="F143" t="str">
         <v>6209</v>
       </c>
-      <c r="E143" t="str">
+      <c r="G143" t="str">
         <v>6209-TZ-Grey-37</v>
       </c>
-      <c r="F143" t="str">
+      <c r="H143" t="str">
         <v>灰色</v>
       </c>
-      <c r="G143" t="str">
+      <c r="I143" t="str">
         <v>37</v>
       </c>
-      <c r="H143" t="str">
+      <c r="J143" t="str">
         <v>Grey</v>
+      </c>
+      <c r="K143" t="str">
+        <v>https://img.kwcdn.com/product/fancy/1efb96cc-fe53-4a05-8eca-a21f7ccae159.jpg</v>
+      </c>
+      <c r="L143" t="str">
+        <v>男童时装凉鞋、凉拖</v>
       </c>
     </row>
     <row r="144">
       <c r="A144">
+        <v>634418219683784</v>
+      </c>
+      <c r="B144">
+        <v>119860127</v>
+      </c>
+      <c r="C144">
         <v>4885374917</v>
       </c>
-      <c r="B144">
+      <c r="D144">
         <v>7074345470</v>
       </c>
-      <c r="C144">
+      <c r="E144">
         <v>90442089496</v>
       </c>
-      <c r="D144" t="str">
+      <c r="F144" t="str">
         <v>6209</v>
       </c>
-      <c r="E144" t="str">
+      <c r="G144" t="str">
         <v>6209-TZ-Grey-27</v>
       </c>
-      <c r="F144" t="str">
+      <c r="H144" t="str">
         <v>灰色</v>
       </c>
-      <c r="G144" t="str">
+      <c r="I144" t="str">
         <v>27</v>
       </c>
-      <c r="H144" t="str">
+      <c r="J144" t="str">
         <v>Grey</v>
+      </c>
+      <c r="K144" t="str">
+        <v>https://img.kwcdn.com/product/fancy/1efb96cc-fe53-4a05-8eca-a21f7ccae159.jpg</v>
+      </c>
+      <c r="L144" t="str">
+        <v>男童时装凉鞋、凉拖</v>
       </c>
     </row>
     <row r="145">
       <c r="A145">
+        <v>634418219683784</v>
+      </c>
+      <c r="B145">
+        <v>119860127</v>
+      </c>
+      <c r="C145">
         <v>4885374917</v>
       </c>
-      <c r="B145">
+      <c r="D145">
         <v>8163166471</v>
       </c>
-      <c r="C145">
+      <c r="E145">
         <v>71601212001</v>
       </c>
-      <c r="D145" t="str">
+      <c r="F145" t="str">
         <v>6209</v>
       </c>
-      <c r="E145" t="str">
+      <c r="G145" t="str">
         <v>6209-TZ-DarkBlue-27</v>
       </c>
-      <c r="F145" t="str">
+      <c r="H145" t="str">
         <v>深蓝</v>
       </c>
-      <c r="G145" t="str">
+      <c r="I145" t="str">
         <v>27</v>
       </c>
-      <c r="H145" t="str">
+      <c r="J145" t="str">
         <v>Dark Blue</v>
+      </c>
+      <c r="K145" t="str">
+        <v>https://img.kwcdn.com/product/fancy/431e63f9-440f-43fa-9bbe-5097edacecba.jpg</v>
+      </c>
+      <c r="L145" t="str">
+        <v>男童时装凉鞋、凉拖</v>
       </c>
     </row>
     <row r="146">
       <c r="A146">
+        <v>634418219683784</v>
+      </c>
+      <c r="B146">
+        <v>119860127</v>
+      </c>
+      <c r="C146">
         <v>4885374917</v>
       </c>
-      <c r="B146">
+      <c r="D146">
         <v>9984661160</v>
       </c>
-      <c r="C146">
+      <c r="E146">
         <v>92157195611</v>
       </c>
-      <c r="D146" t="str">
+      <c r="F146" t="str">
         <v>6209</v>
       </c>
-      <c r="E146" t="str">
+      <c r="G146" t="str">
         <v>6209-TZ-DarkBlue-36</v>
       </c>
-      <c r="F146" t="str">
+      <c r="H146" t="str">
         <v>深蓝</v>
       </c>
-      <c r="G146" t="str">
+      <c r="I146" t="str">
         <v>36</v>
       </c>
-      <c r="H146" t="str">
+      <c r="J146" t="str">
         <v>Dark Blue</v>
+      </c>
+      <c r="K146" t="str">
+        <v>https://img.kwcdn.com/product/fancy/431e63f9-440f-43fa-9bbe-5097edacecba.jpg</v>
+      </c>
+      <c r="L146" t="str">
+        <v>男童时装凉鞋、凉拖</v>
       </c>
     </row>
     <row r="147">
       <c r="A147">
+        <v>634418219683784</v>
+      </c>
+      <c r="B147">
+        <v>119860127</v>
+      </c>
+      <c r="C147">
         <v>4885374917</v>
       </c>
-      <c r="B147">
+      <c r="D147">
         <v>8693491267</v>
       </c>
-      <c r="C147">
+      <c r="E147">
         <v>70924759895</v>
       </c>
-      <c r="D147" t="str">
+      <c r="F147" t="str">
         <v>6209</v>
       </c>
-      <c r="E147" t="str">
+      <c r="G147" t="str">
         <v>6209-TZ-DarkBlue-30</v>
       </c>
-      <c r="F147" t="str">
+      <c r="H147" t="str">
         <v>深蓝</v>
       </c>
-      <c r="G147" t="str">
+      <c r="I147" t="str">
         <v>30</v>
       </c>
-      <c r="H147" t="str">
+      <c r="J147" t="str">
         <v>Dark Blue</v>
+      </c>
+      <c r="K147" t="str">
+        <v>https://img.kwcdn.com/product/fancy/431e63f9-440f-43fa-9bbe-5097edacecba.jpg</v>
+      </c>
+      <c r="L147" t="str">
+        <v>男童时装凉鞋、凉拖</v>
       </c>
     </row>
     <row r="148">
       <c r="A148">
+        <v>634418219683784</v>
+      </c>
+      <c r="B148">
+        <v>119860127</v>
+      </c>
+      <c r="C148">
         <v>4885374917</v>
       </c>
-      <c r="B148">
+      <c r="D148">
         <v>8651608483</v>
       </c>
-      <c r="C148">
+      <c r="E148">
         <v>68380192138</v>
       </c>
-      <c r="D148" t="str">
+      <c r="F148" t="str">
         <v>6209</v>
       </c>
-      <c r="E148" t="str">
+      <c r="G148" t="str">
         <v>6209-TZ-Grey-38</v>
       </c>
-      <c r="F148" t="str">
+      <c r="H148" t="str">
         <v>灰色</v>
       </c>
-      <c r="G148" t="str">
+      <c r="I148" t="str">
         <v>38</v>
       </c>
-      <c r="H148" t="str">
+      <c r="J148" t="str">
         <v>Grey</v>
+      </c>
+      <c r="K148" t="str">
+        <v>https://img.kwcdn.com/product/fancy/1efb96cc-fe53-4a05-8eca-a21f7ccae159.jpg</v>
+      </c>
+      <c r="L148" t="str">
+        <v>男童时装凉鞋、凉拖</v>
       </c>
     </row>
     <row r="149">
       <c r="A149">
+        <v>634418219683784</v>
+      </c>
+      <c r="B149">
+        <v>9657763020</v>
+      </c>
+      <c r="C149">
         <v>32760127960</v>
       </c>
-      <c r="B149">
+      <c r="D149">
         <v>75922161022</v>
       </c>
-      <c r="C149">
+      <c r="E149">
         <v>85113868944</v>
       </c>
-      <c r="D149" t="str">
+      <c r="F149" t="str">
         <v>6230</v>
       </c>
-      <c r="E149" t="str">
+      <c r="G149" t="str">
         <v>6230-TZ-DarkBlue-31</v>
       </c>
-      <c r="F149" t="str">
+      <c r="H149" t="str">
         <v>深蓝</v>
       </c>
-      <c r="G149" t="str">
+      <c r="I149" t="str">
         <v>31</v>
       </c>
-      <c r="H149" t="str">
+      <c r="J149" t="str">
         <v>Dark Blue</v>
+      </c>
+      <c r="K149" t="str">
+        <v>https://img.kwcdn.com/product/fancy/b7d4f4eb-7c6a-430e-8fcb-09c85dd6b62b.jpg</v>
+      </c>
+      <c r="L149" t="str">
+        <v>男童运动凉鞋</v>
       </c>
     </row>
     <row r="150">
       <c r="A150">
+        <v>634418219683784</v>
+      </c>
+      <c r="B150">
+        <v>9657763020</v>
+      </c>
+      <c r="C150">
         <v>32760127960</v>
       </c>
-      <c r="B150">
+      <c r="D150">
         <v>32876227104</v>
       </c>
-      <c r="C150">
+      <c r="E150">
         <v>13928801609</v>
       </c>
-      <c r="D150" t="str">
+      <c r="F150" t="str">
         <v>6230</v>
       </c>
-      <c r="E150" t="str">
+      <c r="G150" t="str">
         <v>6230-TZ-Grey-39</v>
       </c>
-      <c r="F150" t="str">
+      <c r="H150" t="str">
         <v>灰色</v>
       </c>
-      <c r="G150" t="str">
+      <c r="I150" t="str">
         <v>39</v>
       </c>
-      <c r="H150" t="str">
+      <c r="J150" t="str">
         <v>Grey</v>
+      </c>
+      <c r="K150" t="str">
+        <v>https://img.kwcdn.com/product/fancy/e4fa686b-47b5-4a12-82dc-c53a8646a31c.jpg</v>
+      </c>
+      <c r="L150" t="str">
+        <v>男童运动凉鞋</v>
       </c>
     </row>
     <row r="151">
       <c r="A151">
+        <v>634418219683784</v>
+      </c>
+      <c r="B151">
+        <v>9657763020</v>
+      </c>
+      <c r="C151">
         <v>32760127960</v>
       </c>
-      <c r="B151">
+      <c r="D151">
         <v>23489831059</v>
       </c>
-      <c r="C151">
+      <c r="E151">
         <v>45569773665</v>
       </c>
-      <c r="D151" t="str">
+      <c r="F151" t="str">
         <v>6230</v>
       </c>
-      <c r="E151" t="str">
+      <c r="G151" t="str">
         <v>6230-TZ-Grey-31</v>
       </c>
-      <c r="F151" t="str">
+      <c r="H151" t="str">
         <v>灰色</v>
       </c>
-      <c r="G151" t="str">
+      <c r="I151" t="str">
         <v>31</v>
       </c>
-      <c r="H151" t="str">
+      <c r="J151" t="str">
         <v>Grey</v>
+      </c>
+      <c r="K151" t="str">
+        <v>https://img.kwcdn.com/product/fancy/e4fa686b-47b5-4a12-82dc-c53a8646a31c.jpg</v>
+      </c>
+      <c r="L151" t="str">
+        <v>男童运动凉鞋</v>
       </c>
     </row>
     <row r="152">
       <c r="A152">
+        <v>634418219683784</v>
+      </c>
+      <c r="B152">
+        <v>9657763020</v>
+      </c>
+      <c r="C152">
         <v>32760127960</v>
       </c>
-      <c r="B152">
+      <c r="D152">
         <v>25741512280</v>
       </c>
-      <c r="C152">
+      <c r="E152">
         <v>25169673808</v>
       </c>
-      <c r="D152" t="str">
+      <c r="F152" t="str">
         <v>6230</v>
       </c>
-      <c r="E152" t="str">
+      <c r="G152" t="str">
         <v>6230-TZ-DarkBlue-32</v>
       </c>
-      <c r="F152" t="str">
+      <c r="H152" t="str">
         <v>深蓝</v>
       </c>
-      <c r="G152" t="str">
+      <c r="I152" t="str">
         <v>32</v>
       </c>
-      <c r="H152" t="str">
+      <c r="J152" t="str">
         <v>Dark Blue</v>
+      </c>
+      <c r="K152" t="str">
+        <v>https://img.kwcdn.com/product/fancy/b7d4f4eb-7c6a-430e-8fcb-09c85dd6b62b.jpg</v>
+      </c>
+      <c r="L152" t="str">
+        <v>男童运动凉鞋</v>
       </c>
     </row>
     <row r="153">
       <c r="A153">
+        <v>634418219683784</v>
+      </c>
+      <c r="B153">
+        <v>9657763020</v>
+      </c>
+      <c r="C153">
         <v>32760127960</v>
       </c>
-      <c r="B153">
+      <c r="D153">
         <v>89108831046</v>
       </c>
-      <c r="C153">
+      <c r="E153">
         <v>99685555176</v>
       </c>
-      <c r="D153" t="str">
+      <c r="F153" t="str">
         <v>6230</v>
       </c>
-      <c r="E153" t="str">
+      <c r="G153" t="str">
         <v>6230-TZ-DarkBlue-36</v>
       </c>
-      <c r="F153" t="str">
+      <c r="H153" t="str">
         <v>深蓝</v>
       </c>
-      <c r="G153" t="str">
+      <c r="I153" t="str">
         <v>36</v>
       </c>
-      <c r="H153" t="str">
+      <c r="J153" t="str">
         <v>Dark Blue</v>
+      </c>
+      <c r="K153" t="str">
+        <v>https://img.kwcdn.com/product/fancy/b7d4f4eb-7c6a-430e-8fcb-09c85dd6b62b.jpg</v>
+      </c>
+      <c r="L153" t="str">
+        <v>男童运动凉鞋</v>
       </c>
     </row>
     <row r="154">
       <c r="A154">
+        <v>634418219683784</v>
+      </c>
+      <c r="B154">
+        <v>9657763020</v>
+      </c>
+      <c r="C154">
         <v>32760127960</v>
       </c>
-      <c r="B154">
+      <c r="D154">
         <v>82234924150</v>
       </c>
-      <c r="C154">
+      <c r="E154">
         <v>76602576705</v>
       </c>
-      <c r="D154" t="str">
+      <c r="F154" t="str">
         <v>6230</v>
       </c>
-      <c r="E154" t="str">
+      <c r="G154" t="str">
         <v>6230-TZ-DarkBlue-34</v>
       </c>
-      <c r="F154" t="str">
+      <c r="H154" t="str">
         <v>深蓝</v>
       </c>
-      <c r="G154" t="str">
+      <c r="I154" t="str">
         <v>34</v>
       </c>
-      <c r="H154" t="str">
+      <c r="J154" t="str">
         <v>Dark Blue</v>
+      </c>
+      <c r="K154" t="str">
+        <v>https://img.kwcdn.com/product/fancy/b7d4f4eb-7c6a-430e-8fcb-09c85dd6b62b.jpg</v>
+      </c>
+      <c r="L154" t="str">
+        <v>男童运动凉鞋</v>
       </c>
     </row>
     <row r="155">
       <c r="A155">
+        <v>634418219683784</v>
+      </c>
+      <c r="B155">
+        <v>9657763020</v>
+      </c>
+      <c r="C155">
         <v>32760127960</v>
       </c>
-      <c r="B155">
+      <c r="D155">
         <v>25939755380</v>
       </c>
-      <c r="C155">
+      <c r="E155">
         <v>46327084157</v>
       </c>
-      <c r="D155" t="str">
+      <c r="F155" t="str">
         <v>6230</v>
       </c>
-      <c r="E155" t="str">
+      <c r="G155" t="str">
         <v>6230-TZ-DarkBlue-39</v>
       </c>
-      <c r="F155" t="str">
+      <c r="H155" t="str">
         <v>深蓝</v>
       </c>
-      <c r="G155" t="str">
+      <c r="I155" t="str">
         <v>39</v>
       </c>
-      <c r="H155" t="str">
+      <c r="J155" t="str">
         <v>Dark Blue</v>
+      </c>
+      <c r="K155" t="str">
+        <v>https://img.kwcdn.com/product/fancy/b7d4f4eb-7c6a-430e-8fcb-09c85dd6b62b.jpg</v>
+      </c>
+      <c r="L155" t="str">
+        <v>男童运动凉鞋</v>
       </c>
     </row>
     <row r="156">
       <c r="A156">
+        <v>634418219683784</v>
+      </c>
+      <c r="B156">
+        <v>9657763020</v>
+      </c>
+      <c r="C156">
         <v>32760127960</v>
       </c>
-      <c r="B156">
+      <c r="D156">
         <v>45595299767</v>
       </c>
-      <c r="C156">
+      <c r="E156">
         <v>54954450521</v>
       </c>
-      <c r="D156" t="str">
+      <c r="F156" t="str">
         <v>6230</v>
       </c>
-      <c r="E156" t="str">
+      <c r="G156" t="str">
         <v>6230-TZ-Grey-29</v>
       </c>
-      <c r="F156" t="str">
+      <c r="H156" t="str">
         <v>灰色</v>
       </c>
-      <c r="G156" t="str">
+      <c r="I156" t="str">
         <v>29</v>
       </c>
-      <c r="H156" t="str">
+      <c r="J156" t="str">
         <v>Grey</v>
+      </c>
+      <c r="K156" t="str">
+        <v>https://img.kwcdn.com/product/fancy/e4fa686b-47b5-4a12-82dc-c53a8646a31c.jpg</v>
+      </c>
+      <c r="L156" t="str">
+        <v>男童运动凉鞋</v>
       </c>
     </row>
     <row r="157">
       <c r="A157">
+        <v>634418219683784</v>
+      </c>
+      <c r="B157">
+        <v>9657763020</v>
+      </c>
+      <c r="C157">
         <v>32760127960</v>
       </c>
-      <c r="B157">
+      <c r="D157">
         <v>19839978893</v>
       </c>
-      <c r="C157">
+      <c r="E157">
         <v>79334661229</v>
       </c>
-      <c r="D157" t="str">
+      <c r="F157" t="str">
         <v>6230</v>
       </c>
-      <c r="E157" t="str">
+      <c r="G157" t="str">
         <v>6230-TZ-Grey-38</v>
       </c>
-      <c r="F157" t="str">
+      <c r="H157" t="str">
         <v>灰色</v>
       </c>
-      <c r="G157" t="str">
+      <c r="I157" t="str">
         <v>38</v>
       </c>
-      <c r="H157" t="str">
+      <c r="J157" t="str">
         <v>Grey</v>
+      </c>
+      <c r="K157" t="str">
+        <v>https://img.kwcdn.com/product/fancy/e4fa686b-47b5-4a12-82dc-c53a8646a31c.jpg</v>
+      </c>
+      <c r="L157" t="str">
+        <v>男童运动凉鞋</v>
       </c>
     </row>
     <row r="158">
       <c r="A158">
+        <v>634418219683784</v>
+      </c>
+      <c r="B158">
+        <v>9657763020</v>
+      </c>
+      <c r="C158">
         <v>32760127960</v>
       </c>
-      <c r="B158">
+      <c r="D158">
         <v>56550250814</v>
       </c>
-      <c r="C158">
+      <c r="E158">
         <v>21379022786</v>
       </c>
-      <c r="D158" t="str">
+      <c r="F158" t="str">
         <v>6230</v>
       </c>
-      <c r="E158" t="str">
+      <c r="G158" t="str">
         <v>6230-TZ-DarkBlue-35</v>
       </c>
-      <c r="F158" t="str">
+      <c r="H158" t="str">
         <v>深蓝</v>
       </c>
-      <c r="G158" t="str">
+      <c r="I158" t="str">
         <v>35</v>
       </c>
-      <c r="H158" t="str">
+      <c r="J158" t="str">
         <v>Dark Blue</v>
+      </c>
+      <c r="K158" t="str">
+        <v>https://img.kwcdn.com/product/fancy/b7d4f4eb-7c6a-430e-8fcb-09c85dd6b62b.jpg</v>
+      </c>
+      <c r="L158" t="str">
+        <v>男童运动凉鞋</v>
       </c>
     </row>
     <row r="159">
       <c r="A159">
+        <v>634418219683784</v>
+      </c>
+      <c r="B159">
+        <v>9657763020</v>
+      </c>
+      <c r="C159">
         <v>32760127960</v>
       </c>
-      <c r="B159">
+      <c r="D159">
         <v>36987338864</v>
       </c>
-      <c r="C159">
+      <c r="E159">
         <v>42748914016</v>
       </c>
-      <c r="D159" t="str">
+      <c r="F159" t="str">
         <v>6230</v>
       </c>
-      <c r="E159" t="str">
+      <c r="G159" t="str">
         <v>6230-TZ-DarkBlue-37</v>
       </c>
-      <c r="F159" t="str">
+      <c r="H159" t="str">
         <v>深蓝</v>
       </c>
-      <c r="G159" t="str">
+      <c r="I159" t="str">
         <v>37</v>
       </c>
-      <c r="H159" t="str">
+      <c r="J159" t="str">
         <v>Dark Blue</v>
+      </c>
+      <c r="K159" t="str">
+        <v>https://img.kwcdn.com/product/fancy/b7d4f4eb-7c6a-430e-8fcb-09c85dd6b62b.jpg</v>
+      </c>
+      <c r="L159" t="str">
+        <v>男童运动凉鞋</v>
       </c>
     </row>
     <row r="160">
       <c r="A160">
+        <v>634418219683784</v>
+      </c>
+      <c r="B160">
+        <v>9657763020</v>
+      </c>
+      <c r="C160">
         <v>32760127960</v>
       </c>
-      <c r="B160">
+      <c r="D160">
         <v>67389660960</v>
       </c>
-      <c r="C160">
+      <c r="E160">
         <v>25508494117</v>
       </c>
-      <c r="D160" t="str">
+      <c r="F160" t="str">
         <v>6230</v>
       </c>
-      <c r="E160" t="str">
+      <c r="G160" t="str">
         <v>6230-TZ-DarkBlue-38</v>
       </c>
-      <c r="F160" t="str">
+      <c r="H160" t="str">
         <v>深蓝</v>
       </c>
-      <c r="G160" t="str">
+      <c r="I160" t="str">
         <v>38</v>
       </c>
-      <c r="H160" t="str">
+      <c r="J160" t="str">
         <v>Dark Blue</v>
+      </c>
+      <c r="K160" t="str">
+        <v>https://img.kwcdn.com/product/fancy/b7d4f4eb-7c6a-430e-8fcb-09c85dd6b62b.jpg</v>
+      </c>
+      <c r="L160" t="str">
+        <v>男童运动凉鞋</v>
       </c>
     </row>
     <row r="161">
       <c r="A161">
+        <v>634418219683784</v>
+      </c>
+      <c r="B161">
+        <v>9657763020</v>
+      </c>
+      <c r="C161">
         <v>32760127960</v>
       </c>
-      <c r="B161">
+      <c r="D161">
         <v>62894086165</v>
       </c>
-      <c r="C161">
+      <c r="E161">
         <v>39244599495</v>
       </c>
-      <c r="D161" t="str">
+      <c r="F161" t="str">
         <v>6230</v>
       </c>
-      <c r="E161" t="str">
+      <c r="G161" t="str">
         <v>6230-TZ-DarkBlue-30</v>
       </c>
-      <c r="F161" t="str">
+      <c r="H161" t="str">
         <v>深蓝</v>
       </c>
-      <c r="G161" t="str">
+      <c r="I161" t="str">
         <v>30</v>
       </c>
-      <c r="H161" t="str">
+      <c r="J161" t="str">
         <v>Dark Blue</v>
+      </c>
+      <c r="K161" t="str">
+        <v>https://img.kwcdn.com/product/fancy/b7d4f4eb-7c6a-430e-8fcb-09c85dd6b62b.jpg</v>
+      </c>
+      <c r="L161" t="str">
+        <v>男童运动凉鞋</v>
       </c>
     </row>
     <row r="162">
       <c r="A162">
+        <v>634418219683784</v>
+      </c>
+      <c r="B162">
+        <v>9657763020</v>
+      </c>
+      <c r="C162">
         <v>32760127960</v>
       </c>
-      <c r="B162">
+      <c r="D162">
         <v>46996406907</v>
       </c>
-      <c r="C162">
+      <c r="E162">
         <v>33937740876</v>
       </c>
-      <c r="D162" t="str">
+      <c r="F162" t="str">
         <v>6230</v>
       </c>
-      <c r="E162" t="str">
+      <c r="G162" t="str">
         <v>6230-TZ-Grey-36</v>
       </c>
-      <c r="F162" t="str">
+      <c r="H162" t="str">
         <v>灰色</v>
       </c>
-      <c r="G162" t="str">
+      <c r="I162" t="str">
         <v>36</v>
       </c>
-      <c r="H162" t="str">
+      <c r="J162" t="str">
         <v>Grey</v>
+      </c>
+      <c r="K162" t="str">
+        <v>https://img.kwcdn.com/product/fancy/e4fa686b-47b5-4a12-82dc-c53a8646a31c.jpg</v>
+      </c>
+      <c r="L162" t="str">
+        <v>男童运动凉鞋</v>
       </c>
     </row>
     <row r="163">
       <c r="A163">
+        <v>634418219683784</v>
+      </c>
+      <c r="B163">
+        <v>9657763020</v>
+      </c>
+      <c r="C163">
         <v>32760127960</v>
       </c>
-      <c r="B163">
+      <c r="D163">
         <v>92543502207</v>
       </c>
-      <c r="C163">
+      <c r="E163">
         <v>96079103296</v>
       </c>
-      <c r="D163" t="str">
+      <c r="F163" t="str">
         <v>6230</v>
       </c>
-      <c r="E163" t="str">
+      <c r="G163" t="str">
         <v>6230-TZ-Grey-34</v>
       </c>
-      <c r="F163" t="str">
+      <c r="H163" t="str">
         <v>灰色</v>
       </c>
-      <c r="G163" t="str">
+      <c r="I163" t="str">
         <v>34</v>
       </c>
-      <c r="H163" t="str">
+      <c r="J163" t="str">
         <v>Grey</v>
+      </c>
+      <c r="K163" t="str">
+        <v>https://img.kwcdn.com/product/fancy/e4fa686b-47b5-4a12-82dc-c53a8646a31c.jpg</v>
+      </c>
+      <c r="L163" t="str">
+        <v>男童运动凉鞋</v>
       </c>
     </row>
     <row r="164">
       <c r="A164">
+        <v>634418219683784</v>
+      </c>
+      <c r="B164">
+        <v>9657763020</v>
+      </c>
+      <c r="C164">
         <v>32760127960</v>
       </c>
-      <c r="B164">
+      <c r="D164">
         <v>97350307205</v>
       </c>
-      <c r="C164">
+      <c r="E164">
         <v>24163593020</v>
       </c>
-      <c r="D164" t="str">
+      <c r="F164" t="str">
         <v>6230</v>
       </c>
-      <c r="E164" t="str">
+      <c r="G164" t="str">
         <v>6230-TZ-DarkBlue-33</v>
       </c>
-      <c r="F164" t="str">
+      <c r="H164" t="str">
         <v>深蓝</v>
       </c>
-      <c r="G164" t="str">
+      <c r="I164" t="str">
         <v>33</v>
       </c>
-      <c r="H164" t="str">
+      <c r="J164" t="str">
         <v>Dark Blue</v>
+      </c>
+      <c r="K164" t="str">
+        <v>https://img.kwcdn.com/product/fancy/b7d4f4eb-7c6a-430e-8fcb-09c85dd6b62b.jpg</v>
+      </c>
+      <c r="L164" t="str">
+        <v>男童运动凉鞋</v>
       </c>
     </row>
     <row r="165">
       <c r="A165">
+        <v>634418219683784</v>
+      </c>
+      <c r="B165">
+        <v>9657763020</v>
+      </c>
+      <c r="C165">
         <v>32760127960</v>
       </c>
-      <c r="B165">
+      <c r="D165">
         <v>31466976511</v>
       </c>
-      <c r="C165">
+      <c r="E165">
         <v>16309212424</v>
       </c>
-      <c r="D165" t="str">
+      <c r="F165" t="str">
         <v>6230</v>
       </c>
-      <c r="E165" t="str">
+      <c r="G165" t="str">
         <v>6230-TZ-Grey-33</v>
       </c>
-      <c r="F165" t="str">
+      <c r="H165" t="str">
         <v>灰色</v>
       </c>
-      <c r="G165" t="str">
+      <c r="I165" t="str">
         <v>33</v>
       </c>
-      <c r="H165" t="str">
+      <c r="J165" t="str">
         <v>Grey</v>
+      </c>
+      <c r="K165" t="str">
+        <v>https://img.kwcdn.com/product/fancy/e4fa686b-47b5-4a12-82dc-c53a8646a31c.jpg</v>
+      </c>
+      <c r="L165" t="str">
+        <v>男童运动凉鞋</v>
       </c>
     </row>
     <row r="166">
       <c r="A166">
+        <v>634418219683784</v>
+      </c>
+      <c r="B166">
+        <v>9657763020</v>
+      </c>
+      <c r="C166">
         <v>32760127960</v>
       </c>
-      <c r="B166">
+      <c r="D166">
         <v>77013580417</v>
       </c>
-      <c r="C166">
+      <c r="E166">
         <v>94334307162</v>
       </c>
-      <c r="D166" t="str">
+      <c r="F166" t="str">
         <v>6230</v>
       </c>
-      <c r="E166" t="str">
+      <c r="G166" t="str">
         <v>6230-TZ-Grey-35</v>
       </c>
-      <c r="F166" t="str">
+      <c r="H166" t="str">
         <v>灰色</v>
       </c>
-      <c r="G166" t="str">
+      <c r="I166" t="str">
         <v>35</v>
       </c>
-      <c r="H166" t="str">
+      <c r="J166" t="str">
         <v>Grey</v>
+      </c>
+      <c r="K166" t="str">
+        <v>https://img.kwcdn.com/product/fancy/e4fa686b-47b5-4a12-82dc-c53a8646a31c.jpg</v>
+      </c>
+      <c r="L166" t="str">
+        <v>男童运动凉鞋</v>
       </c>
     </row>
     <row r="167">
       <c r="A167">
+        <v>634418219683784</v>
+      </c>
+      <c r="B167">
+        <v>9657763020</v>
+      </c>
+      <c r="C167">
         <v>32760127960</v>
       </c>
-      <c r="B167">
+      <c r="D167">
         <v>87469640217</v>
       </c>
-      <c r="C167">
+      <c r="E167">
         <v>59171691718</v>
       </c>
-      <c r="D167" t="str">
+      <c r="F167" t="str">
         <v>6230</v>
       </c>
-      <c r="E167" t="str">
+      <c r="G167" t="str">
         <v>6230-TZ-Grey-30</v>
       </c>
-      <c r="F167" t="str">
+      <c r="H167" t="str">
         <v>灰色</v>
       </c>
-      <c r="G167" t="str">
+      <c r="I167" t="str">
         <v>30</v>
       </c>
-      <c r="H167" t="str">
+      <c r="J167" t="str">
         <v>Grey</v>
+      </c>
+      <c r="K167" t="str">
+        <v>https://img.kwcdn.com/product/fancy/e4fa686b-47b5-4a12-82dc-c53a8646a31c.jpg</v>
+      </c>
+      <c r="L167" t="str">
+        <v>男童运动凉鞋</v>
       </c>
     </row>
     <row r="168">
       <c r="A168">
+        <v>634418219683784</v>
+      </c>
+      <c r="B168">
+        <v>9657763020</v>
+      </c>
+      <c r="C168">
         <v>32760127960</v>
       </c>
-      <c r="B168">
+      <c r="D168">
         <v>38225503575</v>
       </c>
-      <c r="C168">
+      <c r="E168">
         <v>15867890598</v>
       </c>
-      <c r="D168" t="str">
+      <c r="F168" t="str">
         <v>6230</v>
       </c>
-      <c r="E168" t="str">
+      <c r="G168" t="str">
         <v>6230-TZ-DarkBlue-29</v>
       </c>
-      <c r="F168" t="str">
+      <c r="H168" t="str">
         <v>深蓝</v>
       </c>
-      <c r="G168" t="str">
+      <c r="I168" t="str">
         <v>29</v>
       </c>
-      <c r="H168" t="str">
+      <c r="J168" t="str">
         <v>Dark Blue</v>
+      </c>
+      <c r="K168" t="str">
+        <v>https://img.kwcdn.com/product/fancy/b7d4f4eb-7c6a-430e-8fcb-09c85dd6b62b.jpg</v>
+      </c>
+      <c r="L168" t="str">
+        <v>男童运动凉鞋</v>
       </c>
     </row>
     <row r="169">
       <c r="A169">
+        <v>634418219683784</v>
+      </c>
+      <c r="B169">
+        <v>9657763020</v>
+      </c>
+      <c r="C169">
         <v>32760127960</v>
       </c>
-      <c r="B169">
+      <c r="D169">
         <v>93302449465</v>
       </c>
-      <c r="C169">
+      <c r="E169">
         <v>24976158830</v>
       </c>
-      <c r="D169" t="str">
+      <c r="F169" t="str">
         <v>6230</v>
       </c>
-      <c r="E169" t="str">
+      <c r="G169" t="str">
         <v>6230-TZ-Grey-37</v>
       </c>
-      <c r="F169" t="str">
+      <c r="H169" t="str">
         <v>灰色</v>
       </c>
-      <c r="G169" t="str">
+      <c r="I169" t="str">
         <v>37</v>
       </c>
-      <c r="H169" t="str">
+      <c r="J169" t="str">
         <v>Grey</v>
+      </c>
+      <c r="K169" t="str">
+        <v>https://img.kwcdn.com/product/fancy/e4fa686b-47b5-4a12-82dc-c53a8646a31c.jpg</v>
+      </c>
+      <c r="L169" t="str">
+        <v>男童运动凉鞋</v>
       </c>
     </row>
     <row r="170">
       <c r="A170">
+        <v>634418219683784</v>
+      </c>
+      <c r="B170">
+        <v>9657763020</v>
+      </c>
+      <c r="C170">
         <v>32760127960</v>
       </c>
-      <c r="B170">
+      <c r="D170">
         <v>30640375652</v>
       </c>
-      <c r="C170">
+      <c r="E170">
         <v>45981411206</v>
       </c>
-      <c r="D170" t="str">
+      <c r="F170" t="str">
         <v>6230</v>
       </c>
-      <c r="E170" t="str">
+      <c r="G170" t="str">
         <v>6230-TZ-Grey-32</v>
       </c>
-      <c r="F170" t="str">
+      <c r="H170" t="str">
         <v>灰色</v>
       </c>
-      <c r="G170" t="str">
+      <c r="I170" t="str">
         <v>32</v>
       </c>
-      <c r="H170" t="str">
+      <c r="J170" t="str">
         <v>Grey</v>
+      </c>
+      <c r="K170" t="str">
+        <v>https://img.kwcdn.com/product/fancy/e4fa686b-47b5-4a12-82dc-c53a8646a31c.jpg</v>
+      </c>
+      <c r="L170" t="str">
+        <v>男童运动凉鞋</v>
       </c>
     </row>
     <row r="171">
       <c r="A171">
+        <v>634418219683784</v>
+      </c>
+      <c r="B171">
+        <v>6262996099</v>
+      </c>
+      <c r="C171">
         <v>17584545765</v>
       </c>
-      <c r="B171">
+      <c r="D171">
         <v>83761406329</v>
       </c>
-      <c r="C171">
+      <c r="E171">
         <v>28324836091</v>
       </c>
-      <c r="D171" t="str">
+      <c r="F171" t="str">
         <v>6233</v>
       </c>
-      <c r="E171" t="str">
+      <c r="G171" t="str">
         <v>6233-TZ-BlackOrange-24</v>
       </c>
-      <c r="F171" t="str">
+      <c r="H171" t="str">
         <v>黑桔</v>
       </c>
-      <c r="G171" t="str">
+      <c r="I171" t="str">
         <v>24</v>
       </c>
-      <c r="H171" t="str">
+      <c r="J171" t="str">
         <v>Black Orange</v>
+      </c>
+      <c r="K171" t="str">
+        <v>https://img.kwcdn.com/product/fancy/33be0738-44c2-4432-b9a7-533f3e04e49b.jpg</v>
+      </c>
+      <c r="L171" t="str">
+        <v>女童运动凉鞋</v>
       </c>
     </row>
     <row r="172">
       <c r="A172">
+        <v>634418219683784</v>
+      </c>
+      <c r="B172">
+        <v>6262996099</v>
+      </c>
+      <c r="C172">
         <v>17584545765</v>
       </c>
-      <c r="B172">
+      <c r="D172">
         <v>71083295115</v>
       </c>
-      <c r="C172">
+      <c r="E172">
         <v>16745422173</v>
       </c>
-      <c r="D172" t="str">
+      <c r="F172" t="str">
         <v>6233</v>
       </c>
-      <c r="E172" t="str">
+      <c r="G172" t="str">
         <v>6233-TZ-PinkRed-32</v>
       </c>
-      <c r="F172" t="str">
+      <c r="H172" t="str">
         <v>粉红色</v>
       </c>
-      <c r="G172" t="str">
+      <c r="I172" t="str">
         <v>32</v>
       </c>
-      <c r="H172" t="str">
-        <v>Pink Color</v>
+      <c r="J172" t="str">
+        <v>Pink</v>
+      </c>
+      <c r="K172" t="str">
+        <v>https://img.kwcdn.com/product/fancy/e4e02627-161f-467a-b09f-098a7b29b26d.jpg</v>
+      </c>
+      <c r="L172" t="str">
+        <v>女童运动凉鞋</v>
       </c>
     </row>
     <row r="173">
       <c r="A173">
+        <v>634418219683784</v>
+      </c>
+      <c r="B173">
+        <v>6262996099</v>
+      </c>
+      <c r="C173">
         <v>17584545765</v>
       </c>
-      <c r="B173">
+      <c r="D173">
         <v>66299084839</v>
       </c>
-      <c r="C173">
+      <c r="E173">
         <v>37797799254</v>
       </c>
-      <c r="D173" t="str">
+      <c r="F173" t="str">
         <v>6233</v>
       </c>
-      <c r="E173" t="str">
+      <c r="G173" t="str">
         <v>6233-TZ-BlackOrange-32</v>
       </c>
-      <c r="F173" t="str">
+      <c r="H173" t="str">
         <v>黑桔</v>
       </c>
-      <c r="G173" t="str">
+      <c r="I173" t="str">
         <v>32</v>
       </c>
-      <c r="H173" t="str">
+      <c r="J173" t="str">
         <v>Black Orange</v>
+      </c>
+      <c r="K173" t="str">
+        <v>https://img.kwcdn.com/product/fancy/33be0738-44c2-4432-b9a7-533f3e04e49b.jpg</v>
+      </c>
+      <c r="L173" t="str">
+        <v>女童运动凉鞋</v>
       </c>
     </row>
     <row r="174">
       <c r="A174">
+        <v>634418219683784</v>
+      </c>
+      <c r="B174">
+        <v>6262996099</v>
+      </c>
+      <c r="C174">
         <v>17584545765</v>
       </c>
-      <c r="B174">
+      <c r="D174">
         <v>93429311888</v>
       </c>
-      <c r="C174">
+      <c r="E174">
         <v>44014938212</v>
       </c>
-      <c r="D174" t="str">
+      <c r="F174" t="str">
         <v>6233</v>
       </c>
-      <c r="E174" t="str">
+      <c r="G174" t="str">
         <v>6233-TZ-BlackOrange-34</v>
       </c>
-      <c r="F174" t="str">
+      <c r="H174" t="str">
         <v>黑桔</v>
       </c>
-      <c r="G174" t="str">
+      <c r="I174" t="str">
         <v>34</v>
       </c>
-      <c r="H174" t="str">
+      <c r="J174" t="str">
         <v>Black Orange</v>
+      </c>
+      <c r="K174" t="str">
+        <v>https://img.kwcdn.com/product/fancy/33be0738-44c2-4432-b9a7-533f3e04e49b.jpg</v>
+      </c>
+      <c r="L174" t="str">
+        <v>女童运动凉鞋</v>
       </c>
     </row>
     <row r="175">
       <c r="A175">
+        <v>634418219683784</v>
+      </c>
+      <c r="B175">
+        <v>6262996099</v>
+      </c>
+      <c r="C175">
         <v>17584545765</v>
       </c>
-      <c r="B175">
+      <c r="D175">
         <v>48854047087</v>
       </c>
-      <c r="C175">
+      <c r="E175">
         <v>78235963121</v>
       </c>
-      <c r="D175" t="str">
+      <c r="F175" t="str">
         <v>6233</v>
       </c>
-      <c r="E175" t="str">
+      <c r="G175" t="str">
         <v>6233-TZ-PinkRed-37</v>
       </c>
-      <c r="F175" t="str">
+      <c r="H175" t="str">
         <v>粉红色</v>
       </c>
-      <c r="G175" t="str">
+      <c r="I175" t="str">
         <v>37</v>
       </c>
-      <c r="H175" t="str">
-        <v>Pink Color</v>
+      <c r="J175" t="str">
+        <v>Pink</v>
+      </c>
+      <c r="K175" t="str">
+        <v>https://img.kwcdn.com/product/fancy/e4e02627-161f-467a-b09f-098a7b29b26d.jpg</v>
+      </c>
+      <c r="L175" t="str">
+        <v>女童运动凉鞋</v>
       </c>
     </row>
     <row r="176">
       <c r="A176">
+        <v>634418219683784</v>
+      </c>
+      <c r="B176">
+        <v>6262996099</v>
+      </c>
+      <c r="C176">
         <v>17584545765</v>
       </c>
-      <c r="B176">
+      <c r="D176">
         <v>34242125984</v>
       </c>
-      <c r="C176">
+      <c r="E176">
         <v>33286509633</v>
       </c>
-      <c r="D176" t="str">
+      <c r="F176" t="str">
         <v>6233</v>
       </c>
-      <c r="E176" t="str">
+      <c r="G176" t="str">
         <v>6233-TZ-PinkRed-35</v>
       </c>
-      <c r="F176" t="str">
+      <c r="H176" t="str">
         <v>粉红色</v>
       </c>
-      <c r="G176" t="str">
+      <c r="I176" t="str">
         <v>35</v>
       </c>
-      <c r="H176" t="str">
-        <v>Pink Color</v>
+      <c r="J176" t="str">
+        <v>Pink</v>
+      </c>
+      <c r="K176" t="str">
+        <v>https://img.kwcdn.com/product/fancy/e4e02627-161f-467a-b09f-098a7b29b26d.jpg</v>
+      </c>
+      <c r="L176" t="str">
+        <v>女童运动凉鞋</v>
       </c>
     </row>
     <row r="177">
       <c r="A177">
+        <v>634418219683784</v>
+      </c>
+      <c r="B177">
+        <v>6262996099</v>
+      </c>
+      <c r="C177">
         <v>17584545765</v>
       </c>
-      <c r="B177">
+      <c r="D177">
         <v>24948146122</v>
       </c>
-      <c r="C177">
+      <c r="E177">
         <v>19196707893</v>
       </c>
-      <c r="D177" t="str">
+      <c r="F177" t="str">
         <v>6233</v>
       </c>
-      <c r="E177" t="str">
+      <c r="G177" t="str">
         <v>6233-TZ-PinkRed-29</v>
       </c>
-      <c r="F177" t="str">
+      <c r="H177" t="str">
         <v>粉红色</v>
       </c>
-      <c r="G177" t="str">
+      <c r="I177" t="str">
         <v>29</v>
       </c>
-      <c r="H177" t="str">
-        <v>Pink Color</v>
+      <c r="J177" t="str">
+        <v>Pink</v>
+      </c>
+      <c r="K177" t="str">
+        <v>https://img.kwcdn.com/product/fancy/e4e02627-161f-467a-b09f-098a7b29b26d.jpg</v>
+      </c>
+      <c r="L177" t="str">
+        <v>女童运动凉鞋</v>
       </c>
     </row>
     <row r="178">
       <c r="A178">
+        <v>634418219683784</v>
+      </c>
+      <c r="B178">
+        <v>6262996099</v>
+      </c>
+      <c r="C178">
         <v>17584545765</v>
       </c>
-      <c r="B178">
+      <c r="D178">
         <v>29820429818</v>
       </c>
-      <c r="C178">
+      <c r="E178">
         <v>20555401088</v>
       </c>
-      <c r="D178" t="str">
+      <c r="F178" t="str">
         <v>6233</v>
       </c>
-      <c r="E178" t="str">
+      <c r="G178" t="str">
         <v>6233-TZ-PinkRed-33</v>
       </c>
-      <c r="F178" t="str">
+      <c r="H178" t="str">
         <v>粉红色</v>
       </c>
-      <c r="G178" t="str">
+      <c r="I178" t="str">
         <v>33</v>
       </c>
-      <c r="H178" t="str">
-        <v>Pink Color</v>
+      <c r="J178" t="str">
+        <v>Pink</v>
+      </c>
+      <c r="K178" t="str">
+        <v>https://img.kwcdn.com/product/fancy/e4e02627-161f-467a-b09f-098a7b29b26d.jpg</v>
+      </c>
+      <c r="L178" t="str">
+        <v>女童运动凉鞋</v>
       </c>
     </row>
     <row r="179">
       <c r="A179">
+        <v>634418219683784</v>
+      </c>
+      <c r="B179">
+        <v>6262996099</v>
+      </c>
+      <c r="C179">
         <v>17584545765</v>
       </c>
-      <c r="B179">
+      <c r="D179">
         <v>65938378996</v>
       </c>
-      <c r="C179">
+      <c r="E179">
         <v>16393870282</v>
       </c>
-      <c r="D179" t="str">
+      <c r="F179" t="str">
         <v>6233</v>
       </c>
-      <c r="E179" t="str">
+      <c r="G179" t="str">
         <v>6233-TZ-PinkRed-25</v>
       </c>
-      <c r="F179" t="str">
+      <c r="H179" t="str">
         <v>粉红色</v>
       </c>
-      <c r="G179" t="str">
+      <c r="I179" t="str">
         <v>25</v>
       </c>
-      <c r="H179" t="str">
-        <v>Pink Color</v>
+      <c r="J179" t="str">
+        <v>Pink</v>
+      </c>
+      <c r="K179" t="str">
+        <v>https://img.kwcdn.com/product/fancy/e4e02627-161f-467a-b09f-098a7b29b26d.jpg</v>
+      </c>
+      <c r="L179" t="str">
+        <v>女童运动凉鞋</v>
       </c>
     </row>
     <row r="180">
       <c r="A180">
+        <v>634418219683784</v>
+      </c>
+      <c r="B180">
+        <v>6262996099</v>
+      </c>
+      <c r="C180">
         <v>17584545765</v>
       </c>
-      <c r="B180">
+      <c r="D180">
         <v>67368152207</v>
       </c>
-      <c r="C180">
+      <c r="E180">
         <v>60638533807</v>
       </c>
-      <c r="D180" t="str">
+      <c r="F180" t="str">
         <v>6233</v>
       </c>
-      <c r="E180" t="str">
+      <c r="G180" t="str">
         <v>6233-TZ-PinkRed-28</v>
       </c>
-      <c r="F180" t="str">
+      <c r="H180" t="str">
         <v>粉红色</v>
       </c>
-      <c r="G180" t="str">
+      <c r="I180" t="str">
         <v>28</v>
       </c>
-      <c r="H180" t="str">
-        <v>Pink Color</v>
+      <c r="J180" t="str">
+        <v>Pink</v>
+      </c>
+      <c r="K180" t="str">
+        <v>https://img.kwcdn.com/product/fancy/e4e02627-161f-467a-b09f-098a7b29b26d.jpg</v>
+      </c>
+      <c r="L180" t="str">
+        <v>女童运动凉鞋</v>
       </c>
     </row>
     <row r="181">
       <c r="A181">
+        <v>634418219683784</v>
+      </c>
+      <c r="B181">
+        <v>6262996099</v>
+      </c>
+      <c r="C181">
         <v>17584545765</v>
       </c>
-      <c r="B181">
+      <c r="D181">
         <v>73767330557</v>
       </c>
-      <c r="C181">
+      <c r="E181">
         <v>41347095172</v>
       </c>
-      <c r="D181" t="str">
+      <c r="F181" t="str">
         <v>6233</v>
       </c>
-      <c r="E181" t="str">
+      <c r="G181" t="str">
         <v>6233-TZ-BlackOrange-36</v>
       </c>
-      <c r="F181" t="str">
+      <c r="H181" t="str">
         <v>黑桔</v>
       </c>
-      <c r="G181" t="str">
+      <c r="I181" t="str">
         <v>36</v>
       </c>
-      <c r="H181" t="str">
+      <c r="J181" t="str">
         <v>Black Orange</v>
+      </c>
+      <c r="K181" t="str">
+        <v>https://img.kwcdn.com/product/fancy/33be0738-44c2-4432-b9a7-533f3e04e49b.jpg</v>
+      </c>
+      <c r="L181" t="str">
+        <v>女童运动凉鞋</v>
       </c>
     </row>
     <row r="182">
       <c r="A182">
+        <v>634418219683784</v>
+      </c>
+      <c r="B182">
+        <v>6262996099</v>
+      </c>
+      <c r="C182">
         <v>17584545765</v>
       </c>
-      <c r="B182">
+      <c r="D182">
         <v>21991358186</v>
       </c>
-      <c r="C182">
+      <c r="E182">
         <v>61295089435</v>
       </c>
-      <c r="D182" t="str">
+      <c r="F182" t="str">
         <v>6233</v>
       </c>
-      <c r="E182" t="str">
+      <c r="G182" t="str">
         <v>6233-TZ-BlackOrange-27</v>
       </c>
-      <c r="F182" t="str">
+      <c r="H182" t="str">
         <v>黑桔</v>
       </c>
-      <c r="G182" t="str">
+      <c r="I182" t="str">
         <v>27</v>
       </c>
-      <c r="H182" t="str">
+      <c r="J182" t="str">
         <v>Black Orange</v>
+      </c>
+      <c r="K182" t="str">
+        <v>https://img.kwcdn.com/product/fancy/33be0738-44c2-4432-b9a7-533f3e04e49b.jpg</v>
+      </c>
+      <c r="L182" t="str">
+        <v>女童运动凉鞋</v>
       </c>
     </row>
     <row r="183">
       <c r="A183">
+        <v>634418219683784</v>
+      </c>
+      <c r="B183">
+        <v>6262996099</v>
+      </c>
+      <c r="C183">
         <v>17584545765</v>
       </c>
-      <c r="B183">
+      <c r="D183">
         <v>12265019421</v>
       </c>
-      <c r="C183">
+      <c r="E183">
         <v>32255527099</v>
       </c>
-      <c r="D183" t="str">
+      <c r="F183" t="str">
         <v>6233</v>
       </c>
-      <c r="E183" t="str">
+      <c r="G183" t="str">
         <v>6233-TZ-BlackOrange-28</v>
       </c>
-      <c r="F183" t="str">
+      <c r="H183" t="str">
         <v>黑桔</v>
       </c>
-      <c r="G183" t="str">
+      <c r="I183" t="str">
         <v>28</v>
       </c>
-      <c r="H183" t="str">
+      <c r="J183" t="str">
         <v>Black Orange</v>
+      </c>
+      <c r="K183" t="str">
+        <v>https://img.kwcdn.com/product/fancy/33be0738-44c2-4432-b9a7-533f3e04e49b.jpg</v>
+      </c>
+      <c r="L183" t="str">
+        <v>女童运动凉鞋</v>
       </c>
     </row>
     <row r="184">
       <c r="A184">
+        <v>634418219683784</v>
+      </c>
+      <c r="B184">
+        <v>6262996099</v>
+      </c>
+      <c r="C184">
         <v>17584545765</v>
       </c>
-      <c r="B184">
+      <c r="D184">
         <v>41144157783</v>
       </c>
-      <c r="C184">
+      <c r="E184">
         <v>55794014857</v>
       </c>
-      <c r="D184" t="str">
+      <c r="F184" t="str">
         <v>6233</v>
       </c>
-      <c r="E184" t="str">
+      <c r="G184" t="str">
         <v>6233-TZ-BlackOrange-25</v>
       </c>
-      <c r="F184" t="str">
+      <c r="H184" t="str">
         <v>黑桔</v>
       </c>
-      <c r="G184" t="str">
+      <c r="I184" t="str">
         <v>25</v>
       </c>
-      <c r="H184" t="str">
+      <c r="J184" t="str">
         <v>Black Orange</v>
+      </c>
+      <c r="K184" t="str">
+        <v>https://img.kwcdn.com/product/fancy/33be0738-44c2-4432-b9a7-533f3e04e49b.jpg</v>
+      </c>
+      <c r="L184" t="str">
+        <v>女童运动凉鞋</v>
       </c>
     </row>
     <row r="185">
       <c r="A185">
+        <v>634418219683784</v>
+      </c>
+      <c r="B185">
+        <v>6262996099</v>
+      </c>
+      <c r="C185">
         <v>17584545765</v>
       </c>
-      <c r="B185">
+      <c r="D185">
         <v>75874367091</v>
       </c>
-      <c r="C185">
+      <c r="E185">
         <v>59568968659</v>
       </c>
-      <c r="D185" t="str">
+      <c r="F185" t="str">
         <v>6233</v>
       </c>
-      <c r="E185" t="str">
+      <c r="G185" t="str">
         <v>6233-TZ-PinkRed-34</v>
       </c>
-      <c r="F185" t="str">
+      <c r="H185" t="str">
         <v>粉红色</v>
       </c>
-      <c r="G185" t="str">
+      <c r="I185" t="str">
         <v>34</v>
       </c>
-      <c r="H185" t="str">
-        <v>Pink Color</v>
+      <c r="J185" t="str">
+        <v>Pink</v>
+      </c>
+      <c r="K185" t="str">
+        <v>https://img.kwcdn.com/product/fancy/e4e02627-161f-467a-b09f-098a7b29b26d.jpg</v>
+      </c>
+      <c r="L185" t="str">
+        <v>女童运动凉鞋</v>
       </c>
     </row>
     <row r="186">
       <c r="A186">
+        <v>634418219683784</v>
+      </c>
+      <c r="B186">
+        <v>6262996099</v>
+      </c>
+      <c r="C186">
         <v>17584545765</v>
       </c>
-      <c r="B186">
+      <c r="D186">
         <v>17736245276</v>
       </c>
-      <c r="C186">
+      <c r="E186">
         <v>82340013694</v>
       </c>
-      <c r="D186" t="str">
+      <c r="F186" t="str">
         <v>6233</v>
       </c>
-      <c r="E186" t="str">
+      <c r="G186" t="str">
         <v>6233-TZ-BlackOrange-29</v>
       </c>
-      <c r="F186" t="str">
+      <c r="H186" t="str">
         <v>黑桔</v>
       </c>
-      <c r="G186" t="str">
+      <c r="I186" t="str">
         <v>29</v>
       </c>
-      <c r="H186" t="str">
+      <c r="J186" t="str">
         <v>Black Orange</v>
+      </c>
+      <c r="K186" t="str">
+        <v>https://img.kwcdn.com/product/fancy/33be0738-44c2-4432-b9a7-533f3e04e49b.jpg</v>
+      </c>
+      <c r="L186" t="str">
+        <v>女童运动凉鞋</v>
       </c>
     </row>
     <row r="187">
       <c r="A187">
+        <v>634418219683784</v>
+      </c>
+      <c r="B187">
+        <v>6262996099</v>
+      </c>
+      <c r="C187">
         <v>17584545765</v>
       </c>
-      <c r="B187">
+      <c r="D187">
         <v>25346138517</v>
       </c>
-      <c r="C187">
+      <c r="E187">
         <v>94327115795</v>
       </c>
-      <c r="D187" t="str">
+      <c r="F187" t="str">
         <v>6233</v>
       </c>
-      <c r="E187" t="str">
+      <c r="G187" t="str">
         <v>6233-TZ-PinkRed-30</v>
       </c>
-      <c r="F187" t="str">
+      <c r="H187" t="str">
         <v>粉红色</v>
       </c>
-      <c r="G187" t="str">
+      <c r="I187" t="str">
         <v>30</v>
       </c>
-      <c r="H187" t="str">
-        <v>Pink Color</v>
+      <c r="J187" t="str">
+        <v>Pink</v>
+      </c>
+      <c r="K187" t="str">
+        <v>https://img.kwcdn.com/product/fancy/e4e02627-161f-467a-b09f-098a7b29b26d.jpg</v>
+      </c>
+      <c r="L187" t="str">
+        <v>女童运动凉鞋</v>
       </c>
     </row>
     <row r="188">
       <c r="A188">
+        <v>634418219683784</v>
+      </c>
+      <c r="B188">
+        <v>6262996099</v>
+      </c>
+      <c r="C188">
         <v>17584545765</v>
       </c>
-      <c r="B188">
+      <c r="D188">
         <v>66578742582</v>
       </c>
-      <c r="C188">
+      <c r="E188">
         <v>46844454552</v>
       </c>
-      <c r="D188" t="str">
+      <c r="F188" t="str">
         <v>6233</v>
       </c>
-      <c r="E188" t="str">
+      <c r="G188" t="str">
         <v>6233-TZ-BlackOrange-30</v>
       </c>
-      <c r="F188" t="str">
+      <c r="H188" t="str">
         <v>黑桔</v>
       </c>
-      <c r="G188" t="str">
+      <c r="I188" t="str">
         <v>30</v>
       </c>
-      <c r="H188" t="str">
+      <c r="J188" t="str">
         <v>Black Orange</v>
+      </c>
+      <c r="K188" t="str">
+        <v>https://img.kwcdn.com/product/fancy/33be0738-44c2-4432-b9a7-533f3e04e49b.jpg</v>
+      </c>
+      <c r="L188" t="str">
+        <v>女童运动凉鞋</v>
       </c>
     </row>
     <row r="189">
       <c r="A189">
+        <v>634418219683784</v>
+      </c>
+      <c r="B189">
+        <v>6262996099</v>
+      </c>
+      <c r="C189">
         <v>17584545765</v>
       </c>
-      <c r="B189">
+      <c r="D189">
         <v>98852812387</v>
       </c>
-      <c r="C189">
+      <c r="E189">
         <v>78932293589</v>
       </c>
-      <c r="D189" t="str">
+      <c r="F189" t="str">
         <v>6233</v>
       </c>
-      <c r="E189" t="str">
+      <c r="G189" t="str">
         <v>6233-TZ-BlackOrange-35</v>
       </c>
-      <c r="F189" t="str">
+      <c r="H189" t="str">
         <v>黑桔</v>
       </c>
-      <c r="G189" t="str">
+      <c r="I189" t="str">
         <v>35</v>
       </c>
-      <c r="H189" t="str">
+      <c r="J189" t="str">
         <v>Black Orange</v>
+      </c>
+      <c r="K189" t="str">
+        <v>https://img.kwcdn.com/product/fancy/33be0738-44c2-4432-b9a7-533f3e04e49b.jpg</v>
+      </c>
+      <c r="L189" t="str">
+        <v>女童运动凉鞋</v>
       </c>
     </row>
     <row r="190">
       <c r="A190">
+        <v>634418219683784</v>
+      </c>
+      <c r="B190">
+        <v>6262996099</v>
+      </c>
+      <c r="C190">
         <v>17584545765</v>
       </c>
-      <c r="B190">
+      <c r="D190">
         <v>18756046820</v>
       </c>
-      <c r="C190">
+      <c r="E190">
         <v>87777360753</v>
       </c>
-      <c r="D190" t="str">
+      <c r="F190" t="str">
         <v>6233</v>
       </c>
-      <c r="E190" t="str">
+      <c r="G190" t="str">
         <v>6233-TZ-PinkRed-31</v>
       </c>
-      <c r="F190" t="str">
+      <c r="H190" t="str">
         <v>粉红色</v>
       </c>
-      <c r="G190" t="str">
+      <c r="I190" t="str">
         <v>31</v>
       </c>
-      <c r="H190" t="str">
-        <v>Pink Color</v>
+      <c r="J190" t="str">
+        <v>Pink</v>
+      </c>
+      <c r="K190" t="str">
+        <v>https://img.kwcdn.com/product/fancy/e4e02627-161f-467a-b09f-098a7b29b26d.jpg</v>
+      </c>
+      <c r="L190" t="str">
+        <v>女童运动凉鞋</v>
       </c>
     </row>
     <row r="191">
       <c r="A191">
+        <v>634418219683784</v>
+      </c>
+      <c r="B191">
+        <v>6262996099</v>
+      </c>
+      <c r="C191">
         <v>17584545765</v>
       </c>
-      <c r="B191">
+      <c r="D191">
         <v>16724396284</v>
       </c>
-      <c r="C191">
+      <c r="E191">
         <v>66427689030</v>
       </c>
-      <c r="D191" t="str">
+      <c r="F191" t="str">
         <v>6233</v>
       </c>
-      <c r="E191" t="str">
+      <c r="G191" t="str">
         <v>6233-TZ-PinkRed-27</v>
       </c>
-      <c r="F191" t="str">
+      <c r="H191" t="str">
         <v>粉红色</v>
       </c>
-      <c r="G191" t="str">
+      <c r="I191" t="str">
         <v>27</v>
       </c>
-      <c r="H191" t="str">
-        <v>Pink Color</v>
+      <c r="J191" t="str">
+        <v>Pink</v>
+      </c>
+      <c r="K191" t="str">
+        <v>https://img.kwcdn.com/product/fancy/e4e02627-161f-467a-b09f-098a7b29b26d.jpg</v>
+      </c>
+      <c r="L191" t="str">
+        <v>女童运动凉鞋</v>
       </c>
     </row>
     <row r="192">
       <c r="A192">
+        <v>634418219683784</v>
+      </c>
+      <c r="B192">
+        <v>6262996099</v>
+      </c>
+      <c r="C192">
         <v>17584545765</v>
       </c>
-      <c r="B192">
+      <c r="D192">
         <v>99487297945</v>
       </c>
-      <c r="C192">
+      <c r="E192">
         <v>43863049836</v>
       </c>
-      <c r="D192" t="str">
+      <c r="F192" t="str">
         <v>6233</v>
       </c>
-      <c r="E192" t="str">
+      <c r="G192" t="str">
         <v>6233-TZ-BlackOrange-31</v>
       </c>
-      <c r="F192" t="str">
+      <c r="H192" t="str">
         <v>黑桔</v>
       </c>
-      <c r="G192" t="str">
+      <c r="I192" t="str">
         <v>31</v>
       </c>
-      <c r="H192" t="str">
+      <c r="J192" t="str">
         <v>Black Orange</v>
+      </c>
+      <c r="K192" t="str">
+        <v>https://img.kwcdn.com/product/fancy/33be0738-44c2-4432-b9a7-533f3e04e49b.jpg</v>
+      </c>
+      <c r="L192" t="str">
+        <v>女童运动凉鞋</v>
       </c>
     </row>
     <row r="193">
       <c r="A193">
+        <v>634418219683784</v>
+      </c>
+      <c r="B193">
+        <v>6262996099</v>
+      </c>
+      <c r="C193">
         <v>17584545765</v>
       </c>
-      <c r="B193">
+      <c r="D193">
         <v>39440755713</v>
       </c>
-      <c r="C193">
+      <c r="E193">
         <v>12241244491</v>
       </c>
-      <c r="D193" t="str">
+      <c r="F193" t="str">
         <v>6233</v>
       </c>
-      <c r="E193" t="str">
+      <c r="G193" t="str">
         <v>6233-TZ-BlackOrange-37</v>
       </c>
-      <c r="F193" t="str">
+      <c r="H193" t="str">
         <v>黑桔</v>
       </c>
-      <c r="G193" t="str">
+      <c r="I193" t="str">
         <v>37</v>
       </c>
-      <c r="H193" t="str">
+      <c r="J193" t="str">
         <v>Black Orange</v>
+      </c>
+      <c r="K193" t="str">
+        <v>https://img.kwcdn.com/product/fancy/33be0738-44c2-4432-b9a7-533f3e04e49b.jpg</v>
+      </c>
+      <c r="L193" t="str">
+        <v>女童运动凉鞋</v>
       </c>
     </row>
     <row r="194">
       <c r="A194">
+        <v>634418219683784</v>
+      </c>
+      <c r="B194">
+        <v>6262996099</v>
+      </c>
+      <c r="C194">
         <v>17584545765</v>
       </c>
-      <c r="B194">
+      <c r="D194">
         <v>33120986443</v>
       </c>
-      <c r="C194">
+      <c r="E194">
         <v>54778182574</v>
       </c>
-      <c r="D194" t="str">
+      <c r="F194" t="str">
         <v>6233</v>
       </c>
-      <c r="E194" t="str">
+      <c r="G194" t="str">
         <v>6233-TZ-BlackOrange-26</v>
       </c>
-      <c r="F194" t="str">
+      <c r="H194" t="str">
         <v>黑桔</v>
       </c>
-      <c r="G194" t="str">
+      <c r="I194" t="str">
         <v>26</v>
       </c>
-      <c r="H194" t="str">
+      <c r="J194" t="str">
         <v>Black Orange</v>
+      </c>
+      <c r="K194" t="str">
+        <v>https://img.kwcdn.com/product/fancy/33be0738-44c2-4432-b9a7-533f3e04e49b.jpg</v>
+      </c>
+      <c r="L194" t="str">
+        <v>女童运动凉鞋</v>
       </c>
     </row>
     <row r="195">
       <c r="A195">
+        <v>634418219683784</v>
+      </c>
+      <c r="B195">
+        <v>6262996099</v>
+      </c>
+      <c r="C195">
         <v>17584545765</v>
       </c>
-      <c r="B195">
+      <c r="D195">
         <v>64553043007</v>
       </c>
-      <c r="C195">
+      <c r="E195">
         <v>82876830301</v>
       </c>
-      <c r="D195" t="str">
+      <c r="F195" t="str">
         <v>6233</v>
       </c>
-      <c r="E195" t="str">
+      <c r="G195" t="str">
         <v>6233-TZ-PinkRed-26</v>
       </c>
-      <c r="F195" t="str">
+      <c r="H195" t="str">
         <v>粉红色</v>
       </c>
-      <c r="G195" t="str">
+      <c r="I195" t="str">
         <v>26</v>
       </c>
-      <c r="H195" t="str">
-        <v>Pink Color</v>
+      <c r="J195" t="str">
+        <v>Pink</v>
+      </c>
+      <c r="K195" t="str">
+        <v>https://img.kwcdn.com/product/fancy/e4e02627-161f-467a-b09f-098a7b29b26d.jpg</v>
+      </c>
+      <c r="L195" t="str">
+        <v>女童运动凉鞋</v>
       </c>
     </row>
     <row r="196">
       <c r="A196">
+        <v>634418219683784</v>
+      </c>
+      <c r="B196">
+        <v>6262996099</v>
+      </c>
+      <c r="C196">
         <v>17584545765</v>
       </c>
-      <c r="B196">
+      <c r="D196">
         <v>55993774501</v>
       </c>
-      <c r="C196">
+      <c r="E196">
         <v>40976626702</v>
       </c>
-      <c r="D196" t="str">
+      <c r="F196" t="str">
         <v>6233</v>
       </c>
-      <c r="E196" t="str">
+      <c r="G196" t="str">
         <v>6233-TZ-PinkRed-36</v>
       </c>
-      <c r="F196" t="str">
+      <c r="H196" t="str">
         <v>粉红色</v>
       </c>
-      <c r="G196" t="str">
+      <c r="I196" t="str">
         <v>36</v>
       </c>
-      <c r="H196" t="str">
-        <v>Pink Color</v>
+      <c r="J196" t="str">
+        <v>Pink</v>
+      </c>
+      <c r="K196" t="str">
+        <v>https://img.kwcdn.com/product/fancy/e4e02627-161f-467a-b09f-098a7b29b26d.jpg</v>
+      </c>
+      <c r="L196" t="str">
+        <v>女童运动凉鞋</v>
       </c>
     </row>
     <row r="197">
       <c r="A197">
+        <v>634418219683784</v>
+      </c>
+      <c r="B197">
+        <v>6262996099</v>
+      </c>
+      <c r="C197">
         <v>17584545765</v>
       </c>
-      <c r="B197">
+      <c r="D197">
         <v>16740207578</v>
       </c>
-      <c r="C197">
+      <c r="E197">
         <v>70012488417</v>
       </c>
-      <c r="D197" t="str">
+      <c r="F197" t="str">
         <v>6233</v>
       </c>
-      <c r="E197" t="str">
+      <c r="G197" t="str">
         <v>6233-TZ-PinkRed-24</v>
       </c>
-      <c r="F197" t="str">
+      <c r="H197" t="str">
         <v>粉红色</v>
       </c>
-      <c r="G197" t="str">
+      <c r="I197" t="str">
         <v>24</v>
       </c>
-      <c r="H197" t="str">
-        <v>Pink Color</v>
+      <c r="J197" t="str">
+        <v>Pink</v>
+      </c>
+      <c r="K197" t="str">
+        <v>https://img.kwcdn.com/product/fancy/e4e02627-161f-467a-b09f-098a7b29b26d.jpg</v>
+      </c>
+      <c r="L197" t="str">
+        <v>女童运动凉鞋</v>
       </c>
     </row>
     <row r="198">
       <c r="A198">
+        <v>634418219683784</v>
+      </c>
+      <c r="B198">
+        <v>6262996099</v>
+      </c>
+      <c r="C198">
         <v>17584545765</v>
       </c>
-      <c r="B198">
+      <c r="D198">
         <v>61050199350</v>
       </c>
-      <c r="C198">
+      <c r="E198">
         <v>42419306715</v>
       </c>
-      <c r="D198" t="str">
+      <c r="F198" t="str">
         <v>6233</v>
       </c>
-      <c r="E198" t="str">
+      <c r="G198" t="str">
         <v>6233-TZ-BlackOrange-33</v>
       </c>
-      <c r="F198" t="str">
+      <c r="H198" t="str">
         <v>黑桔</v>
       </c>
-      <c r="G198" t="str">
+      <c r="I198" t="str">
         <v>33</v>
       </c>
-      <c r="H198" t="str">
+      <c r="J198" t="str">
         <v>Black Orange</v>
+      </c>
+      <c r="K198" t="str">
+        <v>https://img.kwcdn.com/product/fancy/33be0738-44c2-4432-b9a7-533f3e04e49b.jpg</v>
+      </c>
+      <c r="L198" t="str">
+        <v>女童运动凉鞋</v>
       </c>
     </row>
     <row r="199">
       <c r="A199">
+        <v>634418219683784</v>
+      </c>
+      <c r="B199">
+        <v>3927440807</v>
+      </c>
+      <c r="C199">
         <v>56035397993</v>
       </c>
-      <c r="B199">
+      <c r="D199">
         <v>16082473762</v>
       </c>
-      <c r="C199">
+      <c r="E199">
         <v>66776261185</v>
       </c>
-      <c r="D199" t="str">
+      <c r="F199" t="str">
         <v>6201</v>
       </c>
-      <c r="E199" t="str">
+      <c r="G199" t="str">
         <v>6201-TZBlackLakeBlue32</v>
       </c>
-      <c r="F199" t="str">
+      <c r="H199" t="str">
         <v>黑湖蓝</v>
       </c>
-      <c r="G199" t="str">
+      <c r="I199" t="str">
         <v>32</v>
       </c>
-      <c r="H199" t="str">
+      <c r="J199" t="str">
         <v>Black Lake Blue</v>
+      </c>
+      <c r="K199" t="str">
+        <v>https://img.kwcdn.com/product/fancy/2ef3f4bc-ebd1-4c12-9075-ad504c012ea6.jpg</v>
+      </c>
+      <c r="L199" t="str">
+        <v>溯溪鞋</v>
       </c>
     </row>
     <row r="200">
       <c r="A200">
+        <v>634418219683784</v>
+      </c>
+      <c r="B200">
+        <v>3927440807</v>
+      </c>
+      <c r="C200">
         <v>56035397993</v>
       </c>
-      <c r="B200">
+      <c r="D200">
         <v>77062585302</v>
       </c>
-      <c r="C200">
+      <c r="E200">
         <v>25345088516</v>
       </c>
-      <c r="D200" t="str">
+      <c r="F200" t="str">
         <v>6201</v>
       </c>
-      <c r="E200" t="str">
+      <c r="G200" t="str">
         <v>6201-TZBlackLakeBlue27</v>
       </c>
-      <c r="F200" t="str">
+      <c r="H200" t="str">
         <v>黑湖蓝</v>
       </c>
-      <c r="G200" t="str">
+      <c r="I200" t="str">
         <v>27</v>
       </c>
-      <c r="H200" t="str">
+      <c r="J200" t="str">
         <v>Black Lake Blue</v>
+      </c>
+      <c r="K200" t="str">
+        <v>https://img.kwcdn.com/product/fancy/2ef3f4bc-ebd1-4c12-9075-ad504c012ea6.jpg</v>
+      </c>
+      <c r="L200" t="str">
+        <v>溯溪鞋</v>
       </c>
     </row>
     <row r="201">
       <c r="A201">
+        <v>634418219683784</v>
+      </c>
+      <c r="B201">
+        <v>3927440807</v>
+      </c>
+      <c r="C201">
         <v>56035397993</v>
       </c>
-      <c r="B201">
+      <c r="D201">
         <v>53689114899</v>
       </c>
-      <c r="C201">
+      <c r="E201">
         <v>87578471678</v>
       </c>
-      <c r="D201" t="str">
+      <c r="F201" t="str">
         <v>6201</v>
       </c>
-      <c r="E201" t="str">
+      <c r="G201" t="str">
         <v>6201-TZBlackLakeBlue33</v>
       </c>
-      <c r="F201" t="str">
+      <c r="H201" t="str">
         <v>黑湖蓝</v>
       </c>
-      <c r="G201" t="str">
+      <c r="I201" t="str">
         <v>33</v>
       </c>
-      <c r="H201" t="str">
+      <c r="J201" t="str">
         <v>Black Lake Blue</v>
+      </c>
+      <c r="K201" t="str">
+        <v>https://img.kwcdn.com/product/fancy/2ef3f4bc-ebd1-4c12-9075-ad504c012ea6.jpg</v>
+      </c>
+      <c r="L201" t="str">
+        <v>溯溪鞋</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H201"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L201"/>
   </ignoredErrors>
 </worksheet>
 </file>